--- a/DOC/DMS开发计划-6.5.xlsx
+++ b/DOC/DMS开发计划-6.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13185"/>
+    <workbookView windowWidth="28695" windowHeight="13185" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="系统设置" sheetId="2" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="财务" sheetId="10" r:id="rId8"/>
     <sheet name="保险" sheetId="9" r:id="rId9"/>
     <sheet name="报表" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
   <si>
     <t>功能模块</t>
   </si>
@@ -55,6 +56,9 @@
     <t>杨</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>业务提醒默认显示本人的工单</t>
   </si>
   <si>
@@ -103,6 +107,9 @@
     <t>查车单</t>
   </si>
   <si>
+    <t>NG</t>
+  </si>
+  <si>
     <t>预检单</t>
   </si>
   <si>
@@ -193,229 +200,226 @@
     <t>添加用户自己关注的品牌</t>
   </si>
   <si>
+    <t>配件分类</t>
+  </si>
+  <si>
+    <t>云分类</t>
+  </si>
+  <si>
+    <t>自定义分类</t>
+  </si>
+  <si>
+    <t>只能添加和修改本地分类</t>
+  </si>
+  <si>
+    <t>配件资料</t>
+  </si>
+  <si>
+    <t>本地配件资料</t>
+  </si>
+  <si>
+    <t>云配件资料</t>
+  </si>
+  <si>
+    <t>工时信息</t>
+  </si>
+  <si>
+    <t>本地工时信息</t>
+  </si>
+  <si>
+    <t>云工时信息</t>
+  </si>
+  <si>
+    <t>公司信息</t>
+  </si>
+  <si>
+    <t>设置公司信息</t>
+  </si>
+  <si>
+    <t>数据导入</t>
+  </si>
+  <si>
+    <t>供应商导入</t>
+  </si>
+  <si>
+    <t>客户车辆资料导入</t>
+  </si>
+  <si>
+    <t>期初库存导入</t>
+  </si>
+  <si>
+    <t>期初应收应付导入</t>
+  </si>
+  <si>
+    <t>员工信息导入</t>
+  </si>
+  <si>
+    <t>配件资料导入</t>
+  </si>
+  <si>
+    <t>工时信息导入</t>
+  </si>
+  <si>
+    <t>业务分类</t>
+  </si>
+  <si>
+    <t>固定 维修、保养、美容、钣喷漆、轮胎、洗车、精品、零售，其它</t>
+  </si>
+  <si>
+    <t>用户在系统提供的几个分类上面，只能添加自己的</t>
+  </si>
+  <si>
+    <t>仓库管理</t>
+  </si>
+  <si>
+    <t>仓库管理、仓位管理</t>
+  </si>
+  <si>
+    <t>结算账户定义</t>
+  </si>
+  <si>
+    <t>账户定义、账户结算方式定义</t>
+  </si>
+  <si>
+    <t>期初现金银行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设置系统启用之前各资金账户的余额 </t>
+  </si>
+  <si>
+    <t>收支项目定义</t>
+  </si>
+  <si>
+    <t>预约</t>
+  </si>
+  <si>
+    <t>微信预约</t>
+  </si>
+  <si>
+    <t>客户预约完后，预约单待确认</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>确认预约单</t>
+  </si>
+  <si>
+    <t>开单</t>
+  </si>
+  <si>
+    <t>判断是否已有客户信息，没有需要新增客户信息</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>微信评价</t>
+  </si>
+  <si>
+    <t>客户通过微信预约</t>
+  </si>
+  <si>
+    <t>综合工单</t>
+  </si>
+  <si>
+    <t>新建、修改，完工，删除</t>
+  </si>
+  <si>
+    <t>工单首页</t>
+  </si>
+  <si>
+    <t>车主信息、联系人信息、保险信息、工时信息、配件信息</t>
+  </si>
+  <si>
+    <t>查询工时、添加工时</t>
+  </si>
+  <si>
+    <t>查询配件、添加配件</t>
+  </si>
+  <si>
+    <t>会员卡、维修履历、相关单据</t>
+  </si>
+  <si>
+    <t>质检完工</t>
+  </si>
+  <si>
+    <t>新建回访</t>
+  </si>
+  <si>
+    <t>返厂</t>
+  </si>
+  <si>
+    <t>退货</t>
+  </si>
+  <si>
+    <t>收款详情</t>
+  </si>
+  <si>
+    <t>打印委托单</t>
+  </si>
+  <si>
+    <t>打印结算单</t>
+  </si>
+  <si>
+    <t>取消收款</t>
+  </si>
+  <si>
+    <t>检测开单</t>
+  </si>
+  <si>
+    <t>查车列表</t>
+  </si>
+  <si>
+    <t>新建接车预检</t>
+  </si>
+  <si>
+    <t>新建查车</t>
+  </si>
+  <si>
+    <t>洗车开单</t>
+  </si>
+  <si>
+    <t>列表</t>
+  </si>
+  <si>
+    <t>新建、修改，完工，结算，删除</t>
+  </si>
+  <si>
+    <t>洗车履历</t>
+  </si>
+  <si>
+    <t>选择工时，选择服务项目</t>
+  </si>
+  <si>
+    <t>销售开单</t>
+  </si>
+  <si>
+    <t>新建，修改，收款，退货</t>
+  </si>
+  <si>
+    <t>理赔开单</t>
+  </si>
+  <si>
+    <t>退货开单</t>
+  </si>
+  <si>
+    <t>单据列表</t>
+  </si>
+  <si>
+    <t>新建，修改，保存，入库，结算</t>
+  </si>
+  <si>
+    <t>入库由仓库来操作</t>
+  </si>
+  <si>
+    <t>采购</t>
+  </si>
+  <si>
+    <t>采购订单</t>
+  </si>
+  <si>
     <t>丁</t>
-  </si>
-  <si>
-    <t>配件分类</t>
-  </si>
-  <si>
-    <t>云分类</t>
-  </si>
-  <si>
-    <t>自定义分类</t>
-  </si>
-  <si>
-    <t>只能添加和修改本地分类</t>
-  </si>
-  <si>
-    <t>配件资料</t>
-  </si>
-  <si>
-    <t>本地配件资料</t>
-  </si>
-  <si>
-    <t>云配件资料</t>
-  </si>
-  <si>
-    <t>工时信息</t>
-  </si>
-  <si>
-    <t>本地工时信息</t>
-  </si>
-  <si>
-    <t>云工时信息</t>
-  </si>
-  <si>
-    <t>公司信息</t>
-  </si>
-  <si>
-    <t>设置公司信息</t>
-  </si>
-  <si>
-    <t>李</t>
-  </si>
-  <si>
-    <t>数据导入</t>
-  </si>
-  <si>
-    <t>供应商导入</t>
-  </si>
-  <si>
-    <t>客户车辆资料导入</t>
-  </si>
-  <si>
-    <t>期初库存导入</t>
-  </si>
-  <si>
-    <t>期初应收应付导入</t>
-  </si>
-  <si>
-    <t>员工信息导入</t>
-  </si>
-  <si>
-    <t>配件资料导入</t>
-  </si>
-  <si>
-    <t>工时信息导入</t>
-  </si>
-  <si>
-    <t>业务分类</t>
-  </si>
-  <si>
-    <t>固定 维修、保养、美容、钣喷漆、轮胎、洗车、精品、零售，其它</t>
-  </si>
-  <si>
-    <t>用户在系统提供的几个分类上面，只能添加自己的</t>
-  </si>
-  <si>
-    <t>仓库管理</t>
-  </si>
-  <si>
-    <t>仓库管理、仓位管理</t>
-  </si>
-  <si>
-    <t>结算账户定义</t>
-  </si>
-  <si>
-    <t>账户定义、账户结算方式定义</t>
-  </si>
-  <si>
-    <t>期初现金银行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">设置系统启用之前各资金账户的余额 </t>
-  </si>
-  <si>
-    <t>收支项目定义</t>
-  </si>
-  <si>
-    <t>预约</t>
-  </si>
-  <si>
-    <t>微信预约</t>
-  </si>
-  <si>
-    <t>客户预约完后，预约单待确认</t>
-  </si>
-  <si>
-    <t>确认</t>
-  </si>
-  <si>
-    <t>确认预约单</t>
-  </si>
-  <si>
-    <t>开单</t>
-  </si>
-  <si>
-    <t>判断是否已有客户信息，没有需要新增客户信息</t>
-  </si>
-  <si>
-    <t>取消</t>
-  </si>
-  <si>
-    <t>微信评价</t>
-  </si>
-  <si>
-    <t>客户通过微信预约</t>
-  </si>
-  <si>
-    <t>综合工单</t>
-  </si>
-  <si>
-    <t>新建、修改，完工，删除</t>
-  </si>
-  <si>
-    <t>工单首页</t>
-  </si>
-  <si>
-    <t>车主信息、联系人信息、保险信息、工时信息、配件信息</t>
-  </si>
-  <si>
-    <t>查询工时、添加工时</t>
-  </si>
-  <si>
-    <t>查询配件、添加配件</t>
-  </si>
-  <si>
-    <t>会员卡、维修履历、相关单据</t>
-  </si>
-  <si>
-    <t>质检完工</t>
-  </si>
-  <si>
-    <t>新建回访</t>
-  </si>
-  <si>
-    <t>返厂</t>
-  </si>
-  <si>
-    <t>退货</t>
-  </si>
-  <si>
-    <t>收款详情</t>
-  </si>
-  <si>
-    <t>打印委托单</t>
-  </si>
-  <si>
-    <t>打印结算单</t>
-  </si>
-  <si>
-    <t>取消收款</t>
-  </si>
-  <si>
-    <t>检测开单</t>
-  </si>
-  <si>
-    <t>查车列表</t>
-  </si>
-  <si>
-    <t>新建接车预检</t>
-  </si>
-  <si>
-    <t>新建查车</t>
-  </si>
-  <si>
-    <t>洗车开单</t>
-  </si>
-  <si>
-    <t>列表</t>
-  </si>
-  <si>
-    <t>新建、修改，完工，结算，删除</t>
-  </si>
-  <si>
-    <t>洗车履历</t>
-  </si>
-  <si>
-    <t>选择工时，选择服务项目</t>
-  </si>
-  <si>
-    <t>销售开单</t>
-  </si>
-  <si>
-    <t>新建，修改，收款，退货</t>
-  </si>
-  <si>
-    <t>理赔开单</t>
-  </si>
-  <si>
-    <t>退货开单</t>
-  </si>
-  <si>
-    <t>单据列表</t>
-  </si>
-  <si>
-    <t>新建，修改，保存，入库，结算</t>
-  </si>
-  <si>
-    <t>入库由仓库来操作</t>
-  </si>
-  <si>
-    <t>采购</t>
-  </si>
-  <si>
-    <t>采购订单</t>
   </si>
   <si>
     <t>采购退货</t>
@@ -723,10 +727,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -751,29 +755,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,48 +775,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,7 +800,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,8 +813,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -881,14 +885,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -915,7 +919,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,13 +1015,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,7 +1045,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,139 +1093,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,6 +1103,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1124,10 +1141,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1143,14 +1160,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,8 +1177,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1194,31 +1213,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1238,17 +1248,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,152 +1264,173 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1415,43 +1440,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1804,208 +1826,226 @@
   <sheetPr/>
   <dimension ref="A1:XFD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="2" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="1"/>
+    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="15">
         <v>43258</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="3" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="15">
         <v>43258</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="15">
         <v>43258</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="15">
         <v>43258</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="76" customHeight="1" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="76" customHeight="1" spans="1:7">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="15">
         <v>43258</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="15">
         <v>43258</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="15">
         <v>43258</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="15">
         <v>43258</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="15">
         <v>43258</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="61" customHeight="1" spans="1:16383">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" s="8" customFormat="1" ht="61" customHeight="1" spans="1:16383">
+      <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="15">
         <v>43259</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="XDU11"/>
       <c r="XDV11"/>
       <c r="XDW11"/>
@@ -2042,24 +2082,26 @@
       <c r="XFB11"/>
       <c r="XFC11"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="39" customHeight="1" spans="1:16383">
-      <c r="A12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="6" t="s">
+    <row r="12" s="8" customFormat="1" ht="39" customHeight="1" spans="1:16383">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="15">
         <v>43259</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="XDU12"/>
       <c r="XDV12"/>
       <c r="XDW12"/>
@@ -2096,22 +2138,24 @@
       <c r="XFB12"/>
       <c r="XFC12"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16383">
-      <c r="A13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="13" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16383">
+      <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="8">
-        <v>43260</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="E13" s="15">
+        <v>43272</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="XDU13"/>
       <c r="XDV13"/>
       <c r="XDW13"/>
@@ -2148,20 +2192,22 @@
       <c r="XFB13"/>
       <c r="XFC13"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16383">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
+    <row r="14" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16383">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="8">
-        <v>43260</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="E14" s="15">
+        <v>43272</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="XDU14"/>
       <c r="XDV14"/>
       <c r="XDW14"/>
@@ -2198,22 +2244,24 @@
       <c r="XFB14"/>
       <c r="XFC14"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A15" s="5" t="s">
+    <row r="15" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="15">
+        <v>43257</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="8">
-        <v>43257</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
       <c r="XDU15"/>
       <c r="XDV15"/>
       <c r="XDW15"/>
@@ -2251,22 +2299,24 @@
       <c r="XFC15"/>
       <c r="XFD15"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16383">
-      <c r="A16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="6" t="s">
+    <row r="16" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16383">
+      <c r="A16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="E16" s="15">
         <v>43258</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="XDU16"/>
       <c r="XDV16"/>
       <c r="XDW16"/>
@@ -2303,20 +2353,22 @@
       <c r="XFB16"/>
       <c r="XFC16"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16383">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="8">
+    <row r="17" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16383">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="15">
         <v>43258</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="XDU17"/>
       <c r="XDV17"/>
       <c r="XDW17"/>
@@ -2353,20 +2405,22 @@
       <c r="XFB17"/>
       <c r="XFC17"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16383">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="8">
+    <row r="18" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16383">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="15">
         <v>43258</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="XDU18"/>
       <c r="XDV18"/>
       <c r="XDW18"/>
@@ -2403,22 +2457,24 @@
       <c r="XFB18"/>
       <c r="XFC18"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16383">
-      <c r="A19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="8">
+    <row r="19" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16383">
+      <c r="A19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="15">
         <v>43259</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="XDU19"/>
       <c r="XDV19"/>
       <c r="XDW19"/>
@@ -2455,22 +2511,24 @@
       <c r="XFB19"/>
       <c r="XFC19"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="31" customHeight="1" spans="1:16383">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="8">
+    <row r="20" s="8" customFormat="1" ht="31" customHeight="1" spans="1:16383">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="15">
         <v>43259</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="XDU20"/>
       <c r="XDV20"/>
       <c r="XDW20"/>
@@ -2507,20 +2565,22 @@
       <c r="XFB20"/>
       <c r="XFC20"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16383">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="8">
+    <row r="21" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16383">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="15">
         <v>43259</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="XDU21"/>
       <c r="XDV21"/>
       <c r="XDW21"/>
@@ -2557,22 +2617,24 @@
       <c r="XFB21"/>
       <c r="XFC21"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16383">
-      <c r="A22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
+    <row r="22" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16383">
+      <c r="A22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="15">
         <v>43260</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="XDU22"/>
       <c r="XDV22"/>
       <c r="XDW22"/>
@@ -2634,207 +2696,207 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="2" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="1"/>
+    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A2" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="15">
         <v>43276</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="15">
         <v>43276</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="15">
         <v>43278</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="15">
         <v>43272</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="15">
         <v>43277</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A7" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="15">
         <v>43277</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="15">
         <v>43277</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="15">
         <v>43278</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="15">
         <v>43278</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="15">
         <v>43278</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A12" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A12" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="B12" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="15">
         <v>43273</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="12"/>
       <c r="XDU12"/>
       <c r="XDV12"/>
       <c r="XDW12"/>
@@ -2872,20 +2934,20 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="43" customHeight="1" spans="1:16384">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="8">
+    <row r="13" s="8" customFormat="1" ht="43" customHeight="1" spans="1:16384">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="15">
         <v>43273</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="12"/>
       <c r="XDU13"/>
       <c r="XDV13"/>
       <c r="XDW13"/>
@@ -2923,22 +2985,22 @@
       <c r="XFC13"/>
       <c r="XFD13"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A14" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    <row r="14" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A14" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="B14" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="15">
         <v>43274</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="12"/>
       <c r="XDU14"/>
       <c r="XDV14"/>
       <c r="XDW14"/>
@@ -2976,20 +3038,20 @@
       <c r="XFC14"/>
       <c r="XFD14"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A15" s="10"/>
-      <c r="B15" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="8">
+    <row r="15" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A15" s="17"/>
+      <c r="B15" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="15">
         <v>43274</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
       <c r="XDU15"/>
       <c r="XDV15"/>
       <c r="XDW15"/>
@@ -3027,20 +3089,20 @@
       <c r="XFC15"/>
       <c r="XFD15"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A16" s="10"/>
-      <c r="B16" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="8">
+    <row r="16" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A16" s="17"/>
+      <c r="B16" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="15">
         <v>43274</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
       <c r="XDU16"/>
       <c r="XDV16"/>
       <c r="XDW16"/>
@@ -3078,20 +3140,20 @@
       <c r="XFC16"/>
       <c r="XFD16"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A17" s="10"/>
-      <c r="B17" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="8">
+    <row r="17" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A17" s="17"/>
+      <c r="B17" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="15">
         <v>43274</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="12"/>
       <c r="XDU17"/>
       <c r="XDV17"/>
       <c r="XDW17"/>
@@ -3129,20 +3191,20 @@
       <c r="XFC17"/>
       <c r="XFD17"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="8">
+    <row r="18" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A18" s="17"/>
+      <c r="B18" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="15">
         <v>43276</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="12"/>
       <c r="XDU18"/>
       <c r="XDV18"/>
       <c r="XDW18"/>
@@ -3180,20 +3242,20 @@
       <c r="XFC18"/>
       <c r="XFD18"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A19" s="10"/>
-      <c r="B19" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="8">
+    <row r="19" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A19" s="17"/>
+      <c r="B19" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="15">
         <v>43276</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
       <c r="XDU19"/>
       <c r="XDV19"/>
       <c r="XDW19"/>
@@ -3231,20 +3293,20 @@
       <c r="XFC19"/>
       <c r="XFD19"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A20" s="10"/>
-      <c r="B20" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="8">
+    <row r="20" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A20" s="17"/>
+      <c r="B20" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="15">
         <v>43277</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="12"/>
       <c r="XDU20"/>
       <c r="XDV20"/>
       <c r="XDW20"/>
@@ -3282,20 +3344,20 @@
       <c r="XFC20"/>
       <c r="XFD20"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A21" s="10"/>
-      <c r="B21" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="8">
+    <row r="21" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A21" s="17"/>
+      <c r="B21" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="15">
         <v>43277</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="12"/>
       <c r="XDU21"/>
       <c r="XDV21"/>
       <c r="XDW21"/>
@@ -3333,22 +3395,22 @@
       <c r="XFC21"/>
       <c r="XFD21"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A22" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="22" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A22" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="15">
         <v>43279</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="12"/>
       <c r="XDU22"/>
       <c r="XDV22"/>
       <c r="XDW22"/>
@@ -3386,20 +3448,20 @@
       <c r="XFC22"/>
       <c r="XFD22"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
+    <row r="23" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="15">
         <v>43279</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="12"/>
       <c r="XDU23"/>
       <c r="XDV23"/>
       <c r="XDW23"/>
@@ -3437,20 +3499,20 @@
       <c r="XFC23"/>
       <c r="XFD23"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
+    <row r="24" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="15">
         <v>43280</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="12"/>
       <c r="XDU24"/>
       <c r="XDV24"/>
       <c r="XDW24"/>
@@ -3488,20 +3550,20 @@
       <c r="XFC24"/>
       <c r="XFD24"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
+    <row r="25" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="15">
         <v>43280</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="12"/>
       <c r="XDU25"/>
       <c r="XDV25"/>
       <c r="XDW25"/>
@@ -3539,20 +3601,20 @@
       <c r="XFC25"/>
       <c r="XFD25"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
+    <row r="26" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="15">
         <v>43280</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="12"/>
       <c r="XDU26"/>
       <c r="XDV26"/>
       <c r="XDW26"/>
@@ -3590,20 +3652,20 @@
       <c r="XFC26"/>
       <c r="XFD26"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
+    <row r="27" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="15">
         <v>43281</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="12"/>
       <c r="XDU27"/>
       <c r="XDV27"/>
       <c r="XDW27"/>
@@ -3641,20 +3703,20 @@
       <c r="XFC27"/>
       <c r="XFD27"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
+    <row r="28" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="15">
         <v>43281</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="12"/>
       <c r="XDU28"/>
       <c r="XDV28"/>
       <c r="XDW28"/>
@@ -3692,22 +3754,22 @@
       <c r="XFC28"/>
       <c r="XFD28"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A29" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29" s="6" t="s">
+    <row r="29" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A29" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="8">
+      <c r="B29" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="15">
         <v>43278</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="5"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="12"/>
       <c r="XDU29"/>
       <c r="XDV29"/>
       <c r="XDW29"/>
@@ -3745,20 +3807,20 @@
       <c r="XFC29"/>
       <c r="XFD29"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="8">
+    <row r="30" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="15">
         <v>43278</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="5"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="12"/>
       <c r="XDU30"/>
       <c r="XDV30"/>
       <c r="XDW30"/>
@@ -3796,20 +3858,20 @@
       <c r="XFC30"/>
       <c r="XFD30"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="8">
+    <row r="31" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="15">
         <v>43278</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="12"/>
       <c r="XDU31"/>
       <c r="XDV31"/>
       <c r="XDW31"/>
@@ -3848,154 +3910,154 @@
       <c r="XFD31"/>
     </row>
     <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="8">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="15">
         <v>43278</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="5"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="8">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="15">
         <v>43279</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="15">
         <v>43279</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="5"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="8">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="15">
         <v>43279</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="8">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="15">
         <v>43279</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="5"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" customHeight="1" spans="1:7">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="8">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="15">
         <v>43279</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="5"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="8">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="15">
         <v>43280</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="5"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="8">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="15">
         <v>43280</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="5"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" customHeight="1" spans="1:7">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="8">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="15">
         <v>43280</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="5"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" customHeight="1" spans="1:7">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="8">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="15">
         <v>43281</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="5"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4011,518 +4073,583 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" ht="39" customHeight="1" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" ht="49.5" spans="1:3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="2" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="1"/>
+    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="8">
+    <row r="2" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15">
         <v>43262</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A3" s="10"/>
-      <c r="B3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A3" s="17"/>
+      <c r="B3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15">
         <v>43262</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A4" s="18"/>
+      <c r="B4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15">
+        <v>43278</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15">
+        <v>43260</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A6" s="17"/>
+      <c r="B6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15">
+        <v>43260</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22">
+        <v>43260</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15">
+        <v>43259</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A9" s="18"/>
+      <c r="B9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="15">
+        <v>43259</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15">
+        <v>43259</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="15">
+        <v>43257</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="25" customHeight="1" spans="1:7">
+      <c r="A12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15">
+        <v>43257</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="39" customHeight="1" spans="1:7">
+      <c r="A13" s="18"/>
+      <c r="B13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15">
+        <v>43257</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="25" customHeight="1" spans="1:7">
+      <c r="A14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15">
+        <v>43257</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="25" customHeight="1" spans="1:7">
+      <c r="A15" s="18"/>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="15">
+        <v>43257</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="25" customHeight="1" spans="1:7">
+      <c r="A16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15">
+        <v>43271</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" ht="25" customHeight="1" spans="1:7">
+      <c r="A17" s="18"/>
+      <c r="B17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15">
+        <v>43260</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" ht="25" customHeight="1" spans="1:7">
+      <c r="A18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15">
         <v>43262</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="8">
-        <v>43260</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A6" s="10"/>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="8">
-        <v>43260</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="8">
-        <v>43260</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="8">
-        <v>43259</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A9" s="11"/>
-      <c r="B9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="8">
-        <v>43259</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8">
-        <v>43259</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="8">
-        <v>43257</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" ht="25" customHeight="1" spans="1:7">
-      <c r="A12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="8">
-        <v>43257</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" ht="39" customHeight="1" spans="1:7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="8">
-        <v>43257</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="8">
-        <v>43257</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" ht="25" customHeight="1" spans="1:7">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="8">
-        <v>43257</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" ht="25" customHeight="1" spans="1:7">
-      <c r="A16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="8">
-        <v>43260</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" ht="25" customHeight="1" spans="1:7">
-      <c r="A17" s="11"/>
-      <c r="B17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="8">
-        <v>43260</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" ht="25" customHeight="1" spans="1:7">
-      <c r="A18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" ht="25" customHeight="1" spans="1:7">
+      <c r="A19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15">
+        <v>43258</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" ht="25" customHeight="1" spans="1:7">
+      <c r="A20" s="17"/>
+      <c r="B20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" ht="25" customHeight="1" spans="1:7">
+      <c r="A21" s="17"/>
+      <c r="B21" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="15">
+        <v>43258</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" ht="25" customHeight="1" spans="1:7">
+      <c r="A22" s="17"/>
+      <c r="B22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15">
+        <v>43258</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" ht="25" customHeight="1" spans="1:7">
+      <c r="A23" s="17"/>
+      <c r="B23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="15">
+        <v>43258</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" ht="25" customHeight="1" spans="1:7">
+      <c r="A24" s="17"/>
+      <c r="B24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15">
+        <v>43258</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" ht="25" customHeight="1" spans="1:7">
+      <c r="A25" s="18"/>
+      <c r="B25" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" ht="52" customHeight="1" spans="1:7">
+      <c r="A26" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15">
         <v>43262</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" ht="25" customHeight="1" spans="1:7">
-      <c r="A19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="8">
-        <v>43258</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" ht="25" customHeight="1" spans="1:7">
-      <c r="A20" s="10"/>
-      <c r="B20" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" ht="25" customHeight="1" spans="1:7">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="8">
-        <v>43258</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" ht="25" customHeight="1" spans="1:7">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="8">
-        <v>43258</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" ht="25" customHeight="1" spans="1:7">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="8">
-        <v>43258</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" ht="25" customHeight="1" spans="1:7">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="8">
-        <v>43258</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" ht="25" customHeight="1" spans="1:7">
-      <c r="A25" s="11"/>
-      <c r="B25" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" ht="52" customHeight="1" spans="1:7">
-      <c r="A26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="8">
+      <c r="F26" s="13"/>
+      <c r="G26" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="25" customHeight="1" spans="1:7">
+      <c r="A27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="15">
         <v>43262</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" ht="25" customHeight="1" spans="1:7">
-      <c r="A27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="8">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" ht="25" customHeight="1" spans="1:7">
+      <c r="A28" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15">
         <v>43262</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" ht="25" customHeight="1" spans="1:7">
-      <c r="A28" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="F28" s="13"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" ht="37" customHeight="1" spans="1:7">
+      <c r="A29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="15">
         <v>43262</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" ht="37" customHeight="1" spans="1:7">
-      <c r="A29" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="8">
+      <c r="F29" s="13"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" ht="25" customHeight="1" spans="1:7">
+      <c r="A30" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="15">
         <v>43262</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" ht="25" customHeight="1" spans="1:7">
-      <c r="A30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="8">
-        <v>43262</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="5"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4546,122 +4673,112 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="2" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="1"/>
+    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="8" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A2" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="10"/>
-      <c r="B3" s="6" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" s="8" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="17"/>
+      <c r="B3" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="8">
-        <v>43263</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="53" customHeight="1" spans="1:7">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="15">
+        <v>43271</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="53" customHeight="1" spans="1:7">
+      <c r="A4" s="17"/>
+      <c r="B4" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="8">
-        <v>43264</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="15">
+        <v>43272</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" s="8" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A5" s="17"/>
+      <c r="B5" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="8">
-        <v>43264</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A6" s="11"/>
-      <c r="B6" s="15" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15">
+        <v>43272</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A6" s="18"/>
+      <c r="B6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4679,599 +4796,527 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="2" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="1"/>
+    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="8" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A2" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8">
-        <v>43262</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A3" s="10"/>
-      <c r="B3" s="6" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="15">
+        <v>43271</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A3" s="17"/>
+      <c r="B3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="8">
-        <v>43262</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15">
+        <v>43271</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A4" s="17"/>
+      <c r="B4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8">
-        <v>43263</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15">
+        <v>43272</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A5" s="17"/>
+      <c r="B5" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="8">
-        <v>43263</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A6" s="10"/>
-      <c r="B6" s="6" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15">
+        <v>43272</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A6" s="17"/>
+      <c r="B6" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8">
-        <v>43264</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="6" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15">
+        <v>43273</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A7" s="17"/>
+      <c r="B7" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8">
-        <v>43264</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="15">
+        <v>43273</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A8" s="17"/>
+      <c r="B8" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8">
-        <v>43265</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15">
+        <v>43274</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A9" s="17"/>
+      <c r="B9" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="8">
-        <v>43265</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="15">
+        <v>43274</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A10" s="17"/>
+      <c r="B10" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8">
-        <v>43266</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15">
+        <v>43278</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A11" s="17"/>
+      <c r="B11" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="8">
-        <v>43266</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="15">
+        <v>43278</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A12" s="17"/>
+      <c r="B12" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="8">
-        <v>43267</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15">
+        <v>43276</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A13" s="17"/>
+      <c r="B13" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8">
-        <v>43266</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="11"/>
-      <c r="B14" s="6" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15">
+        <v>43276</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A14" s="18"/>
+      <c r="B14" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="8">
-        <v>43267</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A15" s="9" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15">
+        <v>43277</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A15" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="8">
-        <v>43268</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A16" s="10"/>
-      <c r="B16" s="6" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="15">
+        <v>43278</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A16" s="17"/>
+      <c r="B16" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="8">
-        <v>43268</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A17" s="11"/>
-      <c r="B17" s="6" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15">
+        <v>43278</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A17" s="18"/>
+      <c r="B17" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="8">
-        <v>43268</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A18" s="9" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15">
+        <v>43278</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A18" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="8">
-        <v>43270</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A19" s="10"/>
-      <c r="B19" s="6" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15">
+        <v>43279</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A19" s="17"/>
+      <c r="B19" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="8">
-        <v>43270</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A20" s="10"/>
-      <c r="B20" s="6" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15">
+        <v>43279</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A20" s="17"/>
+      <c r="B20" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="8">
-        <v>43270</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A21" s="11"/>
-      <c r="B21" s="6" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15">
+        <v>43279</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A21" s="18"/>
+      <c r="B21" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="8">
-        <v>43270</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A22" s="9" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="15">
+        <v>43279</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A22" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="8">
-        <v>43262</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A23" s="11"/>
-      <c r="B23" s="6" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15">
+        <v>43280</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A23" s="18"/>
+      <c r="B23" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="8">
-        <v>43264</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A24" s="5" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="15">
+        <v>43280</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A24" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="8">
-        <v>43271</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="15">
+        <v>43281</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" s="8" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="8">
-        <v>43271</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="15">
+        <v>43281</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="8">
-        <v>43271</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15">
+        <v>43281</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="8">
-        <v>43271</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="15">
+        <v>43281</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="8">
-        <v>43271</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15">
+        <v>43282</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="8">
-        <v>43272</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="15">
+        <v>43282</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="8">
-        <v>43272</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="15">
+        <v>43282</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="8">
-        <v>43272</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="15">
+        <v>43282</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="8">
-        <v>43272</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="15">
+        <v>43282</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:7">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="8">
-        <v>43272</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="5"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="15">
+        <v>43282</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:7">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="8">
-        <v>43272</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="5"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="15">
+        <v>43282</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:7">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="8">
-        <v>43272</v>
-      </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="5"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="15">
+        <v>43282</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:7">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="8">
-        <v>43273</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="5"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="15">
+        <v>43283</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:7">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="8">
-        <v>43273</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="5"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="15">
+        <v>43283</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5293,88 +5338,88 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="2" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="1"/>
+    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A2" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="8">
-        <v>43259</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="8">
-        <v>43259</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="E2" s="15">
+        <v>43283</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="8">
-        <v>43259</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="15">
+        <v>43283</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="15">
+        <v>43283</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5391,226 +5436,226 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G12"/>
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="2" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="1"/>
+    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A2" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="8">
-        <v>43271</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="8">
-        <v>43264</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="15">
+        <v>43279</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="8">
-        <v>43267</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="15">
+        <v>43279</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A4" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="8">
-        <v>43267</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="15">
+        <v>43286</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A5" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="15">
+        <v>43287</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="8">
-        <v>43260</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
+      <c r="B6" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="15">
+        <v>43284</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="8">
-        <v>43260</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="15">
+        <v>43284</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:7">
-      <c r="A8" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="8">
-        <v>43260</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="15">
+        <v>43284</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="8">
-        <v>43260</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="15">
+        <v>43284</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="8">
-        <v>43260</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="15">
+        <v>43284</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="8">
-        <v>43260</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="15">
+        <v>43284</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:7">
-      <c r="A12" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="8">
-        <v>43260</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="15">
+        <v>43284</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5627,139 +5672,127 @@
   <dimension ref="A1:XFD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G10"/>
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="2" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="1"/>
+    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A2" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="8">
-        <v>43262</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="8">
-        <v>43265</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15">
+        <v>43271</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15">
+        <v>43271</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="8">
-        <v>43264</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="8">
-        <v>43264</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="34" customHeight="1" spans="1:7">
-      <c r="A6" s="13" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="15">
+        <v>43271</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A5" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15">
+        <v>43272</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="34" customHeight="1" spans="1:7">
+      <c r="A6" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A7" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="8">
-        <v>43266</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="15">
+        <v>43273</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
       <c r="XDU7"/>
       <c r="XDV7"/>
       <c r="XDW7"/>
@@ -5797,22 +5830,20 @@
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="33" spans="1:16384">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    <row r="8" s="8" customFormat="1" ht="33" spans="1:16384">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="8">
-        <v>43266</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15">
+        <v>43274</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
       <c r="XDU8"/>
       <c r="XDV8"/>
       <c r="XDW8"/>
@@ -5850,24 +5881,22 @@
       <c r="XFC8"/>
       <c r="XFD8"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="62" customHeight="1" spans="1:16384">
-      <c r="A9" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="9" s="8" customFormat="1" ht="62" customHeight="1" spans="1:16384">
+      <c r="A9" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="8">
-        <v>43271</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="15">
+        <v>43275</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12"/>
       <c r="XDU9"/>
       <c r="XDV9"/>
       <c r="XDW9"/>
@@ -5905,18 +5934,16 @@
       <c r="XFC9"/>
       <c r="XFD9"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A10" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="13"/>
+    <row r="10" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A10" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="19"/>
       <c r="XDU10"/>
       <c r="XDV10"/>
       <c r="XDW10"/>
@@ -5970,122 +5997,112 @@
   <dimension ref="A1:XFD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G15"/>
+      <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="2" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="1"/>
+    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A2" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="8">
-        <v>43266</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="8">
-        <v>43266</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15">
+        <v>43270</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15">
+        <v>43271</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A4" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="8">
-        <v>43267</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="B4" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="8">
-        <v>43268</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A6" s="5" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15">
+        <v>43273</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15">
+        <v>43274</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A6" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="8">
-        <v>43270</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
+      <c r="B6" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15">
+        <v>43275</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
       <c r="XDU6"/>
       <c r="XDV6"/>
       <c r="XDW6"/>
@@ -6123,20 +6140,18 @@
       <c r="XFC6"/>
       <c r="XFD6"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="8">
-        <v>43270</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
+    <row r="7" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="15">
+        <v>43276</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
       <c r="XDU7"/>
       <c r="XDV7"/>
       <c r="XDW7"/>
@@ -6174,22 +6189,20 @@
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A8" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="8">
-        <v>43271</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
+    <row r="8" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A8" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15">
+        <v>43277</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
       <c r="XDU8"/>
       <c r="XDV8"/>
       <c r="XDW8"/>
@@ -6227,22 +6240,20 @@
       <c r="XFC8"/>
       <c r="XFD8"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A9" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="8">
-        <v>43271</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
+    <row r="9" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A9" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="15">
+        <v>43277</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12"/>
       <c r="XDU9"/>
       <c r="XDV9"/>
       <c r="XDW9"/>
@@ -6280,22 +6291,20 @@
       <c r="XFC9"/>
       <c r="XFD9"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A10" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="10" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A10" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8">
-        <v>43272</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
+      <c r="B10" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15">
+        <v>43278</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
       <c r="XDU10"/>
       <c r="XDV10"/>
       <c r="XDW10"/>
@@ -6333,20 +6342,18 @@
       <c r="XFC10"/>
       <c r="XFD10"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="8">
-        <v>43272</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
+    <row r="11" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="15">
+        <v>43278</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
       <c r="XDU11"/>
       <c r="XDV11"/>
       <c r="XDW11"/>
@@ -6384,20 +6391,18 @@
       <c r="XFC11"/>
       <c r="XFD11"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="8">
-        <v>43272</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
+    <row r="12" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15">
+        <v>43279</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="12"/>
       <c r="XDU12"/>
       <c r="XDV12"/>
       <c r="XDW12"/>
@@ -6436,51 +6441,45 @@
       <c r="XFD12"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:7">
-      <c r="A13" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="8">
-        <v>43272</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15">
+        <v>43280</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="8">
-        <v>43273</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15">
+        <v>43280</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:7">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="8">
-        <v>43274</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="15">
+        <v>43281</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6501,88 +6500,82 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G4"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="2" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="1"/>
+    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A2" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="C2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15">
         <v>43277</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A3" s="10"/>
-      <c r="B3" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A3" s="17"/>
+      <c r="B3" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15">
         <v>43277</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="31" customHeight="1" spans="1:7">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="31" customHeight="1" spans="1:7">
+      <c r="A4" s="18"/>
+      <c r="B4" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15">
         <v>43277</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DOC/DMS开发计划-6.5.xlsx
+++ b/DOC/DMS开发计划-6.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13185" activeTab="10"/>
+    <workbookView windowWidth="28695" windowHeight="12765" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="系统设置" sheetId="2" r:id="rId1"/>
@@ -727,10 +727,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -755,14 +755,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,39 +783,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,8 +805,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -844,31 +868,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -892,7 +892,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,7 +919,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,25 +931,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,13 +955,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,61 +973,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,7 +1009,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,25 +1045,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,26 +1159,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1198,13 +1200,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1218,17 +1224,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,8 +1251,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1264,10 +1264,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1276,137 +1276,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1431,6 +1431,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1443,25 +1449,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1831,219 +1825,219 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="8"/>
+    <col min="1" max="1" width="18.7916666666667" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="12" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="11" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="10" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="15">
         <v>43258</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+    <row r="3" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="15">
         <v>43258</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="15">
         <v>43258</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+    <row r="5" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="15">
         <v>43258</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" ht="76" customHeight="1" spans="1:7">
-      <c r="A6" s="12" t="s">
+    <row r="6" s="10" customFormat="1" ht="76" customHeight="1" spans="1:7">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="15">
         <v>43258</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A7" s="12" t="s">
+    <row r="7" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="15">
         <v>43258</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
+    <row r="8" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="15">
         <v>43258</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
+    <row r="9" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="15">
         <v>43258</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A10" s="19" t="s">
+    <row r="10" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="15">
         <v>43258</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" s="8" customFormat="1" ht="61" customHeight="1" spans="1:16383">
-      <c r="A11" s="12" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" s="10" customFormat="1" ht="61" customHeight="1" spans="1:16383">
+      <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="15">
         <v>43259</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="XDU11"/>
@@ -2082,24 +2076,24 @@
       <c r="XFB11"/>
       <c r="XFC11"/>
     </row>
-    <row r="12" s="8" customFormat="1" ht="39" customHeight="1" spans="1:16383">
+    <row r="12" s="10" customFormat="1" ht="39" customHeight="1" spans="1:16383">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="15">
         <v>43259</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="XDU12"/>
@@ -2138,22 +2132,22 @@
       <c r="XFB12"/>
       <c r="XFC12"/>
     </row>
-    <row r="13" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16383">
-      <c r="A13" s="12" t="s">
+    <row r="13" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16383">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="15">
         <v>43272</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="XDU13"/>
@@ -2192,20 +2186,20 @@
       <c r="XFB13"/>
       <c r="XFC13"/>
     </row>
-    <row r="14" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16383">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+    <row r="14" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16383">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="15">
         <v>43272</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
         <v>27</v>
       </c>
       <c r="XDU14"/>
@@ -2244,23 +2238,23 @@
       <c r="XFB14"/>
       <c r="XFC14"/>
     </row>
-    <row r="15" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A15" s="12" t="s">
+    <row r="15" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="15">
         <v>43257</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
-        <v>27</v>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="XDU15"/>
       <c r="XDV15"/>
@@ -2299,22 +2293,22 @@
       <c r="XFC15"/>
       <c r="XFD15"/>
     </row>
-    <row r="16" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16383">
-      <c r="A16" s="12" t="s">
+    <row r="16" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16383">
+      <c r="A16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="15">
         <v>43258</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="XDU16"/>
@@ -2353,20 +2347,20 @@
       <c r="XFB16"/>
       <c r="XFC16"/>
     </row>
-    <row r="17" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16383">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
+    <row r="17" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16383">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="15">
         <v>43258</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="XDU17"/>
@@ -2405,20 +2399,20 @@
       <c r="XFB17"/>
       <c r="XFC17"/>
     </row>
-    <row r="18" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16383">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
+    <row r="18" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16383">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="15">
         <v>43258</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="XDU18"/>
@@ -2457,22 +2451,22 @@
       <c r="XFB18"/>
       <c r="XFC18"/>
     </row>
-    <row r="19" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16383">
-      <c r="A19" s="12" t="s">
+    <row r="19" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16383">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="15">
         <v>43259</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
         <v>10</v>
       </c>
       <c r="XDU19"/>
@@ -2511,22 +2505,22 @@
       <c r="XFB19"/>
       <c r="XFC19"/>
     </row>
-    <row r="20" s="8" customFormat="1" ht="31" customHeight="1" spans="1:16383">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13" t="s">
+    <row r="20" s="10" customFormat="1" ht="31" customHeight="1" spans="1:16383">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="15">
         <v>43259</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
         <v>10</v>
       </c>
       <c r="XDU20"/>
@@ -2565,20 +2559,20 @@
       <c r="XFB20"/>
       <c r="XFC20"/>
     </row>
-    <row r="21" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16383">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13" t="s">
+    <row r="21" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16383">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="15">
         <v>43259</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
         <v>10</v>
       </c>
       <c r="XDU21"/>
@@ -2617,22 +2611,22 @@
       <c r="XFB21"/>
       <c r="XFC21"/>
     </row>
-    <row r="22" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16383">
-      <c r="A22" s="12" t="s">
+    <row r="22" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16383">
+      <c r="A22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="15">
         <v>43260</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
         <v>27</v>
       </c>
       <c r="XDU22"/>
@@ -2696,207 +2690,207 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="8"/>
+    <col min="1" max="1" width="18.7916666666667" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="12" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="11" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="10" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="15">
         <v>43276</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>188</v>
       </c>
       <c r="C3" s="14"/>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="15">
         <v>43276</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="15">
         <v>43278</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E5" s="15">
         <v>43272</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>191</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="15">
         <v>43277</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A7" s="12" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A7" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>193</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="15">
         <v>43277</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>194</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="15">
         <v>43277</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>195</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="15">
         <v>43278</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>196</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="15">
         <v>43278</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="15">
         <v>43278</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A12" s="12" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A12" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E12" s="15">
         <v>43273</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
       <c r="XDU12"/>
       <c r="XDV12"/>
       <c r="XDW12"/>
@@ -2934,20 +2928,20 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" s="8" customFormat="1" ht="43" customHeight="1" spans="1:16384">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
+    <row r="13" s="10" customFormat="1" ht="43" customHeight="1" spans="1:16384">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E13" s="15">
         <v>43273</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
       <c r="XDU13"/>
       <c r="XDV13"/>
       <c r="XDW13"/>
@@ -2985,22 +2979,22 @@
       <c r="XFC13"/>
       <c r="XFD13"/>
     </row>
-    <row r="14" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A14" s="16" t="s">
+    <row r="14" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A14" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E14" s="15">
         <v>43274</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
       <c r="XDU14"/>
       <c r="XDV14"/>
       <c r="XDW14"/>
@@ -3038,20 +3032,20 @@
       <c r="XFC14"/>
       <c r="XFD14"/>
     </row>
-    <row r="15" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A15" s="17"/>
-      <c r="B15" s="13" t="s">
+    <row r="15" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A15" s="16"/>
+      <c r="B15" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E15" s="15">
         <v>43274</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8"/>
       <c r="XDU15"/>
       <c r="XDV15"/>
       <c r="XDW15"/>
@@ -3089,20 +3083,20 @@
       <c r="XFC15"/>
       <c r="XFD15"/>
     </row>
-    <row r="16" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A16" s="17"/>
-      <c r="B16" s="13" t="s">
+    <row r="16" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A16" s="16"/>
+      <c r="B16" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E16" s="15">
         <v>43274</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
       <c r="XDU16"/>
       <c r="XDV16"/>
       <c r="XDW16"/>
@@ -3140,20 +3134,20 @@
       <c r="XFC16"/>
       <c r="XFD16"/>
     </row>
-    <row r="17" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A17" s="17"/>
-      <c r="B17" s="13" t="s">
+    <row r="17" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A17" s="16"/>
+      <c r="B17" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E17" s="15">
         <v>43274</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="12"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
       <c r="XDU17"/>
       <c r="XDV17"/>
       <c r="XDW17"/>
@@ -3191,20 +3185,20 @@
       <c r="XFC17"/>
       <c r="XFD17"/>
     </row>
-    <row r="18" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A18" s="17"/>
-      <c r="B18" s="13" t="s">
+    <row r="18" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A18" s="16"/>
+      <c r="B18" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E18" s="15">
         <v>43276</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="12"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
       <c r="XDU18"/>
       <c r="XDV18"/>
       <c r="XDW18"/>
@@ -3242,20 +3236,20 @@
       <c r="XFC18"/>
       <c r="XFD18"/>
     </row>
-    <row r="19" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A19" s="17"/>
-      <c r="B19" s="13" t="s">
+    <row r="19" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A19" s="16"/>
+      <c r="B19" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E19" s="15">
         <v>43276</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="12"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
       <c r="XDU19"/>
       <c r="XDV19"/>
       <c r="XDW19"/>
@@ -3293,20 +3287,20 @@
       <c r="XFC19"/>
       <c r="XFD19"/>
     </row>
-    <row r="20" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A20" s="17"/>
-      <c r="B20" s="10" t="s">
+    <row r="20" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A20" s="16"/>
+      <c r="B20" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E20" s="15">
         <v>43277</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
       <c r="XDU20"/>
       <c r="XDV20"/>
       <c r="XDW20"/>
@@ -3344,20 +3338,20 @@
       <c r="XFC20"/>
       <c r="XFD20"/>
     </row>
-    <row r="21" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A21" s="17"/>
-      <c r="B21" s="10" t="s">
+    <row r="21" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A21" s="16"/>
+      <c r="B21" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E21" s="15">
         <v>43277</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="12"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8"/>
       <c r="XDU21"/>
       <c r="XDV21"/>
       <c r="XDW21"/>
@@ -3395,22 +3389,22 @@
       <c r="XFC21"/>
       <c r="XFD21"/>
     </row>
-    <row r="22" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A22" s="12" t="s">
+    <row r="22" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A22" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="15">
         <v>43279</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="12"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
       <c r="XDU22"/>
       <c r="XDV22"/>
       <c r="XDW22"/>
@@ -3448,20 +3442,20 @@
       <c r="XFC22"/>
       <c r="XFD22"/>
     </row>
-    <row r="23" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13" t="s">
+    <row r="23" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="15">
         <v>43279</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="12"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
       <c r="XDU23"/>
       <c r="XDV23"/>
       <c r="XDW23"/>
@@ -3499,20 +3493,20 @@
       <c r="XFC23"/>
       <c r="XFD23"/>
     </row>
-    <row r="24" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13" t="s">
+    <row r="24" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="15">
         <v>43280</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="12"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
       <c r="XDU24"/>
       <c r="XDV24"/>
       <c r="XDW24"/>
@@ -3550,20 +3544,20 @@
       <c r="XFC24"/>
       <c r="XFD24"/>
     </row>
-    <row r="25" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13" t="s">
+    <row r="25" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="15">
         <v>43280</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="12"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
       <c r="XDU25"/>
       <c r="XDV25"/>
       <c r="XDW25"/>
@@ -3601,20 +3595,20 @@
       <c r="XFC25"/>
       <c r="XFD25"/>
     </row>
-    <row r="26" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13" t="s">
+    <row r="26" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="15">
         <v>43280</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="12"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="8"/>
       <c r="XDU26"/>
       <c r="XDV26"/>
       <c r="XDW26"/>
@@ -3652,20 +3646,20 @@
       <c r="XFC26"/>
       <c r="XFD26"/>
     </row>
-    <row r="27" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
+    <row r="27" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="15">
         <v>43281</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="12"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8"/>
       <c r="XDU27"/>
       <c r="XDV27"/>
       <c r="XDW27"/>
@@ -3703,20 +3697,20 @@
       <c r="XFC27"/>
       <c r="XFD27"/>
     </row>
-    <row r="28" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13" t="s">
+    <row r="28" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="15">
         <v>43281</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="12"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="8"/>
       <c r="XDU28"/>
       <c r="XDV28"/>
       <c r="XDW28"/>
@@ -3754,22 +3748,22 @@
       <c r="XFC28"/>
       <c r="XFD28"/>
     </row>
-    <row r="29" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A29" s="12" t="s">
+    <row r="29" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A29" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E29" s="15">
         <v>43278</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="12"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="8"/>
       <c r="XDU29"/>
       <c r="XDV29"/>
       <c r="XDW29"/>
@@ -3807,20 +3801,20 @@
       <c r="XFC29"/>
       <c r="XFD29"/>
     </row>
-    <row r="30" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13" t="s">
+    <row r="30" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E30" s="15">
         <v>43278</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="12"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="8"/>
       <c r="XDU30"/>
       <c r="XDV30"/>
       <c r="XDW30"/>
@@ -3858,20 +3852,20 @@
       <c r="XFC30"/>
       <c r="XFD30"/>
     </row>
-    <row r="31" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13" t="s">
+    <row r="31" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E31" s="15">
         <v>43278</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="12"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="8"/>
       <c r="XDU31"/>
       <c r="XDV31"/>
       <c r="XDW31"/>
@@ -3910,154 +3904,154 @@
       <c r="XFD31"/>
     </row>
     <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E32" s="15">
         <v>43278</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="12"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E33" s="15">
         <v>43279</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="12"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E34" s="15">
         <v>43279</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="12"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E35" s="15">
         <v>43279</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="12"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E36" s="15">
         <v>43279</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="12"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" customHeight="1" spans="1:7">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E37" s="15">
         <v>43279</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="12"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E38" s="15">
         <v>43280</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="12"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E39" s="15">
         <v>43280</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="12"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" customHeight="1" spans="1:7">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13" t="s">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E40" s="15">
         <v>43280</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="12"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" customHeight="1" spans="1:7">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13" t="s">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E41" s="15">
         <v>43281</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="12"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4076,19 +4070,20 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" spans="1:3">
+    <row r="1" ht="16.5" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -4147,11 +4142,62 @@
       </c>
       <c r="C7" s="3"/>
     </row>
+    <row r="10" ht="16.5" spans="1:2">
+      <c r="A10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:2">
+      <c r="A14" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -4163,493 +4209,493 @@
   <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="8"/>
+    <col min="1" max="1" width="18.7916666666667" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="12" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="11" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="10" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="16" t="s">
+    <row r="2" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="15">
         <v>43262</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A3" s="17"/>
-      <c r="B3" s="13" t="s">
+    <row r="3" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A3" s="16"/>
+      <c r="B3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="15">
         <v>43262</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A4" s="18"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="15">
         <v>43278</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A5" s="16" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="15">
         <v>43260</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="13" t="s">
+    <row r="6" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A6" s="16"/>
+      <c r="B6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="15">
         <v>43260</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A7" s="18"/>
-      <c r="B7" s="21" t="s">
+    <row r="7" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20">
         <v>43260</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A8" s="16" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="15">
         <v>43259</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A9" s="18"/>
-      <c r="B9" s="13" t="s">
+    <row r="9" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="15">
         <v>43259</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A10" s="12" t="s">
+    <row r="10" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="15">
         <v>43259</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A11" s="12" t="s">
+    <row r="11" s="10" customFormat="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="15">
         <v>43257</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:7">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="15">
         <v>43257</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" ht="39" customHeight="1" spans="1:7">
-      <c r="A13" s="18"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="15">
         <v>43257</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="15">
         <v>43257</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:7">
-      <c r="A15" s="18"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="15">
         <v>43257</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:7">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="15">
         <v>43271</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="15"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="15">
         <v>43260</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:7">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="15">
         <v>43262</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:7">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="15">
         <v>43258</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:7">
-      <c r="A20" s="17"/>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:7">
-      <c r="A21" s="17"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="15">
         <v>43258</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:7">
-      <c r="A22" s="17"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="15">
         <v>43258</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:7">
-      <c r="A23" s="17"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="15">
         <v>43258</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:7">
-      <c r="A24" s="17"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="15">
         <v>43258</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:7">
-      <c r="A25" s="18"/>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" ht="52" customHeight="1" spans="1:7">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="15">
         <v>43262</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:7">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="15">
         <v>43262</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:7">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="15">
         <v>43262</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="12"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" ht="37" customHeight="1" spans="1:7">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="15">
         <v>43262</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="12"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:7">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="15">
         <v>43262</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="12"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4678,107 +4724,107 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="8"/>
+    <col min="1" max="1" width="18.7916666666667" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="12" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="11" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="10" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A2" s="16" t="s">
+    <row r="2" s="10" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" s="8" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="17"/>
-      <c r="B3" s="13" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" s="10" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="16"/>
+      <c r="B3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="15">
         <v>43271</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" s="8" customFormat="1" ht="53" customHeight="1" spans="1:7">
-      <c r="A4" s="17"/>
-      <c r="B4" s="13" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="53" customHeight="1" spans="1:7">
+      <c r="A4" s="16"/>
+      <c r="B4" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="15">
         <v>43272</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" s="8" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A5" s="17"/>
-      <c r="B5" s="13" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" s="10" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A5" s="16"/>
+      <c r="B5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="15">
         <v>43272</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A6" s="18"/>
-      <c r="B6" s="21" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4795,528 +4841,528 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="8"/>
+    <col min="1" max="1" width="18.7916666666667" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="12" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="11" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="10" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A2" s="16" t="s">
+    <row r="2" s="10" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="15">
         <v>43271</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" s="8" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A3" s="17"/>
-      <c r="B3" s="13" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A3" s="16"/>
+      <c r="B3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="15">
         <v>43271</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A4" s="17"/>
-      <c r="B4" s="13" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A4" s="16"/>
+      <c r="B4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="15">
         <v>43272</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A5" s="17"/>
-      <c r="B5" s="13" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A5" s="16"/>
+      <c r="B5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="15">
         <v>43272</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="13" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A6" s="16"/>
+      <c r="B6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="15">
         <v>43273</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="13" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A7" s="16"/>
+      <c r="B7" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="15">
         <v>43273</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A8" s="17"/>
-      <c r="B8" s="13" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A8" s="16"/>
+      <c r="B8" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="15">
         <v>43274</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A9" s="17"/>
-      <c r="B9" s="13" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A9" s="16"/>
+      <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="15">
         <v>43274</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A10" s="17"/>
-      <c r="B10" s="13" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A10" s="16"/>
+      <c r="B10" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="15">
         <v>43278</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A11" s="17"/>
-      <c r="B11" s="13" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A11" s="16"/>
+      <c r="B11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="15">
         <v>43278</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A12" s="17"/>
-      <c r="B12" s="13" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A12" s="16"/>
+      <c r="B12" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="15">
         <v>43276</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A13" s="17"/>
-      <c r="B13" s="13" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A13" s="16"/>
+      <c r="B13" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="15">
         <v>43276</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="18"/>
-      <c r="B14" s="13" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A14" s="4"/>
+      <c r="B14" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="15">
         <v>43277</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A15" s="16" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="15">
         <v>43278</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A16" s="17"/>
-      <c r="B16" s="13" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A16" s="16"/>
+      <c r="B16" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="15">
         <v>43278</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="13" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A17" s="4"/>
+      <c r="B17" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="15">
         <v>43278</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A18" s="16" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="15">
         <v>43279</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A19" s="17"/>
-      <c r="B19" s="13" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A19" s="16"/>
+      <c r="B19" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="15">
         <v>43279</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A20" s="17"/>
-      <c r="B20" s="13" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A20" s="16"/>
+      <c r="B20" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="15">
         <v>43279</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A21" s="18"/>
-      <c r="B21" s="13" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A21" s="4"/>
+      <c r="B21" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="15">
         <v>43279</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A22" s="16" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A22" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="15">
         <v>43280</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A23" s="18"/>
-      <c r="B23" s="13" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="15">
         <v>43280</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A24" s="12" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A24" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="15">
         <v>43281</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" s="8" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" s="10" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="15">
         <v>43281</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="15">
         <v>43281</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="15">
         <v>43281</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="15">
         <v>43282</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="15">
         <v>43282</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="15">
         <v>43282</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="15">
         <v>43282</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="15">
         <v>43282</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:7">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="15">
         <v>43282</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="12"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:7">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="15">
         <v>43282</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="12"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:7">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="15">
         <v>43282</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="12"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:7">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="15">
         <v>43283</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="12"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:7">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="13"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="15">
         <v>43283</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="12"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5343,83 +5389,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="8"/>
+    <col min="1" max="1" width="18.7916666666667" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="12" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="11" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="10" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E2" s="15">
         <v>43283</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E3" s="15">
         <v>43283</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E4" s="15">
         <v>43283</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5436,226 +5482,226 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="8"/>
+    <col min="1" max="1" width="18.7916666666667" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="12" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="11" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="10" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E2" s="15">
         <v>43279</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E3" s="15">
         <v>43279</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A4" s="12" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A4" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E4" s="15">
         <v>43286</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A5" s="12" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A5" s="8" t="s">
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E5" s="15">
         <v>43287</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:7">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E6" s="15">
         <v>43284</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:7">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E7" s="15">
         <v>43284</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:7">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E8" s="15">
         <v>43284</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:7">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E9" s="15">
         <v>43284</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:7">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E10" s="15">
         <v>43284</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:7">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E11" s="15">
         <v>43284</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:7">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E12" s="15">
         <v>43284</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5672,127 +5718,127 @@
   <dimension ref="A1:XFD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="8"/>
+    <col min="1" max="1" width="18.7916666666667" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="12" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="11" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="10" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="D2" s="13"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="15">
         <v>43271</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="15">
         <v>43271</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" s="8" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="15">
         <v>43271</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A5" s="12" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A5" s="8" t="s">
         <v>153</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="15">
         <v>43272</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" s="8" customFormat="1" ht="34" customHeight="1" spans="1:7">
-      <c r="A6" s="19" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" s="10" customFormat="1" ht="34" customHeight="1" spans="1:7">
+      <c r="A6" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A7" s="12" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A7" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="15">
         <v>43273</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
       <c r="XDU7"/>
       <c r="XDV7"/>
       <c r="XDW7"/>
@@ -5830,20 +5876,20 @@
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
-    <row r="8" s="8" customFormat="1" ht="33" spans="1:16384">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
+    <row r="8" s="10" customFormat="1" ht="33" spans="1:16384">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="15">
         <v>43274</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
       <c r="XDU8"/>
       <c r="XDV8"/>
       <c r="XDW8"/>
@@ -5881,22 +5927,22 @@
       <c r="XFC8"/>
       <c r="XFD8"/>
     </row>
-    <row r="9" s="8" customFormat="1" ht="62" customHeight="1" spans="1:16384">
-      <c r="A9" s="12" t="s">
+    <row r="9" s="10" customFormat="1" ht="62" customHeight="1" spans="1:16384">
+      <c r="A9" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="15">
         <v>43275</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
       <c r="XDU9"/>
       <c r="XDV9"/>
       <c r="XDW9"/>
@@ -5934,16 +5980,16 @@
       <c r="XFC9"/>
       <c r="XFD9"/>
     </row>
-    <row r="10" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A10" s="19" t="s">
+    <row r="10" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A10" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="17"/>
       <c r="XDU10"/>
       <c r="XDV10"/>
       <c r="XDW10"/>
@@ -5997,112 +6043,112 @@
   <dimension ref="A1:XFD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="8"/>
+    <col min="1" max="1" width="18.7916666666667" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="12" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="11" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="10" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="D2" s="13"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="15">
         <v>43270</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="15">
         <v>43271</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A4" s="12" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A4" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>168</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="15">
         <v>43273</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="15">
         <v>43274</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A6" s="12" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A6" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="15">
         <v>43275</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
       <c r="XDU6"/>
       <c r="XDV6"/>
       <c r="XDW6"/>
@@ -6140,18 +6186,18 @@
       <c r="XFC6"/>
       <c r="XFD6"/>
     </row>
-    <row r="7" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+    <row r="7" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="15">
         <v>43276</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
       <c r="XDU7"/>
       <c r="XDV7"/>
       <c r="XDW7"/>
@@ -6189,20 +6235,20 @@
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
-    <row r="8" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A8" s="12" t="s">
+    <row r="8" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A8" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="15">
         <v>43277</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
       <c r="XDU8"/>
       <c r="XDV8"/>
       <c r="XDW8"/>
@@ -6240,20 +6286,20 @@
       <c r="XFC8"/>
       <c r="XFD8"/>
     </row>
-    <row r="9" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A9" s="12" t="s">
+    <row r="9" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A9" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="15">
         <v>43277</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
       <c r="XDU9"/>
       <c r="XDV9"/>
       <c r="XDW9"/>
@@ -6291,20 +6337,20 @@
       <c r="XFC9"/>
       <c r="XFD9"/>
     </row>
-    <row r="10" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A10" s="12" t="s">
+    <row r="10" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A10" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="15">
         <v>43278</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
       <c r="XDU10"/>
       <c r="XDV10"/>
       <c r="XDW10"/>
@@ -6342,18 +6388,18 @@
       <c r="XFC10"/>
       <c r="XFD10"/>
     </row>
-    <row r="11" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
+    <row r="11" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="15">
         <v>43278</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
       <c r="XDU11"/>
       <c r="XDV11"/>
       <c r="XDW11"/>
@@ -6391,18 +6437,18 @@
       <c r="XFC11"/>
       <c r="XFD11"/>
     </row>
-    <row r="12" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16384">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13" t="s">
+    <row r="12" s="10" customFormat="1" ht="25" customHeight="1" spans="1:16384">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="15">
         <v>43279</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
       <c r="XDU12"/>
       <c r="XDV12"/>
       <c r="XDW12"/>
@@ -6441,45 +6487,45 @@
       <c r="XFD12"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:7">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="15">
         <v>43280</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="15">
         <v>43280</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:7">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="15">
         <v>43281</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6505,77 +6551,77 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7916666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="8"/>
+    <col min="1" max="1" width="18.7916666666667" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="12" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="11" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="10" customFormat="1" ht="39.6" customHeight="1" spans="1:7">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="16" t="s">
+    <row r="2" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="D2" s="13"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="15">
         <v>43277</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" s="8" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A3" s="17"/>
-      <c r="B3" s="13" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A3" s="16"/>
+      <c r="B3" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="15">
         <v>43277</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" s="8" customFormat="1" ht="31" customHeight="1" spans="1:7">
-      <c r="A4" s="18"/>
-      <c r="B4" s="13" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="31" customHeight="1" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="9" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="15">
         <v>43277</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DOC/DMS开发计划-6.5.xlsx
+++ b/DOC/DMS开发计划-6.5.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="243">
   <si>
     <t>功能模块</t>
   </si>
@@ -46,679 +46,781 @@
     <t>状态</t>
   </si>
   <si>
-    <t>关怀提醒默认显示</t>
-  </si>
-  <si>
     <t>杨</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
+    <t>结算单打印抬头显示</t>
+  </si>
+  <si>
+    <t>委托单打印内容设置</t>
+  </si>
+  <si>
+    <t>必填参数设置</t>
+  </si>
+  <si>
+    <t>查车模版设置</t>
+  </si>
+  <si>
+    <t>查车单</t>
+  </si>
+  <si>
+    <t>预检单</t>
+  </si>
+  <si>
+    <t>员工信息</t>
+  </si>
+  <si>
+    <t>员工新增，修改，启用，停用</t>
+  </si>
+  <si>
+    <t>罗</t>
+  </si>
+  <si>
+    <t>角色定义</t>
+  </si>
+  <si>
+    <t>角色成员选择</t>
+  </si>
+  <si>
+    <t>角色权限</t>
+  </si>
+  <si>
+    <t>门店管理</t>
+  </si>
+  <si>
+    <t>门店列表</t>
+  </si>
+  <si>
+    <t>门店新增，修改，启用，禁用</t>
+  </si>
+  <si>
+    <t>初始化门店信息</t>
+  </si>
+  <si>
+    <t>出错提示标准统一</t>
+  </si>
+  <si>
+    <t>提示友好性，统一标准</t>
+  </si>
+  <si>
+    <t>供应商信息</t>
+  </si>
+  <si>
+    <t>供应商列表</t>
+  </si>
+  <si>
+    <t>供应商弹出界面</t>
+  </si>
+  <si>
+    <t>配件资料</t>
+  </si>
+  <si>
+    <t>本地配件资料</t>
+  </si>
+  <si>
+    <t>云配件资料</t>
+  </si>
+  <si>
+    <t>工时信息</t>
+  </si>
+  <si>
+    <t>本地工时信息</t>
+  </si>
+  <si>
+    <t>云工时信息</t>
+  </si>
+  <si>
+    <t>预约</t>
+  </si>
+  <si>
+    <t>微信预约</t>
+  </si>
+  <si>
+    <t>客户预约完后，预约单待确认</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>确认预约单</t>
+  </si>
+  <si>
+    <t>开单</t>
+  </si>
+  <si>
+    <t>判断是否已有客户信息，没有需要新增客户信息</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>微信评价</t>
+  </si>
+  <si>
+    <t>客户通过微信预约</t>
+  </si>
+  <si>
+    <t>综合工单</t>
+  </si>
+  <si>
+    <t>新建、修改，完工，删除</t>
+  </si>
+  <si>
+    <t>工单首页</t>
+  </si>
+  <si>
+    <t>车主信息、联系人信息、保险信息、工时信息、配件信息</t>
+  </si>
+  <si>
+    <t>查询工时、添加工时</t>
+  </si>
+  <si>
+    <t>查询配件、添加配件</t>
+  </si>
+  <si>
+    <t>会员卡、维修履历、相关单据</t>
+  </si>
+  <si>
+    <t>质检完工</t>
+  </si>
+  <si>
+    <t>新建回访</t>
+  </si>
+  <si>
+    <t>返厂</t>
+  </si>
+  <si>
+    <t>退货</t>
+  </si>
+  <si>
+    <t>收款详情</t>
+  </si>
+  <si>
+    <t>打印委托单</t>
+  </si>
+  <si>
+    <t>打印结算单</t>
+  </si>
+  <si>
+    <t>取消收款</t>
+  </si>
+  <si>
+    <t>检测开单</t>
+  </si>
+  <si>
+    <t>查车列表</t>
+  </si>
+  <si>
+    <t>新建接车预检</t>
+  </si>
+  <si>
+    <t>新建查车</t>
+  </si>
+  <si>
+    <t>洗车开单</t>
+  </si>
+  <si>
+    <t>列表</t>
+  </si>
+  <si>
+    <t>新建、修改，完工，结算，删除</t>
+  </si>
+  <si>
+    <t>洗车履历</t>
+  </si>
+  <si>
+    <t>选择工时，选择服务项目</t>
+  </si>
+  <si>
+    <t>销售开单</t>
+  </si>
+  <si>
+    <t>新建，修改，收款，退货</t>
+  </si>
+  <si>
+    <t>理赔开单</t>
+  </si>
+  <si>
+    <t>退货开单</t>
+  </si>
+  <si>
+    <t>单据列表</t>
+  </si>
+  <si>
+    <t>新建，修改，保存，入库，结算</t>
+  </si>
+  <si>
+    <t>入库由仓库来操作</t>
+  </si>
+  <si>
+    <t>采购</t>
+  </si>
+  <si>
+    <t>采购订单</t>
+  </si>
+  <si>
+    <t>丁</t>
+  </si>
+  <si>
+    <t>采购退货</t>
+  </si>
+  <si>
+    <t>采购平台</t>
+  </si>
+  <si>
+    <t>工单出入库</t>
+  </si>
+  <si>
+    <t>综合开单出入库</t>
+  </si>
+  <si>
+    <t>销售开单出入库</t>
+  </si>
+  <si>
+    <t>耗材出入库</t>
+  </si>
+  <si>
+    <t>工具出入库</t>
+  </si>
+  <si>
+    <t>入库单</t>
+  </si>
+  <si>
+    <t>根据采购订单出库</t>
+  </si>
+  <si>
+    <t>出库单</t>
+  </si>
+  <si>
+    <t>根据销售订单出库</t>
+  </si>
+  <si>
+    <t>盘点单</t>
+  </si>
+  <si>
+    <t>移仓单</t>
+  </si>
+  <si>
+    <t>库存设置</t>
+  </si>
+  <si>
+    <t>库存查询</t>
+  </si>
+  <si>
+    <t>库存台账</t>
+  </si>
+  <si>
+    <t>会员卡管理</t>
+  </si>
+  <si>
+    <t>卡管理</t>
+  </si>
+  <si>
+    <t>开卡单</t>
+  </si>
+  <si>
+    <t>卡模版管理</t>
+  </si>
+  <si>
+    <t>新建会员卡，新建计次卡，新建套餐卡，新建储值卡</t>
+  </si>
+  <si>
+    <t>套餐设置</t>
+  </si>
+  <si>
+    <t>电话销售</t>
+  </si>
+  <si>
+    <t>资料管理</t>
+  </si>
+  <si>
+    <t>电话回访</t>
+  </si>
+  <si>
+    <t>工单任务分配，创建回访任务</t>
+  </si>
+  <si>
+    <t>保存，完成，完成所有，预约开单，呼叫</t>
+  </si>
+  <si>
+    <t>根据配置，是否需要进行任务分配；</t>
+  </si>
+  <si>
+    <t>客户关怀</t>
+  </si>
+  <si>
+    <t>保养，保险、驾照年审、车辆年检、会员卡到期，客户生日到期、员工生日到期、连续未消费</t>
+  </si>
+  <si>
+    <t>根据提醒规则设置</t>
+  </si>
+  <si>
+    <t>群发消息</t>
+  </si>
+  <si>
+    <t>应收</t>
+  </si>
+  <si>
+    <t>收款，导出</t>
+  </si>
+  <si>
+    <t>收款详细，审核</t>
+  </si>
+  <si>
+    <t>应付</t>
+  </si>
+  <si>
+    <t>审核，付款</t>
+  </si>
+  <si>
+    <t>付款明细</t>
+  </si>
+  <si>
+    <t>预收预付</t>
+  </si>
+  <si>
+    <t>预收，预付登记</t>
+  </si>
+  <si>
+    <t>预收支出，预付退回</t>
+  </si>
+  <si>
+    <t>其它应收</t>
+  </si>
+  <si>
+    <t>其它应付</t>
+  </si>
+  <si>
+    <t>其它收支业务</t>
+  </si>
+  <si>
+    <t>内部转账单</t>
+  </si>
+  <si>
+    <t>费用支出单</t>
+  </si>
+  <si>
+    <t>其它收入单</t>
+  </si>
+  <si>
+    <t>开票管理</t>
+  </si>
+  <si>
+    <t>开票列表</t>
+  </si>
+  <si>
+    <t>新建开票</t>
+  </si>
+  <si>
+    <t>添加开票单据</t>
+  </si>
+  <si>
+    <t>保险单</t>
+  </si>
+  <si>
+    <t>新建，转单提交应收</t>
+  </si>
+  <si>
+    <t>车辆、保单信息、保险内容（交强险，商业险，投保金额）</t>
+  </si>
+  <si>
+    <t>营业报表</t>
+  </si>
+  <si>
+    <t>营业额流水汇总</t>
+  </si>
+  <si>
+    <t>工单营业明细</t>
+  </si>
+  <si>
+    <t>保险营业明细</t>
+  </si>
+  <si>
+    <t>零售业务明细</t>
+  </si>
+  <si>
+    <t>会员卡类别统计</t>
+  </si>
+  <si>
+    <t>车间报表</t>
+  </si>
+  <si>
+    <t>查车施工明细表</t>
+  </si>
+  <si>
+    <t>施工项目明细表</t>
+  </si>
+  <si>
+    <t>施工项目汇总表</t>
+  </si>
+  <si>
+    <t>技师业绩明细表</t>
+  </si>
+  <si>
+    <t>技师业绩汇总表</t>
+  </si>
+  <si>
+    <t>采购报表</t>
+  </si>
+  <si>
+    <t>采购订单明细</t>
+  </si>
+  <si>
+    <t>按供应商，编码，品牌，分类采购统计表</t>
+  </si>
+  <si>
+    <t>仓库报表</t>
+  </si>
+  <si>
+    <t>呆滞品统计分析</t>
+  </si>
+  <si>
+    <t>安全库存预警</t>
+  </si>
+  <si>
+    <t>库存状况明细</t>
+  </si>
+  <si>
+    <t>库存状况汇总表</t>
+  </si>
+  <si>
+    <t>库存周转明细表</t>
+  </si>
+  <si>
+    <t>库存周转汇总表</t>
+  </si>
+  <si>
+    <t>库存进销存流水表</t>
+  </si>
+  <si>
+    <t>库存进销存汇总表</t>
+  </si>
+  <si>
+    <t>客户报表</t>
+  </si>
+  <si>
+    <t>流失车辆明细</t>
+  </si>
+  <si>
+    <t>车型价值分析</t>
+  </si>
+  <si>
+    <t>客户价值分析</t>
+  </si>
+  <si>
+    <t>客户资产分析</t>
+  </si>
+  <si>
+    <t>按客单价、次数分析客户结构</t>
+  </si>
+  <si>
+    <t>客户图表分析</t>
+  </si>
+  <si>
+    <t>按车辆品牌、类型分析</t>
+  </si>
+  <si>
+    <t>财务报表</t>
+  </si>
+  <si>
+    <t>收款单据及明细</t>
+  </si>
+  <si>
+    <t>付款单据及明细</t>
+  </si>
+  <si>
+    <t>收款流水汇总</t>
+  </si>
+  <si>
+    <t>付款流水汇总</t>
+  </si>
+  <si>
+    <t>预收处理明细</t>
+  </si>
+  <si>
+    <t>预收处理汇总</t>
+  </si>
+  <si>
+    <t>应收账款明细</t>
+  </si>
+  <si>
+    <t>应收账款分析</t>
+  </si>
+  <si>
+    <t>主营业务收支统计分析</t>
+  </si>
+  <si>
+    <t>非主营业务收支明细</t>
+  </si>
+  <si>
+    <t>非主营业务收支统计</t>
+  </si>
+  <si>
+    <t>账户明细、余额表</t>
+  </si>
+  <si>
+    <t>利润表</t>
+  </si>
+  <si>
+    <t>角色权限设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建工作组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增工作组，技师等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化导航</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务参数设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算单打印内容设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务分类设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户级别设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户来源设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回访设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车电子档案上传设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提成设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技师等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>计次卡提成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>储值卡提成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用提成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示设置（个人）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售客户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户车辆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修工时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本店套餐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件分类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件品牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初库存</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌车型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出车报告</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算账户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初现金银行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初应收应付</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增，修改，禁用，删除，导入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收支项目定义</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只查询本租户的信息（default查询所有，否则查询本租户）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>业务提醒默认显示本人的工单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>工单列表默认显示本人的工单</t>
-  </si>
-  <si>
-    <t>结算单打印抬头显示</t>
-  </si>
-  <si>
-    <t>委托单打印内容设置</t>
-  </si>
-  <si>
-    <t>必填参数设置</t>
-  </si>
-  <si>
-    <t>查车模版设置</t>
-  </si>
-  <si>
-    <t>查车单</t>
-  </si>
-  <si>
-    <t>预检单</t>
-  </si>
-  <si>
-    <t>员工信息</t>
-  </si>
-  <si>
-    <t>员工新增，修改，启用，停用</t>
-  </si>
-  <si>
-    <t>罗</t>
-  </si>
-  <si>
-    <t>角色定义</t>
-  </si>
-  <si>
-    <t>角色成员选择</t>
-  </si>
-  <si>
-    <t>角色权限</t>
-  </si>
-  <si>
-    <t>门店管理</t>
-  </si>
-  <si>
-    <t>门店列表</t>
-  </si>
-  <si>
-    <t>门店新增，修改，启用，禁用</t>
-  </si>
-  <si>
-    <t>初始化门店信息</t>
-  </si>
-  <si>
-    <t>出错提示标准统一</t>
-  </si>
-  <si>
-    <t>提示友好性，统一标准</t>
-  </si>
-  <si>
-    <t>供应商信息</t>
-  </si>
-  <si>
-    <t>供应商列表</t>
-  </si>
-  <si>
-    <t>供应商弹出界面</t>
-  </si>
-  <si>
-    <t>配件资料</t>
-  </si>
-  <si>
-    <t>本地配件资料</t>
-  </si>
-  <si>
-    <t>云配件资料</t>
-  </si>
-  <si>
-    <t>工时信息</t>
-  </si>
-  <si>
-    <t>本地工时信息</t>
-  </si>
-  <si>
-    <t>云工时信息</t>
-  </si>
-  <si>
-    <t>预约</t>
-  </si>
-  <si>
-    <t>微信预约</t>
-  </si>
-  <si>
-    <t>客户预约完后，预约单待确认</t>
-  </si>
-  <si>
-    <t>确认</t>
-  </si>
-  <si>
-    <t>确认预约单</t>
-  </si>
-  <si>
-    <t>开单</t>
-  </si>
-  <si>
-    <t>判断是否已有客户信息，没有需要新增客户信息</t>
-  </si>
-  <si>
-    <t>取消</t>
-  </si>
-  <si>
-    <t>微信评价</t>
-  </si>
-  <si>
-    <t>客户通过微信预约</t>
-  </si>
-  <si>
-    <t>综合工单</t>
-  </si>
-  <si>
-    <t>新建、修改，完工，删除</t>
-  </si>
-  <si>
-    <t>工单首页</t>
-  </si>
-  <si>
-    <t>车主信息、联系人信息、保险信息、工时信息、配件信息</t>
-  </si>
-  <si>
-    <t>查询工时、添加工时</t>
-  </si>
-  <si>
-    <t>查询配件、添加配件</t>
-  </si>
-  <si>
-    <t>会员卡、维修履历、相关单据</t>
-  </si>
-  <si>
-    <t>质检完工</t>
-  </si>
-  <si>
-    <t>新建回访</t>
-  </si>
-  <si>
-    <t>返厂</t>
-  </si>
-  <si>
-    <t>退货</t>
-  </si>
-  <si>
-    <t>收款详情</t>
-  </si>
-  <si>
-    <t>打印委托单</t>
-  </si>
-  <si>
-    <t>打印结算单</t>
-  </si>
-  <si>
-    <t>取消收款</t>
-  </si>
-  <si>
-    <t>检测开单</t>
-  </si>
-  <si>
-    <t>查车列表</t>
-  </si>
-  <si>
-    <t>新建接车预检</t>
-  </si>
-  <si>
-    <t>新建查车</t>
-  </si>
-  <si>
-    <t>洗车开单</t>
-  </si>
-  <si>
-    <t>列表</t>
-  </si>
-  <si>
-    <t>新建、修改，完工，结算，删除</t>
-  </si>
-  <si>
-    <t>洗车履历</t>
-  </si>
-  <si>
-    <t>选择工时，选择服务项目</t>
-  </si>
-  <si>
-    <t>销售开单</t>
-  </si>
-  <si>
-    <t>新建，修改，收款，退货</t>
-  </si>
-  <si>
-    <t>理赔开单</t>
-  </si>
-  <si>
-    <t>退货开单</t>
-  </si>
-  <si>
-    <t>单据列表</t>
-  </si>
-  <si>
-    <t>新建，修改，保存，入库，结算</t>
-  </si>
-  <si>
-    <t>入库由仓库来操作</t>
-  </si>
-  <si>
-    <t>采购</t>
-  </si>
-  <si>
-    <t>采购订单</t>
-  </si>
-  <si>
-    <t>丁</t>
-  </si>
-  <si>
-    <t>采购退货</t>
-  </si>
-  <si>
-    <t>采购平台</t>
-  </si>
-  <si>
-    <t>工单出入库</t>
-  </si>
-  <si>
-    <t>综合开单出入库</t>
-  </si>
-  <si>
-    <t>销售开单出入库</t>
-  </si>
-  <si>
-    <t>耗材出入库</t>
-  </si>
-  <si>
-    <t>工具出入库</t>
-  </si>
-  <si>
-    <t>入库单</t>
-  </si>
-  <si>
-    <t>根据采购订单出库</t>
-  </si>
-  <si>
-    <t>出库单</t>
-  </si>
-  <si>
-    <t>根据销售订单出库</t>
-  </si>
-  <si>
-    <t>盘点单</t>
-  </si>
-  <si>
-    <t>移仓单</t>
-  </si>
-  <si>
-    <t>库存设置</t>
-  </si>
-  <si>
-    <t>库存查询</t>
-  </si>
-  <si>
-    <t>库存台账</t>
-  </si>
-  <si>
-    <t>会员卡管理</t>
-  </si>
-  <si>
-    <t>卡管理</t>
-  </si>
-  <si>
-    <t>开卡单</t>
-  </si>
-  <si>
-    <t>卡模版管理</t>
-  </si>
-  <si>
-    <t>新建会员卡，新建计次卡，新建套餐卡，新建储值卡</t>
-  </si>
-  <si>
-    <t>套餐设置</t>
-  </si>
-  <si>
-    <t>电话销售</t>
-  </si>
-  <si>
-    <t>资料管理</t>
-  </si>
-  <si>
-    <t>电话回访</t>
-  </si>
-  <si>
-    <t>工单任务分配，创建回访任务</t>
-  </si>
-  <si>
-    <t>保存，完成，完成所有，预约开单，呼叫</t>
-  </si>
-  <si>
-    <t>根据配置，是否需要进行任务分配；</t>
-  </si>
-  <si>
-    <t>客户关怀</t>
-  </si>
-  <si>
-    <t>保养，保险、驾照年审、车辆年检、会员卡到期，客户生日到期、员工生日到期、连续未消费</t>
-  </si>
-  <si>
-    <t>根据提醒规则设置</t>
-  </si>
-  <si>
-    <t>群发消息</t>
-  </si>
-  <si>
-    <t>应收</t>
-  </si>
-  <si>
-    <t>收款，导出</t>
-  </si>
-  <si>
-    <t>收款详细，审核</t>
-  </si>
-  <si>
-    <t>应付</t>
-  </si>
-  <si>
-    <t>审核，付款</t>
-  </si>
-  <si>
-    <t>付款明细</t>
-  </si>
-  <si>
-    <t>预收预付</t>
-  </si>
-  <si>
-    <t>预收，预付登记</t>
-  </si>
-  <si>
-    <t>预收支出，预付退回</t>
-  </si>
-  <si>
-    <t>其它应收</t>
-  </si>
-  <si>
-    <t>其它应付</t>
-  </si>
-  <si>
-    <t>其它收支业务</t>
-  </si>
-  <si>
-    <t>内部转账单</t>
-  </si>
-  <si>
-    <t>费用支出单</t>
-  </si>
-  <si>
-    <t>其它收入单</t>
-  </si>
-  <si>
-    <t>开票管理</t>
-  </si>
-  <si>
-    <t>开票列表</t>
-  </si>
-  <si>
-    <t>新建开票</t>
-  </si>
-  <si>
-    <t>添加开票单据</t>
-  </si>
-  <si>
-    <t>保险单</t>
-  </si>
-  <si>
-    <t>新建，转单提交应收</t>
-  </si>
-  <si>
-    <t>车辆、保单信息、保险内容（交强险，商业险，投保金额）</t>
-  </si>
-  <si>
-    <t>营业报表</t>
-  </si>
-  <si>
-    <t>营业额流水汇总</t>
-  </si>
-  <si>
-    <t>工单营业明细</t>
-  </si>
-  <si>
-    <t>保险营业明细</t>
-  </si>
-  <si>
-    <t>零售业务明细</t>
-  </si>
-  <si>
-    <t>会员卡类别统计</t>
-  </si>
-  <si>
-    <t>车间报表</t>
-  </si>
-  <si>
-    <t>查车施工明细表</t>
-  </si>
-  <si>
-    <t>施工项目明细表</t>
-  </si>
-  <si>
-    <t>施工项目汇总表</t>
-  </si>
-  <si>
-    <t>技师业绩明细表</t>
-  </si>
-  <si>
-    <t>技师业绩汇总表</t>
-  </si>
-  <si>
-    <t>采购报表</t>
-  </si>
-  <si>
-    <t>采购订单明细</t>
-  </si>
-  <si>
-    <t>按供应商，编码，品牌，分类采购统计表</t>
-  </si>
-  <si>
-    <t>仓库报表</t>
-  </si>
-  <si>
-    <t>呆滞品统计分析</t>
-  </si>
-  <si>
-    <t>安全库存预警</t>
-  </si>
-  <si>
-    <t>库存状况明细</t>
-  </si>
-  <si>
-    <t>库存状况汇总表</t>
-  </si>
-  <si>
-    <t>库存周转明细表</t>
-  </si>
-  <si>
-    <t>库存周转汇总表</t>
-  </si>
-  <si>
-    <t>库存进销存流水表</t>
-  </si>
-  <si>
-    <t>库存进销存汇总表</t>
-  </si>
-  <si>
-    <t>客户报表</t>
-  </si>
-  <si>
-    <t>流失车辆明细</t>
-  </si>
-  <si>
-    <t>车型价值分析</t>
-  </si>
-  <si>
-    <t>客户价值分析</t>
-  </si>
-  <si>
-    <t>客户资产分析</t>
-  </si>
-  <si>
-    <t>按客单价、次数分析客户结构</t>
-  </si>
-  <si>
-    <t>客户图表分析</t>
-  </si>
-  <si>
-    <t>按车辆品牌、类型分析</t>
-  </si>
-  <si>
-    <t>财务报表</t>
-  </si>
-  <si>
-    <t>收款单据及明细</t>
-  </si>
-  <si>
-    <t>付款单据及明细</t>
-  </si>
-  <si>
-    <t>收款流水汇总</t>
-  </si>
-  <si>
-    <t>付款流水汇总</t>
-  </si>
-  <si>
-    <t>预收处理明细</t>
-  </si>
-  <si>
-    <t>预收处理汇总</t>
-  </si>
-  <si>
-    <t>应收账款明细</t>
-  </si>
-  <si>
-    <t>应收账款分析</t>
-  </si>
-  <si>
-    <t>主营业务收支统计分析</t>
-  </si>
-  <si>
-    <t>非主营业务收支明细</t>
-  </si>
-  <si>
-    <t>非主营业务收支统计</t>
-  </si>
-  <si>
-    <t>账户明细、余额表</t>
-  </si>
-  <si>
-    <t>利润表</t>
-  </si>
-  <si>
-    <t>角色权限设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>只查询本租户的信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建工作组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增工作组，技师等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化导航</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务参数设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算单打印内容设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务分类设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户级别设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户来源设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>回访设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽车电子档案上传设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>工单设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提成设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技师等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>计次卡提成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>储值卡提成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用提成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示设置（个人）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>零售客户</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户车辆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修工时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本店套餐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>配件分类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>配件品牌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>期初库存</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌车型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>保险公司</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>出车报告</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算账户</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>期初现金银行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>期初应收应付</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增，修改，禁用，删除，导入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收支项目定义</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关怀提醒默认显示本人的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_scout_param</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_store</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_part_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_params</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp_part_brand
+comp_part_brand_org</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_guest_agent_extend</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_dataitems</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_out_report
+com_dataitems</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fib_settle_account</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fis_settle_account_bala</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fis_rp_account</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fib_income_expenses</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_member_level</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_card_stored</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_card_times
+rpb_card_times_detail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_business_deduct</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_check_main
+rpb_check_detail
+rpb_check_item_content</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_attribute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_guest</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_car</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_item</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_package
+rpb_package_item
+rpb_packae_part</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +828,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,8 +871,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,6 +896,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,7 +972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,8 +1057,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,10 +1376,10 @@
   <dimension ref="A1:XFD50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50:XFD50"/>
+      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1259,12 +1387,14 @@
     <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="5"/>
+    <col min="4" max="4" width="24.875" style="7" customWidth="1"/>
+    <col min="5" max="7" width="12.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="5" customWidth="1"/>
+    <col min="10" max="16349" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7 16349:16384" s="5" customFormat="1" ht="39.6" customHeight="1">
+    <row r="1" spans="1:8 16350:16384" s="5" customFormat="1" ht="39.6" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1274,36 +1404,39 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+    <row r="2" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="4"/>
-      <c r="XDU2"/>
+      <c r="H2" s="4"/>
       <c r="XDV2"/>
       <c r="XDW2"/>
       <c r="XDX2"/>
@@ -1338,20 +1471,21 @@
       <c r="XFA2"/>
       <c r="XFB2"/>
       <c r="XFC2"/>
-    </row>
-    <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="30.95" customHeight="1">
+      <c r="XFD2"/>
+    </row>
+    <row r="3" spans="1:8 16350:16384" s="5" customFormat="1" ht="30.95" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10"/>
       <c r="G3" s="4"/>
-      <c r="XDU3"/>
+      <c r="H3" s="4"/>
       <c r="XDV3"/>
       <c r="XDW3"/>
       <c r="XDX3"/>
@@ -1386,20 +1520,21 @@
       <c r="XFA3"/>
       <c r="XFB3"/>
       <c r="XFC3"/>
-    </row>
-    <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="XFD3"/>
+    </row>
+    <row r="4" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="4"/>
-      <c r="XDU4"/>
+      <c r="H4" s="4"/>
       <c r="XDV4"/>
       <c r="XDW4"/>
       <c r="XDX4"/>
@@ -1434,24 +1569,25 @@
       <c r="XFA4"/>
       <c r="XFB4"/>
       <c r="XFC4"/>
-    </row>
-    <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="XFD4"/>
+    </row>
+    <row r="5" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4"/>
+        <v>182</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="10"/>
       <c r="G5" s="4"/>
-      <c r="XDU5"/>
+      <c r="H5" s="4"/>
       <c r="XDV5"/>
       <c r="XDW5"/>
       <c r="XDX5"/>
@@ -1488,17 +1624,17 @@
       <c r="XFC5"/>
       <c r="XFD5"/>
     </row>
-    <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+    <row r="6" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="17"/>
-      <c r="B6" s="22" t="s">
-        <v>185</v>
+      <c r="B6" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="C6" s="22"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="4"/>
-      <c r="XDU6"/>
+      <c r="H6" s="4"/>
       <c r="XDV6"/>
       <c r="XDW6"/>
       <c r="XDX6"/>
@@ -1535,21 +1671,21 @@
       <c r="XFC6"/>
       <c r="XFD6"/>
     </row>
-    <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+    <row r="7" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="4"/>
-      <c r="XDU7"/>
+      <c r="H7" s="4"/>
       <c r="XDV7"/>
       <c r="XDW7"/>
       <c r="XDX7"/>
@@ -1584,20 +1720,21 @@
       <c r="XFA7"/>
       <c r="XFB7"/>
       <c r="XFC7"/>
-    </row>
-    <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="XFD7"/>
+    </row>
+    <row r="8" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="10"/>
       <c r="G8" s="4"/>
-      <c r="XDU8"/>
+      <c r="H8" s="4"/>
       <c r="XDV8"/>
       <c r="XDW8"/>
       <c r="XDX8"/>
@@ -1632,20 +1769,21 @@
       <c r="XFA8"/>
       <c r="XFB8"/>
       <c r="XFC8"/>
-    </row>
-    <row r="9" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="XFD8"/>
+    </row>
+    <row r="9" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="4"/>
-      <c r="XDU9"/>
+      <c r="H9" s="4"/>
       <c r="XDV9"/>
       <c r="XDW9"/>
       <c r="XDX9"/>
@@ -1680,504 +1818,599 @@
       <c r="XFA9"/>
       <c r="XFB9"/>
       <c r="XFC9"/>
-    </row>
-    <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="XFD9"/>
+    </row>
+    <row r="10" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
+      <c r="B11" s="22" t="s">
+        <v>217</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="10"/>
       <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
+      <c r="B12" s="22" t="s">
+        <v>218</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="10"/>
       <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="4"/>
+        <v>185</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="25"/>
       <c r="B14" s="23"/>
       <c r="C14" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="25"/>
       <c r="B15" s="23"/>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="25"/>
       <c r="B16" s="23"/>
       <c r="C16" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="25"/>
       <c r="B17" s="23"/>
       <c r="C17" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A18" s="25"/>
       <c r="B18" s="23"/>
       <c r="C18" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="4"/>
+        <v>188</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A19" s="25"/>
       <c r="B19" s="23"/>
       <c r="C19" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="4"/>
+        <v>189</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A20" s="25"/>
       <c r="B20" s="23"/>
       <c r="C20" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A21" s="25"/>
       <c r="B21" s="23"/>
       <c r="C21" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="4"/>
+        <v>204</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A22" s="25"/>
       <c r="B22" s="23"/>
       <c r="C22" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="4"/>
+        <v>205</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="23"/>
       <c r="C23" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A24" s="25"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="4"/>
+      <c r="C24" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A25" s="25"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="4"/>
+      <c r="C25" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A26" s="25"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="4"/>
+      <c r="C26" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A27" s="25"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="4"/>
+      <c r="C27" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A28" s="25"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="4"/>
+      <c r="C28" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A29" s="25"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="4"/>
+      <c r="C29" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A30" s="25"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="4"/>
+      <c r="C30" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A31" s="25"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="4"/>
+      <c r="C31" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A32" s="25"/>
       <c r="B32" s="23"/>
       <c r="C32" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="4"/>
+        <v>191</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A33" s="25"/>
       <c r="B33" s="23"/>
       <c r="C33" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="4"/>
+        <v>192</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A34" s="25"/>
       <c r="B34" s="24" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="4"/>
+        <v>194</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="4"/>
+        <v>195</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="4"/>
+        <v>196</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A38" s="25"/>
       <c r="B38" s="26"/>
       <c r="C38" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A39" s="25"/>
       <c r="B39" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A40" s="25"/>
       <c r="B40" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A41" s="26"/>
       <c r="B41" s="15"/>
       <c r="C41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" ht="24.95" customHeight="1">
       <c r="A42" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="10">
+      <c r="D42" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="10">
         <v>43257</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="24.95" customHeight="1">
+      <c r="G42" s="4"/>
+      <c r="H42" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="24.95" customHeight="1">
       <c r="A43" s="18"/>
       <c r="B43" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="10">
+      <c r="D43" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="10">
         <v>43257</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A44" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="10">
+      <c r="D44" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="10">
         <v>43259</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A45" s="18"/>
       <c r="B45" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="10">
+      <c r="E45" s="4"/>
+      <c r="F45" s="10">
         <v>43259</v>
       </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="G45" s="4"/>
+      <c r="H45" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A46" s="27" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="10"/>
       <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A47" s="27" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A48" s="27" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C48" s="22"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="4"/>
+      <c r="D48" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="10"/>
       <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7 16349:16383" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8 16350:16384" s="5" customFormat="1" ht="42.75" customHeight="1">
       <c r="A49" s="27" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="10"/>
       <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7 16349:16383" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="10"/>
       <c r="G50" s="4"/>
-      <c r="XDU50"/>
+      <c r="H50" s="4"/>
       <c r="XDV50"/>
       <c r="XDW50"/>
       <c r="XDX50"/>
@@ -2212,11 +2445,13 @@
       <c r="XFA50"/>
       <c r="XFB50"/>
       <c r="XFC50"/>
+      <c r="XFD50"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="B13:B33"/>
@@ -2249,109 +2484,109 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18"/>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="38.25">
       <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2412,13 +2647,13 @@
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="14"/>
@@ -2428,10 +2663,10 @@
     <row r="3" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="10">
@@ -2443,10 +2678,10 @@
     <row r="4" spans="1:7" s="5" customFormat="1" ht="53.1" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="10">
@@ -2458,7 +2693,7 @@
     <row r="5" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2471,10 +2706,10 @@
     <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
@@ -2534,13 +2769,13 @@
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="10">
@@ -2552,7 +2787,7 @@
     <row r="3" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2565,7 +2800,7 @@
     <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2578,7 +2813,7 @@
     <row r="5" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2591,7 +2826,7 @@
     <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2604,7 +2839,7 @@
     <row r="7" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2617,7 +2852,7 @@
     <row r="8" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2630,7 +2865,7 @@
     <row r="9" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2643,7 +2878,7 @@
     <row r="10" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2656,7 +2891,7 @@
     <row r="11" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2669,7 +2904,7 @@
     <row r="12" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="17"/>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2682,7 +2917,7 @@
     <row r="13" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2695,7 +2930,7 @@
     <row r="14" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2707,10 +2942,10 @@
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2723,7 +2958,7 @@
     <row r="16" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2736,7 +2971,7 @@
     <row r="17" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2748,10 +2983,10 @@
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A18" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2764,7 +2999,7 @@
     <row r="19" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2777,7 +3012,7 @@
     <row r="20" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A20" s="17"/>
       <c r="B20" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2790,7 +3025,7 @@
     <row r="21" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2802,10 +3037,10 @@
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A22" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2818,7 +3053,7 @@
     <row r="23" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2830,13 +3065,13 @@
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A24" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="10">
@@ -2848,7 +3083,7 @@
     <row r="25" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="A25" s="15"/>
       <c r="B25" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2861,7 +3096,7 @@
     <row r="26" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A26" s="15"/>
       <c r="B26" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2874,7 +3109,7 @@
     <row r="27" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A27" s="15"/>
       <c r="B27" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2887,7 +3122,7 @@
     <row r="28" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A28" s="15"/>
       <c r="B28" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2900,7 +3135,7 @@
     <row r="29" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A29" s="15"/>
       <c r="B29" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2913,7 +3148,7 @@
     <row r="30" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A30" s="15"/>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2926,7 +3161,7 @@
     <row r="31" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A31" s="15"/>
       <c r="B31" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2939,7 +3174,7 @@
     <row r="32" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A32" s="15"/>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2952,7 +3187,7 @@
     <row r="33" spans="1:7" ht="24.95" customHeight="1">
       <c r="A33" s="15"/>
       <c r="B33" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2965,7 +3200,7 @@
     <row r="34" spans="1:7" ht="24.95" customHeight="1">
       <c r="A34" s="15"/>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2978,7 +3213,7 @@
     <row r="35" spans="1:7" ht="24.95" customHeight="1">
       <c r="A35" s="15"/>
       <c r="B35" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2990,10 +3225,10 @@
     </row>
     <row r="36" spans="1:7" ht="24.95" customHeight="1">
       <c r="A36" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3006,10 +3241,10 @@
     <row r="37" spans="1:7" ht="24.95" customHeight="1">
       <c r="A37" s="15"/>
       <c r="B37" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="10">
@@ -3075,14 +3310,14 @@
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E2" s="10">
         <v>43283</v>
@@ -3093,11 +3328,11 @@
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E3" s="10">
         <v>43283</v>
@@ -3108,11 +3343,11 @@
     <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E4" s="10">
         <v>43283</v>
@@ -3172,14 +3407,14 @@
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E2" s="10">
         <v>43279</v>
@@ -3190,11 +3425,11 @@
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E3" s="10">
         <v>43279</v>
@@ -3204,14 +3439,14 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E4" s="10">
         <v>43286</v>
@@ -3221,14 +3456,14 @@
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E5" s="10">
         <v>43287</v>
@@ -3238,14 +3473,14 @@
     </row>
     <row r="6" spans="1:7" ht="24.95" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" s="10">
         <v>43284</v>
@@ -3255,14 +3490,14 @@
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E7" s="10">
         <v>43284</v>
@@ -3272,14 +3507,14 @@
     </row>
     <row r="8" spans="1:7" ht="24.95" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E8" s="10">
         <v>43284</v>
@@ -3289,14 +3524,14 @@
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E9" s="10">
         <v>43284</v>
@@ -3306,14 +3541,14 @@
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="10">
         <v>43284</v>
@@ -3323,14 +3558,14 @@
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E11" s="10">
         <v>43284</v>
@@ -3340,14 +3575,14 @@
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E12" s="10">
         <v>43284</v>
@@ -3407,10 +3642,10 @@
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
@@ -3423,7 +3658,7 @@
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3436,10 +3671,10 @@
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="38.25">
       <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="10">
@@ -3450,10 +3685,10 @@
     </row>
     <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3465,10 +3700,10 @@
     </row>
     <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -3478,10 +3713,10 @@
     </row>
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3530,10 +3765,10 @@
     <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="25.5">
       <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="10">
@@ -3580,13 +3815,13 @@
     </row>
     <row r="9" spans="1:7 16349:16384" s="5" customFormat="1" ht="62.1" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="10">
@@ -3633,7 +3868,7 @@
     </row>
     <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -3731,10 +3966,10 @@
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
@@ -3747,7 +3982,7 @@
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3759,10 +3994,10 @@
     </row>
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="4"/>
@@ -3775,7 +4010,7 @@
     <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3787,10 +4022,10 @@
     </row>
     <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -3839,7 +4074,7 @@
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3887,10 +4122,10 @@
     </row>
     <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3938,10 +4173,10 @@
     </row>
     <row r="9" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3989,10 +4224,10 @@
     </row>
     <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -4041,7 +4276,7 @@
     <row r="11" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4090,7 +4325,7 @@
     <row r="12" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -4138,10 +4373,10 @@
     </row>
     <row r="13" spans="1:7 16349:16384" ht="24.95" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -4154,7 +4389,7 @@
     <row r="14" spans="1:7 16349:16384" ht="24.95" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -4167,7 +4402,7 @@
     <row r="15" spans="1:7 16349:16384" ht="24.95" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4233,10 +4468,10 @@
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
@@ -4249,7 +4484,7 @@
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4262,7 +4497,7 @@
     <row r="4" spans="1:7" s="5" customFormat="1" ht="30.95" customHeight="1">
       <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="4"/>
@@ -4322,14 +4557,14 @@
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="10">
         <v>43276</v>
@@ -4340,11 +4575,11 @@
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="10">
         <v>43276</v>
@@ -4355,11 +4590,11 @@
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="10">
         <v>43278</v>
@@ -4370,11 +4605,11 @@
     <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E5" s="10">
         <v>43272</v>
@@ -4385,11 +4620,11 @@
     <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="10">
         <v>43277</v>
@@ -4399,14 +4634,14 @@
     </row>
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="10">
         <v>43277</v>
@@ -4417,11 +4652,11 @@
     <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="10">
         <v>43277</v>
@@ -4432,11 +4667,11 @@
     <row r="9" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="10">
         <v>43278</v>
@@ -4447,11 +4682,11 @@
     <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="10">
         <v>43278</v>
@@ -4462,11 +4697,11 @@
     <row r="11" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="10">
         <v>43278</v>
@@ -4476,14 +4711,14 @@
     </row>
     <row r="12" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E12" s="10">
         <v>43273</v>
@@ -4530,11 +4765,11 @@
     <row r="13" spans="1:7 16349:16384" s="5" customFormat="1" ht="42.95" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E13" s="10">
         <v>43273</v>
@@ -4580,14 +4815,14 @@
     </row>
     <row r="14" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E14" s="10">
         <v>43274</v>
@@ -4634,11 +4869,11 @@
     <row r="15" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E15" s="10">
         <v>43274</v>
@@ -4685,11 +4920,11 @@
     <row r="16" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E16" s="10">
         <v>43274</v>
@@ -4736,11 +4971,11 @@
     <row r="17" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E17" s="10">
         <v>43274</v>
@@ -4787,11 +5022,11 @@
     <row r="18" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E18" s="10">
         <v>43276</v>
@@ -4838,11 +5073,11 @@
     <row r="19" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E19" s="10">
         <v>43276</v>
@@ -4889,11 +5124,11 @@
     <row r="20" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A20" s="17"/>
       <c r="B20" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E20" s="10">
         <v>43277</v>
@@ -4940,11 +5175,11 @@
     <row r="21" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A21" s="17"/>
       <c r="B21" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E21" s="10">
         <v>43277</v>
@@ -4990,14 +5225,14 @@
     </row>
     <row r="22" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A22" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="10">
         <v>43279</v>
@@ -5044,11 +5279,11 @@
     <row r="23" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="10">
         <v>43279</v>
@@ -5095,11 +5330,11 @@
     <row r="24" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="10">
         <v>43280</v>
@@ -5146,11 +5381,11 @@
     <row r="25" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A25" s="15"/>
       <c r="B25" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="10">
         <v>43280</v>
@@ -5197,11 +5432,11 @@
     <row r="26" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A26" s="15"/>
       <c r="B26" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="10">
         <v>43280</v>
@@ -5248,11 +5483,11 @@
     <row r="27" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A27" s="15"/>
       <c r="B27" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="10">
         <v>43281</v>
@@ -5299,11 +5534,11 @@
     <row r="28" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A28" s="15"/>
       <c r="B28" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="10">
         <v>43281</v>
@@ -5349,14 +5584,14 @@
     </row>
     <row r="29" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A29" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E29" s="10">
         <v>43278</v>
@@ -5403,11 +5638,11 @@
     <row r="30" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A30" s="15"/>
       <c r="B30" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E30" s="10">
         <v>43278</v>
@@ -5454,11 +5689,11 @@
     <row r="31" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A31" s="15"/>
       <c r="B31" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E31" s="10">
         <v>43278</v>
@@ -5505,11 +5740,11 @@
     <row r="32" spans="1:7 16349:16384" ht="23.25" customHeight="1">
       <c r="A32" s="15"/>
       <c r="B32" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E32" s="10">
         <v>43278</v>
@@ -5520,11 +5755,11 @@
     <row r="33" spans="1:7" ht="23.25" customHeight="1">
       <c r="A33" s="15"/>
       <c r="B33" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E33" s="10">
         <v>43279</v>
@@ -5535,11 +5770,11 @@
     <row r="34" spans="1:7" ht="23.25" customHeight="1">
       <c r="A34" s="15"/>
       <c r="B34" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E34" s="10">
         <v>43279</v>
@@ -5550,11 +5785,11 @@
     <row r="35" spans="1:7" ht="23.25" customHeight="1">
       <c r="A35" s="15"/>
       <c r="B35" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E35" s="10">
         <v>43279</v>
@@ -5565,11 +5800,11 @@
     <row r="36" spans="1:7" ht="23.25" customHeight="1">
       <c r="A36" s="15"/>
       <c r="B36" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E36" s="10">
         <v>43279</v>
@@ -5580,11 +5815,11 @@
     <row r="37" spans="1:7" ht="23.25" customHeight="1">
       <c r="A37" s="15"/>
       <c r="B37" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E37" s="10">
         <v>43279</v>
@@ -5595,11 +5830,11 @@
     <row r="38" spans="1:7" ht="23.25" customHeight="1">
       <c r="A38" s="15"/>
       <c r="B38" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E38" s="10">
         <v>43280</v>
@@ -5610,11 +5845,11 @@
     <row r="39" spans="1:7" ht="23.25" customHeight="1">
       <c r="A39" s="15"/>
       <c r="B39" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E39" s="10">
         <v>43280</v>
@@ -5625,11 +5860,11 @@
     <row r="40" spans="1:7" ht="23.25" customHeight="1">
       <c r="A40" s="15"/>
       <c r="B40" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E40" s="10">
         <v>43280</v>
@@ -5640,11 +5875,11 @@
     <row r="41" spans="1:7" ht="23.25" customHeight="1">
       <c r="A41" s="15"/>
       <c r="B41" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E41" s="10">
         <v>43281</v>

--- a/DOC/DMS开发计划-6.5.xlsx
+++ b/DOC/DMS开发计划-6.5.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="255">
   <si>
     <t>功能模块</t>
   </si>
@@ -821,6 +821,56 @@
     <t>rpb_package
 rpb_package_item
 rpb_packae_part</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_member
+com_member_group
+com_member_level</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_member
+com_member_group</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_member</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_business_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_guest_type
+rpb_guest_type_discount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁</t>
+  </si>
+  <si>
+    <t>梁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查车单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗、杨</t>
+  </si>
+  <si>
+    <t>罗、杨</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -880,7 +930,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -902,6 +952,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,9 +1034,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1042,21 +1107,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1070,6 +1120,57 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1373,70 +1474,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD50"/>
+  <dimension ref="A1:XFD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="7" customWidth="1"/>
-    <col min="5" max="7" width="12.625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="5" customWidth="1"/>
-    <col min="10" max="16349" width="9" style="5"/>
+    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="8" customWidth="1"/>
+    <col min="5" max="7" width="12.625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="6" customWidth="1"/>
+    <col min="10" max="16349" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8 16350:16384" s="5" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8 16350:16384" s="6" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
       <c r="XDV2"/>
       <c r="XDW2"/>
       <c r="XDX2"/>
@@ -1473,19 +1574,19 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" spans="1:8 16350:16384" s="5" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:8 16350:16384" s="6" customFormat="1" ht="30.95" customHeight="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="XDV3"/>
       <c r="XDW3"/>
       <c r="XDX3"/>
@@ -1522,19 +1623,19 @@
       <c r="XFC3"/>
       <c r="XFD3"/>
     </row>
-    <row r="4" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="31"/>
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="XDV4"/>
       <c r="XDW4"/>
       <c r="XDX4"/>
@@ -1571,23 +1672,25 @@
       <c r="XFC4"/>
       <c r="XFD4"/>
     </row>
-    <row r="5" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:8 16350:16384" s="6" customFormat="1" ht="36" customHeight="1">
+      <c r="A5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="D5" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="XDV5"/>
       <c r="XDW5"/>
       <c r="XDX5"/>
@@ -1624,17 +1727,21 @@
       <c r="XFC5"/>
       <c r="XFD5"/>
     </row>
-    <row r="6" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
       <c r="XDV6"/>
       <c r="XDW6"/>
       <c r="XDX6"/>
@@ -1671,21 +1778,21 @@
       <c r="XFC6"/>
       <c r="XFD6"/>
     </row>
-    <row r="7" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
       <c r="XDV7"/>
       <c r="XDW7"/>
       <c r="XDX7"/>
@@ -1722,19 +1829,19 @@
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
-    <row r="8" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="31"/>
+      <c r="B8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="XDV8"/>
       <c r="XDW8"/>
       <c r="XDX8"/>
@@ -1771,19 +1878,19 @@
       <c r="XFC8"/>
       <c r="XFD8"/>
     </row>
-    <row r="9" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="XDV9"/>
       <c r="XDW9"/>
       <c r="XDX9"/>
@@ -1820,642 +1927,700 @@
       <c r="XFC9"/>
       <c r="XFD9"/>
     </row>
-    <row r="10" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="35"/>
+      <c r="B11" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A12" s="35"/>
+      <c r="B12" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A13" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A14" s="37"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A15" s="37"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A16" s="37"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A17" s="37"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A18" s="37"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A19" s="37"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A20" s="37"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A21" s="37"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A22" s="37"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A23" s="37"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A24" s="37"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A25" s="37"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A26" s="37"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A27" s="37"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A28" s="37"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A29" s="37"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A30" s="37"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A31" s="37"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A32" s="37"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A34" s="37"/>
+      <c r="B34" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A38" s="37"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A39" s="37"/>
+      <c r="B39" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" s="6" customFormat="1" ht="42" customHeight="1">
+      <c r="A40" s="37"/>
+      <c r="B40" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" ht="24.95" customHeight="1">
+      <c r="A41" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" s="11">
+        <v>43257</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="24.95" customHeight="1">
+      <c r="A42" s="43"/>
+      <c r="B42" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F42" s="11">
+        <v>43257</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A43" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F43" s="11">
+        <v>43259</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A44" s="43"/>
+      <c r="B44" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F44" s="11">
+        <v>43259</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A45" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A46" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A47" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" s="6" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A48" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A41" s="26"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A42" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="10">
-        <v>43257</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="10">
-        <v>43257</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="10">
-        <v>43259</v>
-      </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="10">
-        <v>43259</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A46" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A47" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A48" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8 16350:16384" s="5" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A49" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="XDV50"/>
-      <c r="XDW50"/>
-      <c r="XDX50"/>
-      <c r="XDY50"/>
-      <c r="XDZ50"/>
-      <c r="XEA50"/>
-      <c r="XEB50"/>
-      <c r="XEC50"/>
-      <c r="XED50"/>
-      <c r="XEE50"/>
-      <c r="XEF50"/>
-      <c r="XEG50"/>
-      <c r="XEH50"/>
-      <c r="XEI50"/>
-      <c r="XEJ50"/>
-      <c r="XEK50"/>
-      <c r="XEL50"/>
-      <c r="XEM50"/>
-      <c r="XEN50"/>
-      <c r="XEO50"/>
-      <c r="XEP50"/>
-      <c r="XEQ50"/>
-      <c r="XER50"/>
-      <c r="XES50"/>
-      <c r="XET50"/>
-      <c r="XEU50"/>
-      <c r="XEV50"/>
-      <c r="XEW50"/>
-      <c r="XEX50"/>
-      <c r="XEY50"/>
-      <c r="XEZ50"/>
-      <c r="XFA50"/>
-      <c r="XFB50"/>
-      <c r="XFC50"/>
-      <c r="XFD50"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="XDV49"/>
+      <c r="XDW49"/>
+      <c r="XDX49"/>
+      <c r="XDY49"/>
+      <c r="XDZ49"/>
+      <c r="XEA49"/>
+      <c r="XEB49"/>
+      <c r="XEC49"/>
+      <c r="XED49"/>
+      <c r="XEE49"/>
+      <c r="XEF49"/>
+      <c r="XEG49"/>
+      <c r="XEH49"/>
+      <c r="XEI49"/>
+      <c r="XEJ49"/>
+      <c r="XEK49"/>
+      <c r="XEL49"/>
+      <c r="XEM49"/>
+      <c r="XEN49"/>
+      <c r="XEO49"/>
+      <c r="XEP49"/>
+      <c r="XEQ49"/>
+      <c r="XER49"/>
+      <c r="XES49"/>
+      <c r="XET49"/>
+      <c r="XEU49"/>
+      <c r="XEV49"/>
+      <c r="XEW49"/>
+      <c r="XEX49"/>
+      <c r="XEY49"/>
+      <c r="XEZ49"/>
+      <c r="XFA49"/>
+      <c r="XFB49"/>
+      <c r="XFC49"/>
+      <c r="XFD49"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B40:B41"/>
+  <mergeCells count="9">
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="B13:B33"/>
-    <mergeCell ref="A13:A41"/>
+    <mergeCell ref="A13:A40"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A2:A4"/>
@@ -2483,109 +2648,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="38.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="5" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2614,107 +2779,107 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="5"/>
+    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="4" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="10">
+      <c r="D3" s="5"/>
+      <c r="E3" s="11">
         <v>43271</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="53.1" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="4" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="53.1" customHeight="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="10">
+      <c r="D4" s="5"/>
+      <c r="E4" s="11">
         <v>43272</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="10">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="11">
         <v>43272</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="13" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2736,522 +2901,522 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="5"/>
+    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="10">
+      <c r="D2" s="5"/>
+      <c r="E2" s="11">
         <v>43271</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="10">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="11">
         <v>43271</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="4" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="10">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="11">
         <v>43272</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="10">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="11">
         <v>43272</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="4" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="10">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="11">
         <v>43273</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="4" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="10">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="11">
         <v>43273</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="4" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="10">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="11">
         <v>43274</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="4" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="10">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="11">
         <v>43274</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="4" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="11">
         <v>43278</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="4" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="10">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="11">
         <v>43278</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="4" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="10">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="11">
         <v>43276</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="4" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="10">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="11">
         <v>43276</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="4" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="10">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="11">
         <v>43277</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="16" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A15" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="10">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="11">
         <v>43278</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="4" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="10">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="11">
         <v>43278</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="4" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="10">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="11">
         <v>43278</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="16" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A18" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="10">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="11">
         <v>43279</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="4" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="10">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="11">
         <v>43279</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="4" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="10">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="11">
         <v>43279</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="4" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="10">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="11">
         <v>43279</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="16" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A22" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="10">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="11">
         <v>43280</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="4" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="10">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="11">
         <v>43280</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="15" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A24" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="10">
+      <c r="D24" s="5"/>
+      <c r="E24" s="11">
         <v>43281</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="4" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="10">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="11">
         <v>43281</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="4" t="s">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="10">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="11">
         <v>43281</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="4" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="10">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="11">
         <v>43281</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="4" t="s">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="10">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="11">
         <v>43282</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="4" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="10">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="11">
         <v>43282</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="4" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="10">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="11">
         <v>43282</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="4" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="10">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="11">
         <v>43282</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="4" t="s">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A32" s="16"/>
+      <c r="B32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="10">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="11">
         <v>43282</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="10">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="11">
         <v>43282</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="10">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="11">
         <v>43282</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="3"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="10">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="11">
         <v>43282</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="3"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="10">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="11">
         <v>43283</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="10">
+      <c r="D37" s="5"/>
+      <c r="E37" s="11">
         <v>43283</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="3"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3277,83 +3442,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="5"/>
+    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>43283</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>43283</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="4" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>43283</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3374,221 +3539,221 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="5"/>
+    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>43279</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>43279</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>43286</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>43287</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>43284</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>43284</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>43284</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>43284</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>43284</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="11">
         <v>43284</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="11">
         <v>43284</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3609,122 +3774,122 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="5"/>
+    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7 16349:16384" s="5" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7 16349:16384" s="6" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="10">
+      <c r="C2" s="10"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="11">
         <v>43271</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="10">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="11">
         <v>43271</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="38.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="4" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7 16349:16384" s="6" customFormat="1" ht="38.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="10">
+      <c r="D4" s="5"/>
+      <c r="E4" s="11">
         <v>43271</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="10">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="11">
         <v>43272</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="33.950000000000003" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7 16349:16384" s="6" customFormat="1" ht="33.950000000000003" customHeight="1">
+      <c r="A6" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="10">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="11">
         <v>43273</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
       <c r="XDU7"/>
       <c r="XDV7"/>
       <c r="XDW7"/>
@@ -3762,20 +3927,20 @@
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
-    <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="25.5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:7 16349:16384" s="6" customFormat="1" ht="25.5">
+      <c r="A8" s="16"/>
+      <c r="B8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="10">
+      <c r="D8" s="5"/>
+      <c r="E8" s="11">
         <v>43274</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
       <c r="XDU8"/>
       <c r="XDV8"/>
       <c r="XDW8"/>
@@ -3813,22 +3978,22 @@
       <c r="XFC8"/>
       <c r="XFD8"/>
     </row>
-    <row r="9" spans="1:7 16349:16384" s="5" customFormat="1" ht="62.1" customHeight="1">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:7 16349:16384" s="6" customFormat="1" ht="62.1" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="10">
+      <c r="D9" s="5"/>
+      <c r="E9" s="11">
         <v>43275</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
       <c r="XDU9"/>
       <c r="XDV9"/>
       <c r="XDW9"/>
@@ -3866,16 +4031,16 @@
       <c r="XFC9"/>
       <c r="XFD9"/>
     </row>
-    <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="12"/>
       <c r="XDU10"/>
       <c r="XDV10"/>
       <c r="XDW10"/>
@@ -3933,107 +4098,107 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="5"/>
+    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7 16349:16384" s="5" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7 16349:16384" s="6" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="10">
+      <c r="C2" s="10"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="11">
         <v>43270</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="10">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="11">
         <v>43271</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="10">
+      <c r="C4" s="10"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="11">
         <v>43273</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="10">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="11">
         <v>43274</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A6" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="10">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="11">
         <v>43275</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
       <c r="XDU6"/>
       <c r="XDV6"/>
       <c r="XDW6"/>
@@ -4071,18 +4236,18 @@
       <c r="XFC6"/>
       <c r="XFD6"/>
     </row>
-    <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="10">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="11">
         <v>43276</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
       <c r="XDU7"/>
       <c r="XDV7"/>
       <c r="XDW7"/>
@@ -4120,20 +4285,20 @@
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
-    <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="10">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="11">
         <v>43277</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
       <c r="XDU8"/>
       <c r="XDV8"/>
       <c r="XDW8"/>
@@ -4171,20 +4336,20 @@
       <c r="XFC8"/>
       <c r="XFD8"/>
     </row>
-    <row r="9" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="10">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="11">
         <v>43277</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
       <c r="XDU9"/>
       <c r="XDV9"/>
       <c r="XDW9"/>
@@ -4222,20 +4387,20 @@
       <c r="XFC9"/>
       <c r="XFD9"/>
     </row>
-    <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="11">
         <v>43278</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
       <c r="XDU10"/>
       <c r="XDV10"/>
       <c r="XDW10"/>
@@ -4273,18 +4438,18 @@
       <c r="XFC10"/>
       <c r="XFD10"/>
     </row>
-    <row r="11" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="10">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="11">
         <v>43278</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
       <c r="XDU11"/>
       <c r="XDV11"/>
       <c r="XDW11"/>
@@ -4322,18 +4487,18 @@
       <c r="XFC11"/>
       <c r="XFD11"/>
     </row>
-    <row r="12" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="10">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="11">
         <v>43279</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
       <c r="XDU12"/>
       <c r="XDV12"/>
       <c r="XDW12"/>
@@ -4372,45 +4537,45 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="10">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="11">
         <v>43280</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="10">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="11">
         <v>43280</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="10">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="11">
         <v>43281</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4435,77 +4600,77 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="5"/>
+    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="10">
+      <c r="C2" s="10"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="11">
         <v>43277</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="10">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="11">
         <v>43277</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="4" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="30.95" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="10">
+      <c r="C4" s="10"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="11">
         <v>43277</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4524,207 +4689,207 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="5"/>
+    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7 16349:16384" s="5" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7 16349:16384" s="6" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>43276</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>43276</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="4" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>43278</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>43272</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="4" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>43277</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>43277</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="4" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>43277</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="4" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>43278</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="4" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>43278</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="4" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="11">
         <v>43278</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A12" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="11">
         <v>43273</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
       <c r="XDU12"/>
       <c r="XDV12"/>
       <c r="XDW12"/>
@@ -4762,20 +4927,20 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:7 16349:16384" s="5" customFormat="1" ht="42.95" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:7 16349:16384" s="6" customFormat="1" ht="42.95" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="11">
         <v>43273</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
       <c r="XDU13"/>
       <c r="XDV13"/>
       <c r="XDW13"/>
@@ -4813,22 +4978,22 @@
       <c r="XFC13"/>
       <c r="XFD13"/>
     </row>
-    <row r="14" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A14" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="11">
         <v>43274</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
       <c r="XDU14"/>
       <c r="XDV14"/>
       <c r="XDW14"/>
@@ -4866,20 +5031,20 @@
       <c r="XFC14"/>
       <c r="XFD14"/>
     </row>
-    <row r="15" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="11">
         <v>43274</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
       <c r="XDU15"/>
       <c r="XDV15"/>
       <c r="XDW15"/>
@@ -4917,20 +5082,20 @@
       <c r="XFC15"/>
       <c r="XFD15"/>
     </row>
-    <row r="16" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <v>43274</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
       <c r="XDU16"/>
       <c r="XDV16"/>
       <c r="XDW16"/>
@@ -4968,20 +5133,20 @@
       <c r="XFC16"/>
       <c r="XFD16"/>
     </row>
-    <row r="17" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="11">
         <v>43274</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
       <c r="XDU17"/>
       <c r="XDV17"/>
       <c r="XDW17"/>
@@ -5019,20 +5184,20 @@
       <c r="XFC17"/>
       <c r="XFD17"/>
     </row>
-    <row r="18" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="11">
         <v>43276</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
       <c r="XDU18"/>
       <c r="XDV18"/>
       <c r="XDW18"/>
@@ -5070,20 +5235,20 @@
       <c r="XFC18"/>
       <c r="XFD18"/>
     </row>
-    <row r="19" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="11">
         <v>43276</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
       <c r="XDU19"/>
       <c r="XDV19"/>
       <c r="XDW19"/>
@@ -5121,20 +5286,20 @@
       <c r="XFC19"/>
       <c r="XFD19"/>
     </row>
-    <row r="20" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="7" t="s">
+    <row r="20" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="11">
         <v>43277</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
       <c r="XDU20"/>
       <c r="XDV20"/>
       <c r="XDW20"/>
@@ -5172,20 +5337,20 @@
       <c r="XFC20"/>
       <c r="XFD20"/>
     </row>
-    <row r="21" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="11">
         <v>43277</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
       <c r="XDU21"/>
       <c r="XDV21"/>
       <c r="XDW21"/>
@@ -5223,22 +5388,22 @@
       <c r="XFC21"/>
       <c r="XFD21"/>
     </row>
-    <row r="22" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A22" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="11">
         <v>43279</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
       <c r="XDU22"/>
       <c r="XDV22"/>
       <c r="XDW22"/>
@@ -5276,20 +5441,20 @@
       <c r="XFC22"/>
       <c r="XFD22"/>
     </row>
-    <row r="23" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A23" s="16"/>
+      <c r="B23" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="11">
         <v>43279</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
       <c r="XDU23"/>
       <c r="XDV23"/>
       <c r="XDW23"/>
@@ -5327,20 +5492,20 @@
       <c r="XFC23"/>
       <c r="XFD23"/>
     </row>
-    <row r="24" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="11">
         <v>43280</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
       <c r="XDU24"/>
       <c r="XDV24"/>
       <c r="XDW24"/>
@@ -5378,20 +5543,20 @@
       <c r="XFC24"/>
       <c r="XFD24"/>
     </row>
-    <row r="25" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="11">
         <v>43280</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
       <c r="XDU25"/>
       <c r="XDV25"/>
       <c r="XDW25"/>
@@ -5429,20 +5594,20 @@
       <c r="XFC25"/>
       <c r="XFD25"/>
     </row>
-    <row r="26" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="11">
         <v>43280</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
       <c r="XDU26"/>
       <c r="XDV26"/>
       <c r="XDW26"/>
@@ -5480,20 +5645,20 @@
       <c r="XFC26"/>
       <c r="XFD26"/>
     </row>
-    <row r="27" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="11">
         <v>43281</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
       <c r="XDU27"/>
       <c r="XDV27"/>
       <c r="XDW27"/>
@@ -5531,20 +5696,20 @@
       <c r="XFC27"/>
       <c r="XFD27"/>
     </row>
-    <row r="28" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="11">
         <v>43281</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
       <c r="XDU28"/>
       <c r="XDV28"/>
       <c r="XDW28"/>
@@ -5582,22 +5747,22 @@
       <c r="XFC28"/>
       <c r="XFD28"/>
     </row>
-    <row r="29" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A29" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="11">
         <v>43278</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
       <c r="XDU29"/>
       <c r="XDV29"/>
       <c r="XDW29"/>
@@ -5635,20 +5800,20 @@
       <c r="XFC29"/>
       <c r="XFD29"/>
     </row>
-    <row r="30" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="11">
         <v>43278</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="4"/>
       <c r="XDU30"/>
       <c r="XDV30"/>
       <c r="XDW30"/>
@@ -5686,20 +5851,20 @@
       <c r="XFC30"/>
       <c r="XFD30"/>
     </row>
-    <row r="31" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="11">
         <v>43278</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="4"/>
       <c r="XDU31"/>
       <c r="XDV31"/>
       <c r="XDW31"/>
@@ -5738,154 +5903,154 @@
       <c r="XFD31"/>
     </row>
     <row r="32" spans="1:7 16349:16384" ht="23.25" customHeight="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="11">
         <v>43278</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="11">
         <v>43279</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="11">
         <v>43279</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="3"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="11">
         <v>43279</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="3"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="11">
         <v>43279</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="11">
         <v>43279</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="3"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="11">
         <v>43280</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="3"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="11">
         <v>43280</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="3"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="11">
         <v>43280</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="3"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A41" s="15"/>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="11">
         <v>43281</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="3"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/DOC/DMS开发计划-6.5.xlsx
+++ b/DOC/DMS开发计划-6.5.xlsx
@@ -1477,17 +1477,17 @@
   <dimension ref="A1:XFD49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:H49"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
     <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="24.875" style="8" customWidth="1"/>
     <col min="5" max="7" width="12.625" style="8" customWidth="1"/>
     <col min="8" max="8" width="13.125" style="7" customWidth="1"/>

--- a/DOC/DMS开发计划-6.5.xlsx
+++ b/DOC/DMS开发计划-6.5.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="258">
   <si>
     <t>功能模块</t>
   </si>
@@ -750,10 +750,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>rpb_guest_agent_extend</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>com_dataitems</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -780,15 +776,6 @@
   </si>
   <si>
     <t>com_member_level</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rpb_card_stored</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rpb_card_times
-rpb_card_times_detail</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -871,6 +858,33 @@
   </si>
   <si>
     <t>罗、杨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_guest_agent_extend</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约参数设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_appointment_params
+rpb_appointment_station
+rpb_appointment_times</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_card_times
+rpb_card_times_detail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_card_stored</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -930,7 +944,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -964,6 +978,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,7 +1054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1083,27 +1103,6 @@
     <xf numFmtId="58" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1125,35 +1124,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1164,14 +1136,86 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1474,13 +1518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD49"/>
+  <dimension ref="A1:XFD50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1505,7 +1549,7 @@
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="21" t="s">
         <v>220</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -1522,16 +1566,16 @@
       </c>
     </row>
     <row r="2" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
@@ -1575,7 +1619,7 @@
       <c r="XFD2"/>
     </row>
     <row r="3" spans="1:8 16350:16384" s="6" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A3" s="31"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
@@ -1624,7 +1668,7 @@
       <c r="XFD3"/>
     </row>
     <row r="4" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="31"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
@@ -1673,20 +1717,20 @@
       <c r="XFD4"/>
     </row>
     <row r="5" spans="1:8 16350:16384" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>251</v>
+      <c r="D5" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="5"/>
@@ -1728,16 +1772,16 @@
       <c r="XFD5"/>
     </row>
     <row r="6" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>250</v>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>247</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="5"/>
@@ -1779,15 +1823,15 @@
       <c r="XFD6"/>
     </row>
     <row r="7" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="16" t="s">
         <v>79</v>
       </c>
       <c r="F7" s="11"/>
@@ -1830,13 +1874,13 @@
       <c r="XFD7"/>
     </row>
     <row r="8" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="16" t="s">
         <v>79</v>
       </c>
       <c r="F8" s="11"/>
@@ -1879,13 +1923,13 @@
       <c r="XFD8"/>
     </row>
     <row r="9" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="16" t="s">
         <v>79</v>
       </c>
       <c r="F9" s="11"/>
@@ -1928,17 +1972,17 @@
       <c r="XFD9"/>
     </row>
     <row r="10" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="46" t="s">
         <v>219</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>79</v>
       </c>
       <c r="F10" s="11"/>
@@ -1946,15 +1990,15 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="46" t="s">
         <v>217</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>79</v>
       </c>
       <c r="F11" s="11"/>
@@ -1962,81 +2006,81 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="46" t="s">
         <v>218</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>245</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>248</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="31" t="s">
         <v>183</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>248</v>
+      <c r="E13" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="37"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>248</v>
+      <c r="E14" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="37"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="47" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>248</v>
+      <c r="E15" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="37"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="34"/>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>246</v>
+      <c r="D16" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="11"/>
@@ -2044,13 +2088,13 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="37"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>247</v>
+      <c r="D17" s="16" t="s">
+        <v>244</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="11"/>
@@ -2058,13 +2102,13 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>227</v>
+      <c r="D18" s="17" t="s">
+        <v>226</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="11"/>
@@ -2072,12 +2116,12 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="37"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="16" t="s">
         <v>221</v>
       </c>
       <c r="E19" s="5"/>
@@ -2086,12 +2130,12 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="37"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="16" t="s">
         <v>224</v>
       </c>
       <c r="E20" s="5"/>
@@ -2100,103 +2144,103 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="37"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>248</v>
+      <c r="E21" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="37"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>248</v>
+      <c r="E22" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="37"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="34"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>248</v>
+      <c r="E23" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="37"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="34"/>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="23" t="s">
-        <v>248</v>
+      <c r="D24" s="18"/>
+      <c r="E24" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="37"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="34"/>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="5"/>
       <c r="F25" s="11"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="37"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>249</v>
+      <c r="D26" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="37"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>228</v>
+      <c r="D27" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="11"/>
@@ -2204,189 +2248,189 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="37"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="34"/>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>248</v>
+      <c r="D28" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="37"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>248</v>
+      <c r="D29" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="37"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="34"/>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>248</v>
+      <c r="D30" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="37"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>248</v>
+      <c r="D31" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="37"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="34"/>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>248</v>
+      <c r="E32" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="37"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>248</v>
+      <c r="E33" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="37"/>
-      <c r="B34" s="36" t="s">
+      <c r="A34" s="32"/>
+      <c r="B34" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="E34" s="23" t="s">
-        <v>248</v>
+      <c r="E34" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="27" t="s">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>251</v>
+      <c r="D35" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="27" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>249</v>
+      <c r="D36" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="27" t="s">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>249</v>
+      <c r="D37" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="37"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="27" t="s">
+      <c r="A38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>249</v>
+      <c r="D38" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A39" s="37"/>
-      <c r="B39" s="40" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="14"/>
@@ -2396,56 +2440,52 @@
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" s="6" customFormat="1" ht="42" customHeight="1">
-      <c r="A40" s="37"/>
-      <c r="B40" s="40" t="s">
+      <c r="A40" s="32"/>
+      <c r="B40" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="42" t="s">
-        <v>252</v>
+      <c r="C40" s="26" t="s">
+        <v>249</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>248</v>
+        <v>234</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A41" s="32" t="s">
+    <row r="41" spans="1:8" s="6" customFormat="1" ht="42" customHeight="1">
+      <c r="A41" s="50"/>
+      <c r="B41" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="E41" s="26"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+    </row>
+    <row r="42" spans="1:8" ht="24.95" customHeight="1">
+      <c r="A42" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B42" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="F41" s="11">
-        <v>43257</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A42" s="43"/>
-      <c r="B42" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="5"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>248</v>
+        <v>235</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F42" s="11">
         <v>43257</v>
@@ -2455,22 +2495,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A43" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="5"/>
+    <row r="43" spans="1:8" ht="24.95" customHeight="1">
+      <c r="A43" s="30"/>
+      <c r="B43" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="47"/>
       <c r="D43" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>248</v>
+        <v>235</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F43" s="11">
-        <v>43259</v>
+        <v>43257</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
@@ -2478,14 +2516,18 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="43"/>
-      <c r="B44" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="23" t="s">
-        <v>248</v>
+      <c r="A44" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F44" s="11">
         <v>43259</v>
@@ -2496,135 +2538,153 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="30"/>
+      <c r="B45" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="F45" s="11">
+        <v>43259</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A46" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A46" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>214</v>
-      </c>
+      <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>253</v>
+        <v>236</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>251</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A47" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="B47" s="27" t="s">
+      <c r="A47" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>253</v>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" s="6" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A48" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>253</v>
+    <row r="48" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A48" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A49" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>26</v>
-      </c>
+    <row r="49" spans="1:8 16350:16384" s="6" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A49" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5" t="s">
-        <v>7</v>
+      <c r="D49" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="XDV49"/>
-      <c r="XDW49"/>
-      <c r="XDX49"/>
-      <c r="XDY49"/>
-      <c r="XDZ49"/>
-      <c r="XEA49"/>
-      <c r="XEB49"/>
-      <c r="XEC49"/>
-      <c r="XED49"/>
-      <c r="XEE49"/>
-      <c r="XEF49"/>
-      <c r="XEG49"/>
-      <c r="XEH49"/>
-      <c r="XEI49"/>
-      <c r="XEJ49"/>
-      <c r="XEK49"/>
-      <c r="XEL49"/>
-      <c r="XEM49"/>
-      <c r="XEN49"/>
-      <c r="XEO49"/>
-      <c r="XEP49"/>
-      <c r="XEQ49"/>
-      <c r="XER49"/>
-      <c r="XES49"/>
-      <c r="XET49"/>
-      <c r="XEU49"/>
-      <c r="XEV49"/>
-      <c r="XEW49"/>
-      <c r="XEX49"/>
-      <c r="XEY49"/>
-      <c r="XEZ49"/>
-      <c r="XFA49"/>
-      <c r="XFB49"/>
-      <c r="XFC49"/>
-      <c r="XFD49"/>
+    </row>
+    <row r="50" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="XDV50"/>
+      <c r="XDW50"/>
+      <c r="XDX50"/>
+      <c r="XDY50"/>
+      <c r="XDZ50"/>
+      <c r="XEA50"/>
+      <c r="XEB50"/>
+      <c r="XEC50"/>
+      <c r="XED50"/>
+      <c r="XEE50"/>
+      <c r="XEF50"/>
+      <c r="XEG50"/>
+      <c r="XEH50"/>
+      <c r="XEI50"/>
+      <c r="XEJ50"/>
+      <c r="XEK50"/>
+      <c r="XEL50"/>
+      <c r="XEM50"/>
+      <c r="XEN50"/>
+      <c r="XEO50"/>
+      <c r="XEP50"/>
+      <c r="XEQ50"/>
+      <c r="XER50"/>
+      <c r="XES50"/>
+      <c r="XET50"/>
+      <c r="XEU50"/>
+      <c r="XEV50"/>
+      <c r="XEW50"/>
+      <c r="XEX50"/>
+      <c r="XEY50"/>
+      <c r="XEZ50"/>
+      <c r="XFA50"/>
+      <c r="XFB50"/>
+      <c r="XFC50"/>
+      <c r="XFD50"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B13:B33"/>
-    <mergeCell ref="A13:A40"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B13:B33"/>
+    <mergeCell ref="A13:A40"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2648,7 +2708,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="38" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2657,14 +2717,14 @@
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="19"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="42" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2675,7 +2735,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="1">
-      <c r="A4" s="21"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
@@ -2684,14 +2744,14 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2700,14 +2760,14 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="38.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2715,13 +2775,13 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2729,13 +2789,13 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="41" t="s">
         <v>96</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2743,13 +2803,13 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="5" t="s">
         <v>99</v>
       </c>
@@ -2811,7 +2871,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="38" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2826,7 +2886,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="18"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
@@ -2841,7 +2901,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" ht="53.1" customHeight="1">
-      <c r="A4" s="18"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="5" t="s">
         <v>41</v>
       </c>
@@ -2856,7 +2916,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="18"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="5" t="s">
         <v>43</v>
       </c>
@@ -2869,7 +2929,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="19"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="14" t="s">
         <v>44</v>
       </c>
@@ -2933,7 +2993,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="38" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2950,7 +3010,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A3" s="18"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="5" t="s">
         <v>49</v>
       </c>
@@ -2963,7 +3023,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="18"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="5" t="s">
         <v>50</v>
       </c>
@@ -2976,7 +3036,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="18"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
@@ -2989,7 +3049,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="18"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="5" t="s">
         <v>52</v>
       </c>
@@ -3002,7 +3062,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="18"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="5" t="s">
         <v>53</v>
       </c>
@@ -3015,7 +3075,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="18"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
@@ -3028,7 +3088,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="18"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
@@ -3041,7 +3101,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="18"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="5" t="s">
         <v>56</v>
       </c>
@@ -3054,7 +3114,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="18"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="5" t="s">
         <v>57</v>
       </c>
@@ -3067,7 +3127,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="18"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="5" t="s">
         <v>58</v>
       </c>
@@ -3080,7 +3140,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="18"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="5" t="s">
         <v>59</v>
       </c>
@@ -3093,7 +3153,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="19"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="5" t="s">
         <v>60</v>
       </c>
@@ -3106,7 +3166,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="38" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3121,7 +3181,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="18"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
@@ -3134,7 +3194,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="19"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="5" t="s">
         <v>64</v>
       </c>
@@ -3147,7 +3207,7 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -3162,7 +3222,7 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="18"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="5" t="s">
         <v>67</v>
       </c>
@@ -3175,7 +3235,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="18"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="5" t="s">
         <v>68</v>
       </c>
@@ -3188,7 +3248,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="19"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="5" t="s">
         <v>69</v>
       </c>
@@ -3201,7 +3261,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="38" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3216,7 +3276,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="19"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="5" t="s">
         <v>71</v>
       </c>
@@ -3229,7 +3289,7 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="41" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -3246,7 +3306,7 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A25" s="16"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
@@ -3259,7 +3319,7 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="16"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="5" t="s">
         <v>50</v>
       </c>
@@ -3272,7 +3332,7 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="16"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="5" t="s">
         <v>51</v>
       </c>
@@ -3285,7 +3345,7 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="16"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="5" t="s">
         <v>52</v>
       </c>
@@ -3298,7 +3358,7 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="16"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
@@ -3311,7 +3371,7 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="16"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
@@ -3324,7 +3384,7 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="16"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
@@ -3337,7 +3397,7 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="16"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="5" t="s">
         <v>57</v>
       </c>
@@ -3350,7 +3410,7 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A33" s="16"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="5" t="s">
         <v>58</v>
       </c>
@@ -3363,7 +3423,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A34" s="16"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="5" t="s">
         <v>59</v>
       </c>
@@ -3376,7 +3436,7 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A35" s="16"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="5" t="s">
         <v>60</v>
       </c>
@@ -3389,7 +3449,7 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="41" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3404,7 +3464,7 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A37" s="16"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="5" t="s">
         <v>75</v>
       </c>
@@ -3474,7 +3534,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="41" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3491,7 +3551,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="16"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="5" t="s">
         <v>80</v>
       </c>
@@ -3506,7 +3566,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="5" t="s">
         <v>81</v>
       </c>
@@ -3571,7 +3631,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="41" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3588,7 +3648,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="16"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="5" t="s">
         <v>84</v>
       </c>
@@ -3806,7 +3866,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="41" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3821,7 +3881,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="16"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="5" t="s">
         <v>98</v>
       </c>
@@ -3834,7 +3894,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="6" customFormat="1" ht="38.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="5" t="s">
         <v>99</v>
       </c>
@@ -3877,7 +3937,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="41" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -3928,7 +3988,7 @@
       <c r="XFD7"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="6" customFormat="1" ht="25.5">
-      <c r="A8" s="16"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="5" t="s">
         <v>106</v>
       </c>
@@ -4130,7 +4190,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="41" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4145,7 +4205,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="16"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="5" t="s">
         <v>114</v>
       </c>
@@ -4158,7 +4218,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="41" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -4173,7 +4233,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="5" t="s">
         <v>117</v>
       </c>
@@ -4186,7 +4246,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="41" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -4237,7 +4297,7 @@
       <c r="XFD6"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="5" t="s">
         <v>120</v>
       </c>
@@ -4388,7 +4448,7 @@
       <c r="XFD9"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="41" t="s">
         <v>123</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -4439,7 +4499,7 @@
       <c r="XFD10"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="5" t="s">
         <v>125</v>
       </c>
@@ -4488,7 +4548,7 @@
       <c r="XFD11"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="16"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="5" t="s">
         <v>126</v>
       </c>
@@ -4537,7 +4597,7 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="41" t="s">
         <v>127</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -4552,7 +4612,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A14" s="16"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="5" t="s">
         <v>129</v>
       </c>
@@ -4565,7 +4625,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A15" s="16"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="5" t="s">
         <v>130</v>
       </c>
@@ -4632,7 +4692,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="38" t="s">
         <v>131</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4647,7 +4707,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="18"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="5" t="s">
         <v>132</v>
       </c>
@@ -4660,7 +4720,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="5" t="s">
         <v>133</v>
       </c>
@@ -4721,7 +4781,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="41" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4738,7 +4798,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="16"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="5" t="s">
         <v>136</v>
       </c>
@@ -4753,7 +4813,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="5" t="s">
         <v>137</v>
       </c>
@@ -4768,7 +4828,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="5" t="s">
         <v>138</v>
       </c>
@@ -4783,7 +4843,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="16"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="5" t="s">
         <v>139</v>
       </c>
@@ -4798,7 +4858,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="41" t="s">
         <v>140</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -4815,7 +4875,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="5" t="s">
         <v>142</v>
       </c>
@@ -4830,7 +4890,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="16"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="5" t="s">
         <v>143</v>
       </c>
@@ -4845,7 +4905,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="16"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="5" t="s">
         <v>144</v>
       </c>
@@ -4860,7 +4920,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="5" t="s">
         <v>145</v>
       </c>
@@ -4875,7 +4935,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="41" t="s">
         <v>146</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -4928,7 +4988,7 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" s="6" customFormat="1" ht="42.95" customHeight="1">
-      <c r="A13" s="16"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="5" t="s">
         <v>148</v>
       </c>
@@ -4979,7 +5039,7 @@
       <c r="XFD13"/>
     </row>
     <row r="14" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="38" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -5032,7 +5092,7 @@
       <c r="XFD14"/>
     </row>
     <row r="15" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="18"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="5" t="s">
         <v>151</v>
       </c>
@@ -5083,7 +5143,7 @@
       <c r="XFD15"/>
     </row>
     <row r="16" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="18"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="5" t="s">
         <v>152</v>
       </c>
@@ -5134,7 +5194,7 @@
       <c r="XFD16"/>
     </row>
     <row r="17" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="18"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="5" t="s">
         <v>153</v>
       </c>
@@ -5185,7 +5245,7 @@
       <c r="XFD17"/>
     </row>
     <row r="18" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="18"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="5" t="s">
         <v>154</v>
       </c>
@@ -5236,7 +5296,7 @@
       <c r="XFD18"/>
     </row>
     <row r="19" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="18"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="5" t="s">
         <v>155</v>
       </c>
@@ -5287,7 +5347,7 @@
       <c r="XFD19"/>
     </row>
     <row r="20" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="18"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="8" t="s">
         <v>156</v>
       </c>
@@ -5338,7 +5398,7 @@
       <c r="XFD20"/>
     </row>
     <row r="21" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="18"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="8" t="s">
         <v>157</v>
       </c>
@@ -5389,7 +5449,7 @@
       <c r="XFD21"/>
     </row>
     <row r="22" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="41" t="s">
         <v>158</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -5442,7 +5502,7 @@
       <c r="XFD22"/>
     </row>
     <row r="23" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="16"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="5" t="s">
         <v>160</v>
       </c>
@@ -5493,7 +5553,7 @@
       <c r="XFD23"/>
     </row>
     <row r="24" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="16"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="5" t="s">
         <v>161</v>
       </c>
@@ -5544,7 +5604,7 @@
       <c r="XFD24"/>
     </row>
     <row r="25" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="16"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="5" t="s">
         <v>162</v>
       </c>
@@ -5595,7 +5655,7 @@
       <c r="XFD25"/>
     </row>
     <row r="26" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="16"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="5" t="s">
         <v>163</v>
       </c>
@@ -5646,7 +5706,7 @@
       <c r="XFD26"/>
     </row>
     <row r="27" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="16"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="5" t="s">
         <v>164</v>
       </c>
@@ -5697,7 +5757,7 @@
       <c r="XFD27"/>
     </row>
     <row r="28" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="16"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="5" t="s">
         <v>165</v>
       </c>
@@ -5748,7 +5808,7 @@
       <c r="XFD28"/>
     </row>
     <row r="29" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="41" t="s">
         <v>166</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -5801,7 +5861,7 @@
       <c r="XFD29"/>
     </row>
     <row r="30" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="16"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="5" t="s">
         <v>168</v>
       </c>
@@ -5852,7 +5912,7 @@
       <c r="XFD30"/>
     </row>
     <row r="31" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="16"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="5" t="s">
         <v>169</v>
       </c>
@@ -5903,7 +5963,7 @@
       <c r="XFD31"/>
     </row>
     <row r="32" spans="1:7 16349:16384" ht="23.25" customHeight="1">
-      <c r="A32" s="16"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="5" t="s">
         <v>170</v>
       </c>
@@ -5918,7 +5978,7 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A33" s="16"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="5" t="s">
         <v>171</v>
       </c>
@@ -5933,7 +5993,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A34" s="16"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="5" t="s">
         <v>172</v>
       </c>
@@ -5948,7 +6008,7 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A35" s="16"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="5" t="s">
         <v>173</v>
       </c>
@@ -5963,7 +6023,7 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A36" s="16"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="5" t="s">
         <v>174</v>
       </c>
@@ -5978,7 +6038,7 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A37" s="16"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="5" t="s">
         <v>175</v>
       </c>
@@ -5993,7 +6053,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A38" s="16"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="5" t="s">
         <v>176</v>
       </c>
@@ -6008,7 +6068,7 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A39" s="16"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="5" t="s">
         <v>177</v>
       </c>
@@ -6023,7 +6083,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A40" s="16"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="5" t="s">
         <v>178</v>
       </c>
@@ -6038,7 +6098,7 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A41" s="16"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="5" t="s">
         <v>179</v>
       </c>

--- a/DOC/DMS开发计划-6.5.xlsx
+++ b/DOC/DMS开发计划-6.5.xlsx
@@ -1054,7 +1054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1142,54 +1142,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1216,6 +1168,60 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1521,10 +1527,10 @@
   <dimension ref="A1:XFD50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1566,7 +1572,7 @@
       </c>
     </row>
     <row r="2" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -1619,7 +1625,7 @@
       <c r="XFD2"/>
     </row>
     <row r="3" spans="1:8 16350:16384" s="6" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
@@ -1668,7 +1674,7 @@
       <c r="XFD3"/>
     </row>
     <row r="4" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="36"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
@@ -1717,7 +1723,7 @@
       <c r="XFD4"/>
     </row>
     <row r="5" spans="1:8 16350:16384" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -1772,7 +1778,7 @@
       <c r="XFD5"/>
     </row>
     <row r="6" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="37"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="20" t="s">
         <v>181</v>
       </c>
@@ -1823,7 +1829,7 @@
       <c r="XFD6"/>
     </row>
     <row r="7" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="38" t="s">
         <v>180</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -1874,7 +1880,7 @@
       <c r="XFD7"/>
     </row>
     <row r="8" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="22" t="s">
         <v>19</v>
       </c>
@@ -1923,7 +1929,7 @@
       <c r="XFD8"/>
     </row>
     <row r="9" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="36"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="22" t="s">
         <v>20</v>
       </c>
@@ -1972,10 +1978,10 @@
       <c r="XFD9"/>
     </row>
     <row r="10" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="30" t="s">
         <v>219</v>
       </c>
       <c r="C10" s="5"/>
@@ -1990,8 +1996,8 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="30" t="s">
         <v>217</v>
       </c>
       <c r="C11" s="5"/>
@@ -2006,8 +2012,8 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="30" t="s">
         <v>218</v>
       </c>
       <c r="C12" s="5"/>
@@ -2022,13 +2028,13 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="29" t="s">
         <v>185</v>
       </c>
       <c r="D13" s="16" t="s">
@@ -2042,9 +2048,9 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="47" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2058,9 +2064,9 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="47" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -2074,8 +2080,8 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="20" t="s">
         <v>186</v>
       </c>
@@ -2088,8 +2094,8 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="20" t="s">
         <v>187</v>
       </c>
@@ -2102,8 +2108,8 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="32"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="20" t="s">
         <v>188</v>
       </c>
@@ -2116,8 +2122,8 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="20" t="s">
         <v>189</v>
       </c>
@@ -2130,8 +2136,8 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="26" t="s">
         <v>190</v>
       </c>
@@ -2144,8 +2150,8 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="20" t="s">
         <v>204</v>
       </c>
@@ -2160,8 +2166,8 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="20" t="s">
         <v>205</v>
       </c>
@@ -2176,8 +2182,8 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="34"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="20" t="s">
         <v>206</v>
       </c>
@@ -2192,8 +2198,8 @@
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="23" t="s">
         <v>207</v>
       </c>
@@ -2206,8 +2212,8 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="34"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="23" t="s">
         <v>208</v>
       </c>
@@ -2218,8 +2224,8 @@
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="25" t="s">
         <v>209</v>
       </c>
@@ -2234,8 +2240,8 @@
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="23" t="s">
         <v>210</v>
       </c>
@@ -2248,9 +2254,9 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="48" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="32" t="s">
         <v>211</v>
       </c>
       <c r="D28" s="18" t="s">
@@ -2264,9 +2270,9 @@
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="48" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="32" t="s">
         <v>212</v>
       </c>
       <c r="D29" s="18" t="s">
@@ -2280,9 +2286,9 @@
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="48" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="32" t="s">
         <v>213</v>
       </c>
       <c r="D30" s="18" t="s">
@@ -2296,9 +2302,9 @@
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="48" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="32" t="s">
         <v>215</v>
       </c>
       <c r="D31" s="18" t="s">
@@ -2312,9 +2318,9 @@
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="32"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="46" t="s">
+      <c r="A32" s="44"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="30" t="s">
         <v>191</v>
       </c>
       <c r="D32" s="16" t="s">
@@ -2328,9 +2334,9 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="46" t="s">
+      <c r="A33" s="44"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="30" t="s">
         <v>192</v>
       </c>
       <c r="D33" s="16" t="s">
@@ -2344,11 +2350,11 @@
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="31" t="s">
+      <c r="A34" s="44"/>
+      <c r="B34" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="30" t="s">
         <v>194</v>
       </c>
       <c r="D34" s="16" t="s">
@@ -2362,8 +2368,8 @@
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="20" t="s">
         <v>195</v>
       </c>
@@ -2378,8 +2384,8 @@
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="20" t="s">
         <v>196</v>
       </c>
@@ -2394,8 +2400,8 @@
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="20" t="s">
         <v>197</v>
       </c>
@@ -2410,8 +2416,8 @@
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="20" t="s">
         <v>198</v>
       </c>
@@ -2426,7 +2432,7 @@
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A39" s="32"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="24" t="s">
         <v>11</v>
       </c>
@@ -2440,7 +2446,7 @@
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" s="6" customFormat="1" ht="42" customHeight="1">
-      <c r="A40" s="32"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="24" t="s">
         <v>12</v>
       </c>
@@ -2458,30 +2464,30 @@
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="42" customHeight="1">
-      <c r="A41" s="50"/>
-      <c r="B41" s="49" t="s">
+      <c r="A41" s="34"/>
+      <c r="B41" s="33" t="s">
         <v>253</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="35" t="s">
         <v>255</v>
       </c>
       <c r="E41" s="26"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
     </row>
     <row r="42" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="5" t="s">
+      <c r="C42" s="22"/>
+      <c r="D42" s="22" t="s">
         <v>235</v>
       </c>
       <c r="E42" s="16" t="s">
@@ -2496,12 +2502,12 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A43" s="30"/>
-      <c r="B43" s="19" t="s">
+      <c r="A43" s="55"/>
+      <c r="B43" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="22"/>
+      <c r="D43" s="22" t="s">
         <v>235</v>
       </c>
       <c r="E43" s="16" t="s">
@@ -2516,13 +2522,13 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="40" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="47"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="5" t="s">
         <v>236</v>
       </c>
@@ -2538,11 +2544,11 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A45" s="30"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="47"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="5"/>
       <c r="E45" s="16" t="s">
         <v>245</v>
@@ -2676,15 +2682,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B13:B33"/>
+    <mergeCell ref="A13:A40"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B13:B33"/>
-    <mergeCell ref="A13:A40"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2708,7 +2714,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="47" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2717,14 +2723,14 @@
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="40"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="51" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2735,7 +2741,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="1">
-      <c r="A4" s="43"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
@@ -2744,14 +2750,14 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="51" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2760,14 +2766,14 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="38.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2775,13 +2781,13 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="41"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="51" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2789,13 +2795,13 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="44"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="50" t="s">
         <v>96</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2803,13 +2809,13 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="41"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="41"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="5" t="s">
         <v>99</v>
       </c>
@@ -2871,7 +2877,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="47" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2886,7 +2892,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
@@ -2901,7 +2907,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" ht="53.1" customHeight="1">
-      <c r="A4" s="39"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="5" t="s">
         <v>41</v>
       </c>
@@ -2916,7 +2922,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="39"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5" t="s">
         <v>43</v>
       </c>
@@ -2929,7 +2935,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="40"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="14" t="s">
         <v>44</v>
       </c>
@@ -2993,7 +2999,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3010,7 +3016,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="5" t="s">
         <v>49</v>
       </c>
@@ -3023,7 +3029,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="39"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="5" t="s">
         <v>50</v>
       </c>
@@ -3036,7 +3042,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="39"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
@@ -3049,7 +3055,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="39"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5" t="s">
         <v>52</v>
       </c>
@@ -3062,7 +3068,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="39"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5" t="s">
         <v>53</v>
       </c>
@@ -3075,7 +3081,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
@@ -3088,7 +3094,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="39"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
@@ -3101,7 +3107,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="39"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5" t="s">
         <v>56</v>
       </c>
@@ -3114,7 +3120,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="39"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5" t="s">
         <v>57</v>
       </c>
@@ -3127,7 +3133,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="39"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5" t="s">
         <v>58</v>
       </c>
@@ -3140,7 +3146,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="39"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="5" t="s">
         <v>59</v>
       </c>
@@ -3153,7 +3159,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="40"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="5" t="s">
         <v>60</v>
       </c>
@@ -3166,7 +3172,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="47" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3181,7 +3187,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="39"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
@@ -3194,7 +3200,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="40"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="5" t="s">
         <v>64</v>
       </c>
@@ -3207,7 +3213,7 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="47" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -3222,7 +3228,7 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="39"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="5" t="s">
         <v>67</v>
       </c>
@@ -3235,7 +3241,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="39"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="5" t="s">
         <v>68</v>
       </c>
@@ -3248,7 +3254,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="5" t="s">
         <v>69</v>
       </c>
@@ -3261,7 +3267,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="47" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3276,7 +3282,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="40"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="5" t="s">
         <v>71</v>
       </c>
@@ -3289,7 +3295,7 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="50" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -3306,7 +3312,7 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A25" s="41"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
@@ -3319,7 +3325,7 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="5" t="s">
         <v>50</v>
       </c>
@@ -3332,7 +3338,7 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="41"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="5" t="s">
         <v>51</v>
       </c>
@@ -3345,7 +3351,7 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="41"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="5" t="s">
         <v>52</v>
       </c>
@@ -3358,7 +3364,7 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="41"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
@@ -3371,7 +3377,7 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="41"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
@@ -3384,7 +3390,7 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="41"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
@@ -3397,7 +3403,7 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="41"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="5" t="s">
         <v>57</v>
       </c>
@@ -3410,7 +3416,7 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A33" s="41"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="5" t="s">
         <v>58</v>
       </c>
@@ -3423,7 +3429,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A34" s="41"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="5" t="s">
         <v>59</v>
       </c>
@@ -3436,7 +3442,7 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A35" s="41"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="5" t="s">
         <v>60</v>
       </c>
@@ -3449,7 +3455,7 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="50" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3464,7 +3470,7 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A37" s="41"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="5" t="s">
         <v>75</v>
       </c>
@@ -3534,7 +3540,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="50" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3551,7 +3557,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="5" t="s">
         <v>80</v>
       </c>
@@ -3566,7 +3572,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="41"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="5" t="s">
         <v>81</v>
       </c>
@@ -3631,7 +3637,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="50" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3648,7 +3654,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="5" t="s">
         <v>84</v>
       </c>
@@ -3866,7 +3872,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="50" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3881,7 +3887,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="5" t="s">
         <v>98</v>
       </c>
@@ -3894,7 +3900,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="6" customFormat="1" ht="38.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="5" t="s">
         <v>99</v>
       </c>
@@ -3937,7 +3943,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="50" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -3988,7 +3994,7 @@
       <c r="XFD7"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="6" customFormat="1" ht="25.5">
-      <c r="A8" s="41"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="5" t="s">
         <v>106</v>
       </c>
@@ -4190,7 +4196,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="50" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4205,7 +4211,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="5" t="s">
         <v>114</v>
       </c>
@@ -4218,7 +4224,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="50" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -4233,7 +4239,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="5" t="s">
         <v>117</v>
       </c>
@@ -4246,7 +4252,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="50" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -4297,7 +4303,7 @@
       <c r="XFD6"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="41"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="5" t="s">
         <v>120</v>
       </c>
@@ -4448,7 +4454,7 @@
       <c r="XFD9"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="50" t="s">
         <v>123</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -4499,7 +4505,7 @@
       <c r="XFD10"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="5" t="s">
         <v>125</v>
       </c>
@@ -4548,7 +4554,7 @@
       <c r="XFD11"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="5" t="s">
         <v>126</v>
       </c>
@@ -4597,7 +4603,7 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="50" t="s">
         <v>127</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -4612,7 +4618,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A14" s="41"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="5" t="s">
         <v>129</v>
       </c>
@@ -4625,7 +4631,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A15" s="41"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="5" t="s">
         <v>130</v>
       </c>
@@ -4692,7 +4698,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="47" t="s">
         <v>131</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4707,7 +4713,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="5" t="s">
         <v>132</v>
       </c>
@@ -4720,7 +4726,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A4" s="40"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="5" t="s">
         <v>133</v>
       </c>
@@ -4781,7 +4787,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="50" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4798,7 +4804,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="5" t="s">
         <v>136</v>
       </c>
@@ -4813,7 +4819,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="41"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="5" t="s">
         <v>137</v>
       </c>
@@ -4828,7 +4834,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="5" t="s">
         <v>138</v>
       </c>
@@ -4843,7 +4849,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="5" t="s">
         <v>139</v>
       </c>
@@ -4858,7 +4864,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="50" t="s">
         <v>140</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -4875,7 +4881,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="5" t="s">
         <v>142</v>
       </c>
@@ -4890,7 +4896,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="5" t="s">
         <v>143</v>
       </c>
@@ -4905,7 +4911,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="41"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="5" t="s">
         <v>144</v>
       </c>
@@ -4920,7 +4926,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="5" t="s">
         <v>145</v>
       </c>
@@ -4935,7 +4941,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="50" t="s">
         <v>146</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -4988,7 +4994,7 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" s="6" customFormat="1" ht="42.95" customHeight="1">
-      <c r="A13" s="41"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="5" t="s">
         <v>148</v>
       </c>
@@ -5039,7 +5045,7 @@
       <c r="XFD13"/>
     </row>
     <row r="14" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="47" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -5092,7 +5098,7 @@
       <c r="XFD14"/>
     </row>
     <row r="15" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="39"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="5" t="s">
         <v>151</v>
       </c>
@@ -5143,7 +5149,7 @@
       <c r="XFD15"/>
     </row>
     <row r="16" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="39"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="5" t="s">
         <v>152</v>
       </c>
@@ -5194,7 +5200,7 @@
       <c r="XFD16"/>
     </row>
     <row r="17" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="39"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="5" t="s">
         <v>153</v>
       </c>
@@ -5245,7 +5251,7 @@
       <c r="XFD17"/>
     </row>
     <row r="18" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="39"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="5" t="s">
         <v>154</v>
       </c>
@@ -5296,7 +5302,7 @@
       <c r="XFD18"/>
     </row>
     <row r="19" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="39"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="5" t="s">
         <v>155</v>
       </c>
@@ -5347,7 +5353,7 @@
       <c r="XFD19"/>
     </row>
     <row r="20" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="39"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="8" t="s">
         <v>156</v>
       </c>
@@ -5398,7 +5404,7 @@
       <c r="XFD20"/>
     </row>
     <row r="21" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="39"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="8" t="s">
         <v>157</v>
       </c>
@@ -5449,7 +5455,7 @@
       <c r="XFD21"/>
     </row>
     <row r="22" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="50" t="s">
         <v>158</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -5502,7 +5508,7 @@
       <c r="XFD22"/>
     </row>
     <row r="23" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="41"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="5" t="s">
         <v>160</v>
       </c>
@@ -5553,7 +5559,7 @@
       <c r="XFD23"/>
     </row>
     <row r="24" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="41"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="5" t="s">
         <v>161</v>
       </c>
@@ -5604,7 +5610,7 @@
       <c r="XFD24"/>
     </row>
     <row r="25" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="41"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="5" t="s">
         <v>162</v>
       </c>
@@ -5655,7 +5661,7 @@
       <c r="XFD25"/>
     </row>
     <row r="26" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="5" t="s">
         <v>163</v>
       </c>
@@ -5706,7 +5712,7 @@
       <c r="XFD26"/>
     </row>
     <row r="27" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="41"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="5" t="s">
         <v>164</v>
       </c>
@@ -5757,7 +5763,7 @@
       <c r="XFD27"/>
     </row>
     <row r="28" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="41"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="5" t="s">
         <v>165</v>
       </c>
@@ -5808,7 +5814,7 @@
       <c r="XFD28"/>
     </row>
     <row r="29" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="50" t="s">
         <v>166</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -5861,7 +5867,7 @@
       <c r="XFD29"/>
     </row>
     <row r="30" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="41"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="5" t="s">
         <v>168</v>
       </c>
@@ -5912,7 +5918,7 @@
       <c r="XFD30"/>
     </row>
     <row r="31" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="41"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="5" t="s">
         <v>169</v>
       </c>
@@ -5963,7 +5969,7 @@
       <c r="XFD31"/>
     </row>
     <row r="32" spans="1:7 16349:16384" ht="23.25" customHeight="1">
-      <c r="A32" s="41"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="5" t="s">
         <v>170</v>
       </c>
@@ -5978,7 +5984,7 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A33" s="41"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="5" t="s">
         <v>171</v>
       </c>
@@ -5993,7 +5999,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A34" s="41"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="5" t="s">
         <v>172</v>
       </c>
@@ -6008,7 +6014,7 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A35" s="41"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="5" t="s">
         <v>173</v>
       </c>
@@ -6023,7 +6029,7 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A36" s="41"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="5" t="s">
         <v>174</v>
       </c>
@@ -6038,7 +6044,7 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A37" s="41"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="5" t="s">
         <v>175</v>
       </c>
@@ -6053,7 +6059,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A38" s="41"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="5" t="s">
         <v>176</v>
       </c>
@@ -6068,7 +6074,7 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A39" s="41"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="5" t="s">
         <v>177</v>
       </c>
@@ -6083,7 +6089,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A40" s="41"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="5" t="s">
         <v>178</v>
       </c>
@@ -6098,7 +6104,7 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A41" s="41"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="5" t="s">
         <v>179</v>
       </c>

--- a/DOC/DMS开发计划-6.5.xlsx
+++ b/DOC/DMS开发计划-6.5.xlsx
@@ -1054,12 +1054,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1169,16 +1166,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1194,6 +1188,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1216,12 +1225,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1530,64 +1533,64 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="8" customWidth="1"/>
-    <col min="5" max="7" width="12.625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="6" customWidth="1"/>
-    <col min="10" max="16349" width="9" style="6"/>
+    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="7" customWidth="1"/>
+    <col min="5" max="7" width="12.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="5" customWidth="1"/>
+    <col min="10" max="16349" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8 16350:16384" s="6" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8 16350:16384" s="5" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="XDV2"/>
       <c r="XDW2"/>
       <c r="XDX2"/>
@@ -1624,19 +1627,19 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" spans="1:8 16350:16384" s="6" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:8 16350:16384" s="5" customFormat="1" ht="30.95" customHeight="1">
+      <c r="A3" s="46"/>
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="XDV3"/>
       <c r="XDW3"/>
       <c r="XDX3"/>
@@ -1673,19 +1676,19 @@
       <c r="XFC3"/>
       <c r="XFD3"/>
     </row>
-    <row r="4" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="46"/>
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="XDV4"/>
       <c r="XDW4"/>
       <c r="XDX4"/>
@@ -1722,25 +1725,25 @@
       <c r="XFC4"/>
       <c r="XFD4"/>
     </row>
-    <row r="5" spans="1:8 16350:16384" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:8 16350:16384" s="5" customFormat="1" ht="36" customHeight="1">
+      <c r="A5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="XDV5"/>
       <c r="XDW5"/>
       <c r="XDX5"/>
@@ -1777,21 +1780,21 @@
       <c r="XFC5"/>
       <c r="XFD5"/>
     </row>
-    <row r="6" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A6" s="47"/>
+      <c r="B6" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="XDV6"/>
       <c r="XDW6"/>
       <c r="XDX6"/>
@@ -1828,21 +1831,21 @@
       <c r="XFC6"/>
       <c r="XFD6"/>
     </row>
-    <row r="7" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="16" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="XDV7"/>
       <c r="XDW7"/>
       <c r="XDX7"/>
@@ -1879,19 +1882,19 @@
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
-    <row r="8" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="22" t="s">
+    <row r="8" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="16" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="XDV8"/>
       <c r="XDW8"/>
       <c r="XDX8"/>
@@ -1928,19 +1931,19 @@
       <c r="XFC8"/>
       <c r="XFD8"/>
     </row>
-    <row r="9" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A9" s="46"/>
+      <c r="B9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="16" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="XDV9"/>
       <c r="XDW9"/>
       <c r="XDX9"/>
@@ -1977,673 +1980,673 @@
       <c r="XFC9"/>
       <c r="XFD9"/>
     </row>
-    <row r="10" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="30" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="30" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="43" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A13" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="44"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="31" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="31" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A15" s="42"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="44"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="20" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A16" s="42"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="20" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A17" s="42"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="20" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A18" s="42"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="20" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A19" s="42"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="26" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A20" s="42"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="20" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A21" s="42"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="20" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A22" s="42"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="20" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A23" s="42"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="23" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A24" s="42"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="16" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="23" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A25" s="42"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="25" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A26" s="42"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="23" t="s">
+      <c r="F26" s="10"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A27" s="42"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="44"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="32" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A28" s="42"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="32" t="s">
+      <c r="F28" s="10"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A29" s="42"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="44"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="32" t="s">
+      <c r="F29" s="10"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A30" s="42"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="44"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="32" t="s">
+      <c r="F30" s="10"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A31" s="42"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="44"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="30" t="s">
+      <c r="F31" s="10"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A32" s="42"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="30" t="s">
+      <c r="F32" s="10"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A33" s="42"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="44"/>
-      <c r="B34" s="43" t="s">
+      <c r="F33" s="10"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A34" s="42"/>
+      <c r="B34" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="20" t="s">
+      <c r="F34" s="10"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="20" t="s">
+      <c r="F35" s="10"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="20" t="s">
+      <c r="F36" s="10"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="20" t="s">
+      <c r="F37" s="10"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A39" s="44"/>
-      <c r="B39" s="24" t="s">
+      <c r="F38" s="10"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A39" s="42"/>
+      <c r="B39" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" ht="42" customHeight="1">
-      <c r="A40" s="44"/>
-      <c r="B40" s="24" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" s="5" customFormat="1" ht="42" customHeight="1">
+      <c r="A40" s="42"/>
+      <c r="B40" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" s="6" customFormat="1" ht="42" customHeight="1">
-      <c r="A41" s="34"/>
-      <c r="B41" s="33" t="s">
+      <c r="F40" s="10"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" s="5" customFormat="1" ht="42" customHeight="1">
+      <c r="A41" s="33"/>
+      <c r="B41" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
     </row>
     <row r="42" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>43257</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5" t="s">
+      <c r="G42" s="4"/>
+      <c r="H42" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A43" s="55"/>
-      <c r="B43" s="22" t="s">
+      <c r="A43" s="49"/>
+      <c r="B43" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <v>43257</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5" t="s">
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="40" t="s">
+    <row r="44" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A44" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="5" t="s">
+      <c r="C44" s="30"/>
+      <c r="D44" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <v>43259</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5" t="s">
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A45" s="42"/>
-      <c r="B45" s="19" t="s">
+    <row r="45" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A45" s="40"/>
+      <c r="B45" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="16" t="s">
+      <c r="C45" s="30"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <v>43259</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5" t="s">
+      <c r="G45" s="4"/>
+      <c r="H45" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A46" s="27" t="s">
+    <row r="46" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A46" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A47" s="28" t="s">
+      <c r="F46" s="10"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A47" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A48" s="27" t="s">
+      <c r="F47" s="10"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A48" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16" t="s">
+      <c r="C48" s="15"/>
+      <c r="D48" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8 16350:16384" s="6" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A49" s="27" t="s">
+      <c r="F48" s="10"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8 16350:16384" s="5" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A49" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8 16350:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A50" s="4" t="s">
+      <c r="F49" s="10"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A50" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5" t="s">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
       <c r="XDV50"/>
       <c r="XDW50"/>
       <c r="XDX50"/>
@@ -2682,15 +2685,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="B13:B33"/>
     <mergeCell ref="A13:A40"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2714,109 +2717,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="38.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2845,107 +2848,107 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="6"/>
+    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="5" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="11">
+      <c r="D3" s="4"/>
+      <c r="E3" s="10">
         <v>43271</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" ht="53.1" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="5" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="53.1" customHeight="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="11">
+      <c r="D4" s="4"/>
+      <c r="E4" s="10">
         <v>43272</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="5" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A5" s="51"/>
+      <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="11">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="10">
         <v>43272</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="14" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A6" s="52"/>
+      <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2967,522 +2970,522 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="6"/>
+    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="11">
+      <c r="D2" s="4"/>
+      <c r="E2" s="10">
         <v>43271</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="5" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="11">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="10">
         <v>43271</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="5" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="11">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="10">
         <v>43272</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="5" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="51"/>
+      <c r="B5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="11">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="10">
         <v>43272</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="5" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A6" s="51"/>
+      <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="11">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="10">
         <v>43273</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="5" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="51"/>
+      <c r="B7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="11">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="10">
         <v>43273</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="5" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="51"/>
+      <c r="B8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="11">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="10">
         <v>43274</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="5" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A9" s="51"/>
+      <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="11">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="10">
         <v>43274</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="5" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="51"/>
+      <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="11">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="10">
         <v>43278</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="5" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="51"/>
+      <c r="B11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="11">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="10">
         <v>43278</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="5" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A12" s="51"/>
+      <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="11">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10">
         <v>43276</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="5" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A13" s="51"/>
+      <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="11">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="10">
         <v>43276</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="49"/>
-      <c r="B14" s="5" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A14" s="52"/>
+      <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="11">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="10">
         <v>43277</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="47" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A15" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="11">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="10">
         <v>43278</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="5" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="11">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="10">
         <v>43278</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="5" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A17" s="52"/>
+      <c r="B17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="11">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="10">
         <v>43278</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="47" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A18" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="11">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="10">
         <v>43279</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="5" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="11">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="10">
         <v>43279</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="5" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="11">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="10">
         <v>43279</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="5" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A21" s="52"/>
+      <c r="B21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="11">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="10">
         <v>43279</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="47" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A22" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="11">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="10">
         <v>43280</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="49"/>
-      <c r="B23" s="5" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A23" s="52"/>
+      <c r="B23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="11">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="10">
         <v>43280</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="50" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A24" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="11">
+      <c r="D24" s="4"/>
+      <c r="E24" s="10">
         <v>43281</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="5" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
+      <c r="A25" s="53"/>
+      <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="11">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="10">
         <v>43281</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="5" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A26" s="53"/>
+      <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="11">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="10">
         <v>43281</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="5" t="s">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A27" s="53"/>
+      <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="11">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="10">
         <v>43281</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="5" t="s">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A28" s="53"/>
+      <c r="B28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="11">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="10">
         <v>43282</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="5" t="s">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A29" s="53"/>
+      <c r="B29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="11">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="10">
         <v>43282</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="50"/>
-      <c r="B30" s="5" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A30" s="53"/>
+      <c r="B30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="11">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="10">
         <v>43282</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="5" t="s">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A31" s="53"/>
+      <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="11">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="10">
         <v>43282</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="5" t="s">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A32" s="53"/>
+      <c r="B32" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="11">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="10">
         <v>43282</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A33" s="50"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="53"/>
+      <c r="B33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="11">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="10">
         <v>43282</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A34" s="50"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="53"/>
+      <c r="B34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="11">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="10">
         <v>43282</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A35" s="50"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="53"/>
+      <c r="B35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="11">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="10">
         <v>43282</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="11">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="10">
         <v>43283</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A37" s="50"/>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="53"/>
+      <c r="B37" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="11">
+      <c r="D37" s="4"/>
+      <c r="E37" s="10">
         <v>43283</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3508,83 +3511,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="6"/>
+    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>43283</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="5" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="53"/>
+      <c r="B3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>43283</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="5" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="53"/>
+      <c r="B4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>43283</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3605,221 +3608,221 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="6"/>
+    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>43279</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="5" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="53"/>
+      <c r="B3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>43279</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>43286</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>43287</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>43284</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>43284</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>43284</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>43284</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>43284</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>43284</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>43284</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3840,122 +3843,122 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="6"/>
+    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7 16349:16384" s="6" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7 16349:16384" s="5" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="11">
+      <c r="C2" s="9"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="10">
         <v>43271</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="5" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="53"/>
+      <c r="B3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="11">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="10">
         <v>43271</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7 16349:16384" s="6" customFormat="1" ht="38.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="5" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="38.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="11">
+      <c r="D4" s="4"/>
+      <c r="E4" s="10">
         <v>43271</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="11">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="10">
         <v>43272</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7 16349:16384" s="6" customFormat="1" ht="33.950000000000003" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="33.950000000000003" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="50" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="11">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="10">
         <v>43273</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
       <c r="XDU7"/>
       <c r="XDV7"/>
       <c r="XDW7"/>
@@ -3993,20 +3996,20 @@
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
-    <row r="8" spans="1:7 16349:16384" s="6" customFormat="1" ht="25.5">
-      <c r="A8" s="50"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="25.5">
+      <c r="A8" s="53"/>
+      <c r="B8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="11">
+      <c r="D8" s="4"/>
+      <c r="E8" s="10">
         <v>43274</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
       <c r="XDU8"/>
       <c r="XDV8"/>
       <c r="XDW8"/>
@@ -4044,22 +4047,22 @@
       <c r="XFC8"/>
       <c r="XFD8"/>
     </row>
-    <row r="9" spans="1:7 16349:16384" s="6" customFormat="1" ht="62.1" customHeight="1">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:7 16349:16384" s="5" customFormat="1" ht="62.1" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="11">
+      <c r="D9" s="4"/>
+      <c r="E9" s="10">
         <v>43275</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
       <c r="XDU9"/>
       <c r="XDV9"/>
       <c r="XDW9"/>
@@ -4097,16 +4100,16 @@
       <c r="XFC9"/>
       <c r="XFD9"/>
     </row>
-    <row r="10" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="11"/>
       <c r="XDU10"/>
       <c r="XDV10"/>
       <c r="XDW10"/>
@@ -4164,107 +4167,107 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="6"/>
+    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7 16349:16384" s="6" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7 16349:16384" s="5" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="11">
+      <c r="C2" s="9"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="10">
         <v>43270</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="5" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="53"/>
+      <c r="B3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="11">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="10">
         <v>43271</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="11">
+      <c r="C4" s="9"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="10">
         <v>43273</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="50"/>
-      <c r="B5" s="5" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="53"/>
+      <c r="B5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="11">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="10">
         <v>43274</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A6" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="11">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="10">
         <v>43275</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
       <c r="XDU6"/>
       <c r="XDV6"/>
       <c r="XDW6"/>
@@ -4302,18 +4305,18 @@
       <c r="XFC6"/>
       <c r="XFD6"/>
     </row>
-    <row r="7" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="53"/>
+      <c r="B7" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="11">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="10">
         <v>43276</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
       <c r="XDU7"/>
       <c r="XDV7"/>
       <c r="XDW7"/>
@@ -4351,20 +4354,20 @@
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
-    <row r="8" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="11">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="10">
         <v>43277</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
       <c r="XDU8"/>
       <c r="XDV8"/>
       <c r="XDW8"/>
@@ -4402,20 +4405,20 @@
       <c r="XFC8"/>
       <c r="XFD8"/>
     </row>
-    <row r="9" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="11">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="10">
         <v>43277</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
       <c r="XDU9"/>
       <c r="XDV9"/>
       <c r="XDW9"/>
@@ -4453,20 +4456,20 @@
       <c r="XFC9"/>
       <c r="XFD9"/>
     </row>
-    <row r="10" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="50" t="s">
+    <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="11">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="10">
         <v>43278</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
       <c r="XDU10"/>
       <c r="XDV10"/>
       <c r="XDW10"/>
@@ -4504,18 +4507,18 @@
       <c r="XFC10"/>
       <c r="XFD10"/>
     </row>
-    <row r="11" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="53"/>
+      <c r="B11" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="11">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="10">
         <v>43278</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
       <c r="XDU11"/>
       <c r="XDV11"/>
       <c r="XDW11"/>
@@ -4553,18 +4556,18 @@
       <c r="XFC11"/>
       <c r="XFD11"/>
     </row>
-    <row r="12" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="50"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A12" s="53"/>
+      <c r="B12" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="11">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10">
         <v>43279</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
       <c r="XDU12"/>
       <c r="XDV12"/>
       <c r="XDW12"/>
@@ -4603,45 +4606,45 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="11">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="10">
         <v>43280</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="11">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="10">
         <v>43280</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="11">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="10">
         <v>43281</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4666,77 +4669,77 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="6"/>
+    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="11">
+      <c r="C2" s="9"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="10">
         <v>43277</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="5" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="11">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="10">
         <v>43277</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="5" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="30.95" customHeight="1">
+      <c r="A4" s="52"/>
+      <c r="B4" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="11">
+      <c r="C4" s="9"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="10">
         <v>43277</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4755,207 +4758,207 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="6"/>
+    <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7 16349:16384" s="6" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7 16349:16384" s="5" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>43276</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="5" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="53"/>
+      <c r="B3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>43276</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="5" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="53"/>
+      <c r="B4" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>43278</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="50"/>
-      <c r="B5" s="5" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="53"/>
+      <c r="B5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>43272</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="5" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A6" s="53"/>
+      <c r="B6" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>43277</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="50" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>43277</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="5" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="53"/>
+      <c r="B8" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>43277</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="5" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A9" s="53"/>
+      <c r="B9" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>43278</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="5" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="53"/>
+      <c r="B10" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>43278</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="5" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="53"/>
+      <c r="B11" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>43278</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="50" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A12" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>43273</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
       <c r="XDU12"/>
       <c r="XDV12"/>
       <c r="XDW12"/>
@@ -4993,20 +4996,20 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:7 16349:16384" s="6" customFormat="1" ht="42.95" customHeight="1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:7 16349:16384" s="5" customFormat="1" ht="42.95" customHeight="1">
+      <c r="A13" s="53"/>
+      <c r="B13" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>43273</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
       <c r="XDU13"/>
       <c r="XDV13"/>
       <c r="XDW13"/>
@@ -5044,22 +5047,22 @@
       <c r="XFC13"/>
       <c r="XFD13"/>
     </row>
-    <row r="14" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="47" t="s">
+    <row r="14" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A14" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>43274</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
       <c r="XDU14"/>
       <c r="XDV14"/>
       <c r="XDW14"/>
@@ -5097,20 +5100,20 @@
       <c r="XFC14"/>
       <c r="XFD14"/>
     </row>
-    <row r="15" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A15" s="51"/>
+      <c r="B15" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>43274</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
       <c r="XDU15"/>
       <c r="XDV15"/>
       <c r="XDW15"/>
@@ -5148,20 +5151,20 @@
       <c r="XFC15"/>
       <c r="XFD15"/>
     </row>
-    <row r="16" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>43274</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
       <c r="XDU16"/>
       <c r="XDV16"/>
       <c r="XDW16"/>
@@ -5199,20 +5202,20 @@
       <c r="XFC16"/>
       <c r="XFD16"/>
     </row>
-    <row r="17" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>43274</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
       <c r="XDU17"/>
       <c r="XDV17"/>
       <c r="XDW17"/>
@@ -5250,20 +5253,20 @@
       <c r="XFC17"/>
       <c r="XFD17"/>
     </row>
-    <row r="18" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="48"/>
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A18" s="51"/>
+      <c r="B18" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>43276</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
       <c r="XDU18"/>
       <c r="XDV18"/>
       <c r="XDW18"/>
@@ -5301,20 +5304,20 @@
       <c r="XFC18"/>
       <c r="XFD18"/>
     </row>
-    <row r="19" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>43276</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
       <c r="XDU19"/>
       <c r="XDV19"/>
       <c r="XDW19"/>
@@ -5352,20 +5355,20 @@
       <c r="XFC19"/>
       <c r="XFD19"/>
     </row>
-    <row r="20" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>43277</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
       <c r="XDU20"/>
       <c r="XDV20"/>
       <c r="XDW20"/>
@@ -5403,20 +5406,20 @@
       <c r="XFC20"/>
       <c r="XFD20"/>
     </row>
-    <row r="21" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A21" s="51"/>
+      <c r="B21" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>43277</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
       <c r="XDU21"/>
       <c r="XDV21"/>
       <c r="XDW21"/>
@@ -5454,22 +5457,22 @@
       <c r="XFC21"/>
       <c r="XFD21"/>
     </row>
-    <row r="22" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="50" t="s">
+    <row r="22" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A22" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>43279</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
       <c r="XDU22"/>
       <c r="XDV22"/>
       <c r="XDW22"/>
@@ -5507,20 +5510,20 @@
       <c r="XFC22"/>
       <c r="XFD22"/>
     </row>
-    <row r="23" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="50"/>
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A23" s="53"/>
+      <c r="B23" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>43279</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
       <c r="XDU23"/>
       <c r="XDV23"/>
       <c r="XDW23"/>
@@ -5558,20 +5561,20 @@
       <c r="XFC23"/>
       <c r="XFD23"/>
     </row>
-    <row r="24" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="50"/>
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A24" s="53"/>
+      <c r="B24" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>43280</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
       <c r="XDU24"/>
       <c r="XDV24"/>
       <c r="XDW24"/>
@@ -5609,20 +5612,20 @@
       <c r="XFC24"/>
       <c r="XFD24"/>
     </row>
-    <row r="25" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A25" s="53"/>
+      <c r="B25" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>43280</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
       <c r="XDU25"/>
       <c r="XDV25"/>
       <c r="XDW25"/>
@@ -5660,20 +5663,20 @@
       <c r="XFC25"/>
       <c r="XFD25"/>
     </row>
-    <row r="26" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A26" s="53"/>
+      <c r="B26" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>43280</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
       <c r="XDU26"/>
       <c r="XDV26"/>
       <c r="XDW26"/>
@@ -5711,20 +5714,20 @@
       <c r="XFC26"/>
       <c r="XFD26"/>
     </row>
-    <row r="27" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A27" s="53"/>
+      <c r="B27" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>43281</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
       <c r="XDU27"/>
       <c r="XDV27"/>
       <c r="XDW27"/>
@@ -5762,20 +5765,20 @@
       <c r="XFC27"/>
       <c r="XFD27"/>
     </row>
-    <row r="28" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="5" t="s">
+    <row r="28" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A28" s="53"/>
+      <c r="B28" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>43281</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
       <c r="XDU28"/>
       <c r="XDV28"/>
       <c r="XDW28"/>
@@ -5813,22 +5816,22 @@
       <c r="XFC28"/>
       <c r="XFD28"/>
     </row>
-    <row r="29" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="50" t="s">
+    <row r="29" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A29" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>43278</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
       <c r="XDU29"/>
       <c r="XDV29"/>
       <c r="XDW29"/>
@@ -5866,20 +5869,20 @@
       <c r="XFC29"/>
       <c r="XFD29"/>
     </row>
-    <row r="30" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="50"/>
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A30" s="53"/>
+      <c r="B30" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>43278</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
       <c r="XDU30"/>
       <c r="XDV30"/>
       <c r="XDW30"/>
@@ -5917,20 +5920,20 @@
       <c r="XFC30"/>
       <c r="XFD30"/>
     </row>
-    <row r="31" spans="1:7 16349:16384" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="5" t="s">
+    <row r="31" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A31" s="53"/>
+      <c r="B31" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>43278</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
       <c r="XDU31"/>
       <c r="XDV31"/>
       <c r="XDW31"/>
@@ -5969,154 +5972,154 @@
       <c r="XFD31"/>
     </row>
     <row r="32" spans="1:7 16349:16384" ht="23.25" customHeight="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>43278</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A33" s="50"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="53"/>
+      <c r="B33" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>43279</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A34" s="50"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="53"/>
+      <c r="B34" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>43279</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A35" s="50"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="53"/>
+      <c r="B35" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>43279</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A36" s="50"/>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="53"/>
+      <c r="B36" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <v>43279</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A37" s="50"/>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="53"/>
+      <c r="B37" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>43279</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A38" s="50"/>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="53"/>
+      <c r="B38" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <v>43280</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A39" s="50"/>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="53"/>
+      <c r="B39" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <v>43280</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A40" s="50"/>
-      <c r="B40" s="5" t="s">
+      <c r="A40" s="53"/>
+      <c r="B40" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <v>43280</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A41" s="50"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="53"/>
+      <c r="B41" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <v>43281</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/DOC/DMS开发计划-6.5.xlsx
+++ b/DOC/DMS开发计划-6.5.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="259">
   <si>
     <t>功能模块</t>
   </si>
@@ -885,6 +885,10 @@
   </si>
   <si>
     <t>rpb_card_stored</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsweb.repair.DataBase.appointmentParamsSet.flow</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -944,7 +948,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -984,6 +988,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,7 +1064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,28 +1161,34 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1188,21 +1204,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,6 +1226,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1530,10 +1543,10 @@
   <dimension ref="A1:XFD50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40:D40"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1575,7 +1588,7 @@
       </c>
     </row>
     <row r="2" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -1628,8 +1641,8 @@
       <c r="XFD2"/>
     </row>
     <row r="3" spans="1:8 16350:16384" s="5" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="4"/>
@@ -1677,8 +1690,8 @@
       <c r="XFD3"/>
     </row>
     <row r="4" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="4"/>
@@ -1726,7 +1739,7 @@
       <c r="XFD4"/>
     </row>
     <row r="5" spans="1:8 16350:16384" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -1781,7 +1794,7 @@
       <c r="XFD5"/>
     </row>
     <row r="6" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="47"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="19" t="s">
         <v>181</v>
       </c>
@@ -1832,7 +1845,7 @@
       <c r="XFD6"/>
     </row>
     <row r="7" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="36" t="s">
         <v>180</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -1883,7 +1896,7 @@
       <c r="XFD7"/>
     </row>
     <row r="8" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="46"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="21" t="s">
         <v>19</v>
       </c>
@@ -1932,7 +1945,7 @@
       <c r="XFD8"/>
     </row>
     <row r="9" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="21" t="s">
         <v>20</v>
       </c>
@@ -1981,7 +1994,7 @@
       <c r="XFD9"/>
     </row>
     <row r="10" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="36" t="s">
         <v>199</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -1999,7 +2012,7 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="46"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="29" t="s">
         <v>217</v>
       </c>
@@ -2015,7 +2028,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="29" t="s">
         <v>218</v>
       </c>
@@ -2031,13 +2044,13 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>185</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2051,9 +2064,9 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="30" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -2067,9 +2080,9 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="30" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2083,9 +2096,9 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="42"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="19" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="28" t="s">
         <v>186</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -2097,9 +2110,9 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="19" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="28" t="s">
         <v>187</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -2111,9 +2124,9 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="19" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="28" t="s">
         <v>188</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -2125,9 +2138,9 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="19" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="28" t="s">
         <v>189</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -2139,8 +2152,8 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="42"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="25" t="s">
         <v>190</v>
       </c>
@@ -2153,8 +2166,8 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="42"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="29" t="s">
         <v>204</v>
       </c>
@@ -2169,8 +2182,8 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="42"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="29" t="s">
         <v>205</v>
       </c>
@@ -2185,8 +2198,8 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="42"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="29" t="s">
         <v>206</v>
       </c>
@@ -2201,9 +2214,9 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="42"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="22" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="31" t="s">
         <v>207</v>
       </c>
       <c r="D24" s="17"/>
@@ -2215,8 +2228,8 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="42"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="22" t="s">
         <v>208</v>
       </c>
@@ -2227,8 +2240,8 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="24" t="s">
         <v>209</v>
       </c>
@@ -2243,8 +2256,8 @@
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="22" t="s">
         <v>210</v>
       </c>
@@ -2257,8 +2270,8 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="42"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="31" t="s">
         <v>211</v>
       </c>
@@ -2273,8 +2286,8 @@
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="42"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="31" t="s">
         <v>212</v>
       </c>
@@ -2289,8 +2302,8 @@
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="42"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="31" t="s">
         <v>213</v>
       </c>
@@ -2305,8 +2318,8 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="42"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="31" t="s">
         <v>215</v>
       </c>
@@ -2321,8 +2334,8 @@
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="42"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="29" t="s">
         <v>191</v>
       </c>
@@ -2337,8 +2350,8 @@
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="42"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="29" t="s">
         <v>192</v>
       </c>
@@ -2353,8 +2366,8 @@
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="42"/>
-      <c r="B34" s="41" t="s">
+      <c r="A34" s="44"/>
+      <c r="B34" s="43" t="s">
         <v>193</v>
       </c>
       <c r="C34" s="29" t="s">
@@ -2371,8 +2384,8 @@
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="19" t="s">
         <v>195</v>
       </c>
@@ -2387,8 +2400,8 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="19" t="s">
         <v>196</v>
       </c>
@@ -2403,8 +2416,8 @@
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="19" t="s">
         <v>197</v>
       </c>
@@ -2419,8 +2432,8 @@
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="19" t="s">
         <v>198</v>
       </c>
@@ -2435,7 +2448,7 @@
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A39" s="42"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="23" t="s">
         <v>11</v>
       </c>
@@ -2449,14 +2462,14 @@
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" s="5" customFormat="1" ht="42" customHeight="1">
-      <c r="A40" s="42"/>
-      <c r="B40" s="37" t="s">
+      <c r="A40" s="44"/>
+      <c r="B40" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="33" t="s">
         <v>234</v>
       </c>
       <c r="E40" s="15" t="s">
@@ -2467,23 +2480,25 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" s="5" customFormat="1" ht="42" customHeight="1">
-      <c r="A41" s="33"/>
-      <c r="B41" s="32" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
+      <c r="E41" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
     </row>
     <row r="42" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -2505,7 +2520,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A43" s="49"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="21" t="s">
         <v>32</v>
       </c>
@@ -2525,7 +2540,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="38" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -2547,7 +2562,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A45" s="40"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="18" t="s">
         <v>29</v>
       </c>
@@ -2685,15 +2700,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B13:B33"/>
+    <mergeCell ref="A13:A40"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B13:B33"/>
-    <mergeCell ref="A13:A40"/>
-    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2717,7 +2732,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2726,14 +2741,14 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="52"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="51" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2744,7 +2759,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="1">
-      <c r="A4" s="55"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
@@ -2753,14 +2768,14 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="56"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="51" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2769,14 +2784,14 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="38.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2784,13 +2799,13 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="51" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2798,13 +2813,13 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="56"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="50" t="s">
         <v>96</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2812,13 +2827,13 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="53"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="53"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="4" t="s">
         <v>99</v>
       </c>
@@ -2880,7 +2895,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="47" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2895,7 +2910,7 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="51"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
@@ -2910,7 +2925,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="53.1" customHeight="1">
-      <c r="A4" s="51"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
@@ -2925,7 +2940,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="51"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
@@ -2938,7 +2953,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
@@ -3002,7 +3017,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3019,7 +3034,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A3" s="51"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
@@ -3032,7 +3047,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="51"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
@@ -3045,7 +3060,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="51"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="4" t="s">
         <v>51</v>
       </c>
@@ -3058,7 +3073,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="51"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -3071,7 +3086,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="51"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="4" t="s">
         <v>53</v>
       </c>
@@ -3084,7 +3099,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="51"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="4" t="s">
         <v>54</v>
       </c>
@@ -3097,7 +3112,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="51"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
@@ -3110,7 +3125,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="51"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
@@ -3123,7 +3138,7 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="51"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="4" t="s">
         <v>57</v>
       </c>
@@ -3136,7 +3151,7 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="51"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
@@ -3149,7 +3164,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="51"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
@@ -3162,7 +3177,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="52"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
@@ -3175,7 +3190,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="47" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -3190,7 +3205,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="51"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="4" t="s">
         <v>63</v>
       </c>
@@ -3203,7 +3218,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="52"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="4" t="s">
         <v>64</v>
       </c>
@@ -3216,7 +3231,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="47" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3231,7 +3246,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="51"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="4" t="s">
         <v>67</v>
       </c>
@@ -3244,7 +3259,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="51"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
@@ -3257,7 +3272,7 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="52"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="4" t="s">
         <v>69</v>
       </c>
@@ -3270,7 +3285,7 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="47" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3285,7 +3300,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="52"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="4" t="s">
         <v>71</v>
       </c>
@@ -3298,7 +3313,7 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="50" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3315,7 +3330,7 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A25" s="53"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
@@ -3328,7 +3343,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="53"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
@@ -3341,7 +3356,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="53"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
@@ -3354,7 +3369,7 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="53"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="4" t="s">
         <v>52</v>
       </c>
@@ -3367,7 +3382,7 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="53"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="4" t="s">
         <v>54</v>
       </c>
@@ -3380,7 +3395,7 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="53"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="4" t="s">
         <v>55</v>
       </c>
@@ -3393,7 +3408,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="53"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
@@ -3406,7 +3421,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="53"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
       </c>
@@ -3419,7 +3434,7 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A33" s="53"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="4" t="s">
         <v>58</v>
       </c>
@@ -3432,7 +3447,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A34" s="53"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="4" t="s">
         <v>59</v>
       </c>
@@ -3445,7 +3460,7 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A35" s="53"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="4" t="s">
         <v>60</v>
       </c>
@@ -3458,7 +3473,7 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="50" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3473,7 +3488,7 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A37" s="53"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="4" t="s">
         <v>75</v>
       </c>
@@ -3543,7 +3558,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3560,7 +3575,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="4" t="s">
         <v>80</v>
       </c>
@@ -3575,7 +3590,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="53"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="4" t="s">
         <v>81</v>
       </c>
@@ -3640,7 +3655,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3657,7 +3672,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="4" t="s">
         <v>84</v>
       </c>
@@ -3875,7 +3890,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3890,7 +3905,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="4" t="s">
         <v>98</v>
       </c>
@@ -3903,7 +3918,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="38.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="4" t="s">
         <v>99</v>
       </c>
@@ -3946,7 +3961,7 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="50" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3997,7 +4012,7 @@
       <c r="XFD7"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="25.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="4" t="s">
         <v>106</v>
       </c>
@@ -4199,7 +4214,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4214,7 +4229,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="4" t="s">
         <v>114</v>
       </c>
@@ -4227,7 +4242,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="50" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4242,7 +4257,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="53"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="4" t="s">
         <v>117</v>
       </c>
@@ -4255,7 +4270,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="50" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4306,7 +4321,7 @@
       <c r="XFD6"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="53"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="4" t="s">
         <v>120</v>
       </c>
@@ -4457,7 +4472,7 @@
       <c r="XFD9"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="50" t="s">
         <v>123</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -4508,7 +4523,7 @@
       <c r="XFD10"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="53"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="4" t="s">
         <v>125</v>
       </c>
@@ -4557,7 +4572,7 @@
       <c r="XFD11"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="53"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="4" t="s">
         <v>126</v>
       </c>
@@ -4606,7 +4621,7 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="50" t="s">
         <v>127</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -4621,7 +4636,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A14" s="53"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="4" t="s">
         <v>129</v>
       </c>
@@ -4634,7 +4649,7 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A15" s="53"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="4" t="s">
         <v>130</v>
       </c>
@@ -4701,7 +4716,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="47" t="s">
         <v>131</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4716,7 +4731,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="51"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="4" t="s">
         <v>132</v>
       </c>
@@ -4729,7 +4744,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A4" s="52"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="4" t="s">
         <v>133</v>
       </c>
@@ -4790,7 +4805,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4807,7 +4822,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="4" t="s">
         <v>136</v>
       </c>
@@ -4822,7 +4837,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="53"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="4" t="s">
         <v>137</v>
       </c>
@@ -4837,7 +4852,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="53"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="4" t="s">
         <v>138</v>
       </c>
@@ -4852,7 +4867,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="53"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="4" t="s">
         <v>139</v>
       </c>
@@ -4867,7 +4882,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="50" t="s">
         <v>140</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4884,7 +4899,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="53"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="4" t="s">
         <v>142</v>
       </c>
@@ -4899,7 +4914,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="53"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="4" t="s">
         <v>143</v>
       </c>
@@ -4914,7 +4929,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="53"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="4" t="s">
         <v>144</v>
       </c>
@@ -4929,7 +4944,7 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="53"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="4" t="s">
         <v>145</v>
       </c>
@@ -4944,7 +4959,7 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="50" t="s">
         <v>146</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4997,7 +5012,7 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" s="5" customFormat="1" ht="42.95" customHeight="1">
-      <c r="A13" s="53"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="4" t="s">
         <v>148</v>
       </c>
@@ -5048,7 +5063,7 @@
       <c r="XFD13"/>
     </row>
     <row r="14" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="47" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -5101,7 +5116,7 @@
       <c r="XFD14"/>
     </row>
     <row r="15" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="51"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="4" t="s">
         <v>151</v>
       </c>
@@ -5152,7 +5167,7 @@
       <c r="XFD15"/>
     </row>
     <row r="16" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="51"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="4" t="s">
         <v>152</v>
       </c>
@@ -5203,7 +5218,7 @@
       <c r="XFD16"/>
     </row>
     <row r="17" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="51"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="4" t="s">
         <v>153</v>
       </c>
@@ -5254,7 +5269,7 @@
       <c r="XFD17"/>
     </row>
     <row r="18" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="51"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="4" t="s">
         <v>154</v>
       </c>
@@ -5305,7 +5320,7 @@
       <c r="XFD18"/>
     </row>
     <row r="19" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="51"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="4" t="s">
         <v>155</v>
       </c>
@@ -5356,7 +5371,7 @@
       <c r="XFD19"/>
     </row>
     <row r="20" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="51"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="7" t="s">
         <v>156</v>
       </c>
@@ -5407,7 +5422,7 @@
       <c r="XFD20"/>
     </row>
     <row r="21" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="51"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="7" t="s">
         <v>157</v>
       </c>
@@ -5458,7 +5473,7 @@
       <c r="XFD21"/>
     </row>
     <row r="22" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="50" t="s">
         <v>158</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -5511,7 +5526,7 @@
       <c r="XFD22"/>
     </row>
     <row r="23" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="53"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="4" t="s">
         <v>160</v>
       </c>
@@ -5562,7 +5577,7 @@
       <c r="XFD23"/>
     </row>
     <row r="24" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="53"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="4" t="s">
         <v>161</v>
       </c>
@@ -5613,7 +5628,7 @@
       <c r="XFD24"/>
     </row>
     <row r="25" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="53"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="4" t="s">
         <v>162</v>
       </c>
@@ -5664,7 +5679,7 @@
       <c r="XFD25"/>
     </row>
     <row r="26" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="53"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="4" t="s">
         <v>163</v>
       </c>
@@ -5715,7 +5730,7 @@
       <c r="XFD26"/>
     </row>
     <row r="27" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="53"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="4" t="s">
         <v>164</v>
       </c>
@@ -5766,7 +5781,7 @@
       <c r="XFD27"/>
     </row>
     <row r="28" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="53"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="4" t="s">
         <v>165</v>
       </c>
@@ -5817,7 +5832,7 @@
       <c r="XFD28"/>
     </row>
     <row r="29" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="50" t="s">
         <v>166</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -5870,7 +5885,7 @@
       <c r="XFD29"/>
     </row>
     <row r="30" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="53"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="4" t="s">
         <v>168</v>
       </c>
@@ -5921,7 +5936,7 @@
       <c r="XFD30"/>
     </row>
     <row r="31" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="53"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="4" t="s">
         <v>169</v>
       </c>
@@ -5972,7 +5987,7 @@
       <c r="XFD31"/>
     </row>
     <row r="32" spans="1:7 16349:16384" ht="23.25" customHeight="1">
-      <c r="A32" s="53"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="4" t="s">
         <v>170</v>
       </c>
@@ -5987,7 +6002,7 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A33" s="53"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="4" t="s">
         <v>171</v>
       </c>
@@ -6002,7 +6017,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A34" s="53"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="4" t="s">
         <v>172</v>
       </c>
@@ -6017,7 +6032,7 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A35" s="53"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="4" t="s">
         <v>173</v>
       </c>
@@ -6032,7 +6047,7 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A36" s="53"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="4" t="s">
         <v>174</v>
       </c>
@@ -6047,7 +6062,7 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A37" s="53"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="4" t="s">
         <v>175</v>
       </c>
@@ -6062,7 +6077,7 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A38" s="53"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="4" t="s">
         <v>176</v>
       </c>
@@ -6077,7 +6092,7 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A39" s="53"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="4" t="s">
         <v>177</v>
       </c>
@@ -6092,7 +6107,7 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A40" s="53"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="4" t="s">
         <v>178</v>
       </c>
@@ -6107,7 +6122,7 @@
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A41" s="53"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="4" t="s">
         <v>179</v>
       </c>

--- a/DOC/DMS开发计划-6.5.xlsx
+++ b/DOC/DMS开发计划-6.5.xlsx
@@ -601,10 +601,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>回访设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>汽车电子档案上传设置</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -830,11 +826,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>rpb_guest_type
-rpb_guest_type_discount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>丁</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -889,6 +880,15 @@
   </si>
   <si>
     <t>com.hsweb.repair.DataBase.appointmentParamsSet.flow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回访设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_guest_type
+rpb_guest_type_discount</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1064,7 +1064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1149,9 +1149,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1171,6 +1168,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1194,18 +1215,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1226,18 +1235,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1543,10 +1540,10 @@
   <dimension ref="A1:XFD50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1572,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>3</v>
@@ -1588,14 +1585,14 @@
       </c>
     </row>
     <row r="2" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="4" t="s">
@@ -1641,7 +1638,7 @@
       <c r="XFD2"/>
     </row>
     <row r="3" spans="1:8 16350:16384" s="5" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A3" s="37"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="21" t="s">
         <v>23</v>
       </c>
@@ -1690,7 +1687,7 @@
       <c r="XFD3"/>
     </row>
     <row r="4" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="37"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="21" t="s">
         <v>24</v>
       </c>
@@ -1739,7 +1736,7 @@
       <c r="XFD4"/>
     </row>
     <row r="5" spans="1:8 16350:16384" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -1749,10 +1746,10 @@
         <v>182</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="4"/>
@@ -1794,16 +1791,16 @@
       <c r="XFD5"/>
     </row>
     <row r="6" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="39"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="19" t="s">
         <v>181</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="4"/>
@@ -1845,7 +1842,7 @@
       <c r="XFD6"/>
     </row>
     <row r="7" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="43" t="s">
         <v>180</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -1896,7 +1893,7 @@
       <c r="XFD7"/>
     </row>
     <row r="8" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="21" t="s">
         <v>19</v>
       </c>
@@ -1945,7 +1942,7 @@
       <c r="XFD8"/>
     </row>
     <row r="9" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="37"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="21" t="s">
         <v>20</v>
       </c>
@@ -1994,15 +1991,15 @@
       <c r="XFD9"/>
     </row>
     <row r="10" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>219</v>
+      <c r="A10" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>218</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>79</v>
@@ -2012,13 +2009,13 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="29" t="s">
-        <v>217</v>
+      <c r="A11" s="44"/>
+      <c r="B11" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>79</v>
@@ -2028,81 +2025,81 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="29" t="s">
-        <v>218</v>
+      <c r="A12" s="44"/>
+      <c r="B12" s="28" t="s">
+        <v>217</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>185</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="44"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="44"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="28" t="s">
         <v>186</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="10"/>
@@ -2110,13 +2107,13 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="28" t="s">
         <v>187</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="10"/>
@@ -2124,13 +2121,13 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="28" t="s">
         <v>188</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="10"/>
@@ -2138,13 +2135,13 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="28" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="10"/>
@@ -2152,13 +2149,13 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="10"/>
@@ -2166,72 +2163,72 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="29" t="s">
-        <v>204</v>
+      <c r="A21" s="40"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="28" t="s">
+        <v>203</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="29" t="s">
-        <v>205</v>
+      <c r="A22" s="40"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="29" t="s">
-        <v>206</v>
+      <c r="A23" s="40"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="28" t="s">
+        <v>205</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="31" t="s">
-        <v>207</v>
+      <c r="A24" s="40"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="30" t="s">
+        <v>206</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="4"/>
@@ -2240,29 +2237,29 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="10"/>
@@ -2270,185 +2267,185 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="44"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="31" t="s">
-        <v>211</v>
+      <c r="A28" s="40"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="30" t="s">
+        <v>210</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="31" t="s">
-        <v>212</v>
+      <c r="A29" s="40"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="30" t="s">
+        <v>211</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="44"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="31" t="s">
-        <v>213</v>
+      <c r="A30" s="40"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="30" t="s">
+        <v>212</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="44"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="31" t="s">
-        <v>215</v>
+      <c r="A31" s="40"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="30" t="s">
+        <v>214</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="44"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="29" t="s">
-        <v>191</v>
+      <c r="A32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="28" t="s">
+        <v>190</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="29" t="s">
-        <v>192</v>
+      <c r="A33" s="40"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="28" t="s">
+        <v>191</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="44"/>
-      <c r="B34" s="43" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>194</v>
-      </c>
       <c r="D34" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A39" s="44"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="23" t="s">
         <v>11</v>
       </c>
@@ -2462,43 +2459,43 @@
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" s="5" customFormat="1" ht="42" customHeight="1">
-      <c r="A40" s="44"/>
-      <c r="B40" s="32" t="s">
+      <c r="A40" s="40"/>
+      <c r="B40" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>234</v>
+      <c r="C40" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" s="5" customFormat="1" ht="42" customHeight="1">
-      <c r="A41" s="57"/>
-      <c r="B41" s="34" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="C41" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="E41" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
+      <c r="E41" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="F41" s="36"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
     </row>
     <row r="42" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="47" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -2506,10 +2503,10 @@
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F42" s="10">
         <v>43257</v>
@@ -2520,16 +2517,16 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A43" s="41"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F43" s="10">
         <v>43257</v>
@@ -2540,18 +2537,18 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="45" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="30"/>
+      <c r="C44" s="29"/>
       <c r="D44" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F44" s="10">
         <v>43259</v>
@@ -2562,14 +2559,14 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A45" s="42"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="30"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="4"/>
       <c r="E45" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F45" s="10">
         <v>43259</v>
@@ -2581,15 +2578,15 @@
     </row>
     <row r="46" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A46" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="4"/>
@@ -2597,17 +2594,17 @@
     </row>
     <row r="47" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A47" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="4"/>
@@ -2615,17 +2612,17 @@
     </row>
     <row r="48" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A48" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="4"/>
@@ -2633,15 +2630,15 @@
     </row>
     <row r="49" spans="1:8 16350:16384" s="5" customFormat="1" ht="42.75" customHeight="1">
       <c r="A49" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="4"/>
@@ -2700,15 +2697,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="B13:B33"/>
     <mergeCell ref="A13:A40"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2732,7 +2729,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2741,14 +2738,14 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="49"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2759,7 +2756,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="1">
-      <c r="A4" s="52"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
@@ -2768,14 +2765,14 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="54" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2784,14 +2781,14 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="38.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2799,13 +2796,13 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="50"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="54" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2813,13 +2810,13 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="53" t="s">
         <v>96</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2827,13 +2824,13 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="50"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="50"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4" t="s">
         <v>99</v>
       </c>
@@ -2895,7 +2892,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2910,7 +2907,7 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
@@ -2925,7 +2922,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="53.1" customHeight="1">
-      <c r="A4" s="48"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
@@ -2940,7 +2937,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="48"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
@@ -2953,7 +2950,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="49"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
@@ -3017,7 +3014,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3034,7 +3031,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
@@ -3047,7 +3044,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="48"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
@@ -3060,7 +3057,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="48"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="4" t="s">
         <v>51</v>
       </c>
@@ -3073,7 +3070,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="48"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -3086,7 +3083,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="48"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="4" t="s">
         <v>53</v>
       </c>
@@ -3099,7 +3096,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="48"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="4" t="s">
         <v>54</v>
       </c>
@@ -3112,7 +3109,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="48"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
@@ -3125,7 +3122,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="48"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
@@ -3138,7 +3135,7 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="48"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="4" t="s">
         <v>57</v>
       </c>
@@ -3151,7 +3148,7 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="48"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
@@ -3164,7 +3161,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="48"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
@@ -3177,7 +3174,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="49"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
@@ -3190,7 +3187,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="50" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -3205,7 +3202,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="4" t="s">
         <v>63</v>
       </c>
@@ -3218,7 +3215,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="49"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="4" t="s">
         <v>64</v>
       </c>
@@ -3231,7 +3228,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="50" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3246,7 +3243,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="4" t="s">
         <v>67</v>
       </c>
@@ -3259,7 +3256,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="48"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
@@ -3272,7 +3269,7 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="49"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="4" t="s">
         <v>69</v>
       </c>
@@ -3285,7 +3282,7 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3300,7 +3297,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="49"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="4" t="s">
         <v>71</v>
       </c>
@@ -3313,7 +3310,7 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="53" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3330,7 +3327,7 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A25" s="50"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
@@ -3343,7 +3340,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="50"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
@@ -3356,7 +3353,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="50"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
@@ -3369,7 +3366,7 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="50"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4" t="s">
         <v>52</v>
       </c>
@@ -3382,7 +3379,7 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="50"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="4" t="s">
         <v>54</v>
       </c>
@@ -3395,7 +3392,7 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="50"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4" t="s">
         <v>55</v>
       </c>
@@ -3408,7 +3405,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="50"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
@@ -3421,7 +3418,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="50"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
       </c>
@@ -3434,7 +3431,7 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A33" s="50"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="4" t="s">
         <v>58</v>
       </c>
@@ -3447,7 +3444,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A34" s="50"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="4" t="s">
         <v>59</v>
       </c>
@@ -3460,7 +3457,7 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A35" s="50"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="4" t="s">
         <v>60</v>
       </c>
@@ -3473,7 +3470,7 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="53" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3488,7 +3485,7 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A37" s="50"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="4" t="s">
         <v>75</v>
       </c>
@@ -3558,7 +3555,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="53" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3575,7 +3572,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="50"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="4" t="s">
         <v>80</v>
       </c>
@@ -3590,7 +3587,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="50"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4" t="s">
         <v>81</v>
       </c>
@@ -3655,7 +3652,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="53" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3672,7 +3669,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="50"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="4" t="s">
         <v>84</v>
       </c>
@@ -3890,7 +3887,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="53" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3905,7 +3902,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="50"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="4" t="s">
         <v>98</v>
       </c>
@@ -3918,7 +3915,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="38.25">
-      <c r="A4" s="50"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4" t="s">
         <v>99</v>
       </c>
@@ -3961,7 +3958,7 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="53" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4012,7 +4009,7 @@
       <c r="XFD7"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="25.5">
-      <c r="A8" s="50"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4" t="s">
         <v>106</v>
       </c>
@@ -4214,7 +4211,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="53" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4229,7 +4226,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="50"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="4" t="s">
         <v>114</v>
       </c>
@@ -4242,7 +4239,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="53" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4257,7 +4254,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="50"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="4" t="s">
         <v>117</v>
       </c>
@@ -4270,7 +4267,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="53" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4321,7 +4318,7 @@
       <c r="XFD6"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="50"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="4" t="s">
         <v>120</v>
       </c>
@@ -4472,7 +4469,7 @@
       <c r="XFD9"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="53" t="s">
         <v>123</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -4523,7 +4520,7 @@
       <c r="XFD10"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="50"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="4" t="s">
         <v>125</v>
       </c>
@@ -4572,7 +4569,7 @@
       <c r="XFD11"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="50"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4" t="s">
         <v>126</v>
       </c>
@@ -4621,7 +4618,7 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="53" t="s">
         <v>127</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -4636,7 +4633,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A14" s="50"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4" t="s">
         <v>129</v>
       </c>
@@ -4649,7 +4646,7 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A15" s="50"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="4" t="s">
         <v>130</v>
       </c>
@@ -4716,7 +4713,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>131</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4731,7 +4728,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="4" t="s">
         <v>132</v>
       </c>
@@ -4744,7 +4741,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A4" s="49"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="4" t="s">
         <v>133</v>
       </c>
@@ -4805,7 +4802,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="53" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4822,7 +4819,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="50"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="4" t="s">
         <v>136</v>
       </c>
@@ -4837,7 +4834,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="50"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4" t="s">
         <v>137</v>
       </c>
@@ -4852,7 +4849,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="50"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="4" t="s">
         <v>138</v>
       </c>
@@ -4867,7 +4864,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="50"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4" t="s">
         <v>139</v>
       </c>
@@ -4882,7 +4879,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="53" t="s">
         <v>140</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4899,7 +4896,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="50"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4" t="s">
         <v>142</v>
       </c>
@@ -4914,7 +4911,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="50"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="4" t="s">
         <v>143</v>
       </c>
@@ -4929,7 +4926,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="50"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4" t="s">
         <v>144</v>
       </c>
@@ -4944,7 +4941,7 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="50"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="4" t="s">
         <v>145</v>
       </c>
@@ -4959,7 +4956,7 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="53" t="s">
         <v>146</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5012,7 +5009,7 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" s="5" customFormat="1" ht="42.95" customHeight="1">
-      <c r="A13" s="50"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="4" t="s">
         <v>148</v>
       </c>
@@ -5063,7 +5060,7 @@
       <c r="XFD13"/>
     </row>
     <row r="14" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="50" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -5116,7 +5113,7 @@
       <c r="XFD14"/>
     </row>
     <row r="15" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="48"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="4" t="s">
         <v>151</v>
       </c>
@@ -5167,7 +5164,7 @@
       <c r="XFD15"/>
     </row>
     <row r="16" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="4" t="s">
         <v>152</v>
       </c>
@@ -5218,7 +5215,7 @@
       <c r="XFD16"/>
     </row>
     <row r="17" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="48"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="4" t="s">
         <v>153</v>
       </c>
@@ -5269,7 +5266,7 @@
       <c r="XFD17"/>
     </row>
     <row r="18" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="48"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="4" t="s">
         <v>154</v>
       </c>
@@ -5320,7 +5317,7 @@
       <c r="XFD18"/>
     </row>
     <row r="19" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="4" t="s">
         <v>155</v>
       </c>
@@ -5371,7 +5368,7 @@
       <c r="XFD19"/>
     </row>
     <row r="20" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="48"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="7" t="s">
         <v>156</v>
       </c>
@@ -5422,7 +5419,7 @@
       <c r="XFD20"/>
     </row>
     <row r="21" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="48"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="7" t="s">
         <v>157</v>
       </c>
@@ -5473,7 +5470,7 @@
       <c r="XFD21"/>
     </row>
     <row r="22" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="53" t="s">
         <v>158</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -5526,7 +5523,7 @@
       <c r="XFD22"/>
     </row>
     <row r="23" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="50"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="4" t="s">
         <v>160</v>
       </c>
@@ -5577,7 +5574,7 @@
       <c r="XFD23"/>
     </row>
     <row r="24" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="50"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4" t="s">
         <v>161</v>
       </c>
@@ -5628,7 +5625,7 @@
       <c r="XFD24"/>
     </row>
     <row r="25" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="50"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="4" t="s">
         <v>162</v>
       </c>
@@ -5679,7 +5676,7 @@
       <c r="XFD25"/>
     </row>
     <row r="26" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="50"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4" t="s">
         <v>163</v>
       </c>
@@ -5730,7 +5727,7 @@
       <c r="XFD26"/>
     </row>
     <row r="27" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="50"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="4" t="s">
         <v>164</v>
       </c>
@@ -5781,7 +5778,7 @@
       <c r="XFD27"/>
     </row>
     <row r="28" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="50"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4" t="s">
         <v>165</v>
       </c>
@@ -5832,7 +5829,7 @@
       <c r="XFD28"/>
     </row>
     <row r="29" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="53" t="s">
         <v>166</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -5885,7 +5882,7 @@
       <c r="XFD29"/>
     </row>
     <row r="30" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="50"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4" t="s">
         <v>168</v>
       </c>
@@ -5936,7 +5933,7 @@
       <c r="XFD30"/>
     </row>
     <row r="31" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="50"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="4" t="s">
         <v>169</v>
       </c>
@@ -5987,7 +5984,7 @@
       <c r="XFD31"/>
     </row>
     <row r="32" spans="1:7 16349:16384" ht="23.25" customHeight="1">
-      <c r="A32" s="50"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4" t="s">
         <v>170</v>
       </c>
@@ -6002,7 +5999,7 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A33" s="50"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="4" t="s">
         <v>171</v>
       </c>
@@ -6017,7 +6014,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A34" s="50"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="4" t="s">
         <v>172</v>
       </c>
@@ -6032,7 +6029,7 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A35" s="50"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="4" t="s">
         <v>173</v>
       </c>
@@ -6047,7 +6044,7 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A36" s="50"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="4" t="s">
         <v>174</v>
       </c>
@@ -6062,7 +6059,7 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A37" s="50"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="4" t="s">
         <v>175</v>
       </c>
@@ -6077,7 +6074,7 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A38" s="50"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="4" t="s">
         <v>176</v>
       </c>
@@ -6092,7 +6089,7 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A39" s="50"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="4" t="s">
         <v>177</v>
       </c>
@@ -6107,7 +6104,7 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A40" s="50"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="4" t="s">
         <v>178</v>
       </c>
@@ -6122,7 +6119,7 @@
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A41" s="50"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="4" t="s">
         <v>179</v>
       </c>

--- a/DOC/DMS开发计划-6.5.xlsx
+++ b/DOC/DMS开发计划-6.5.xlsx
@@ -1064,7 +1064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,9 +1152,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1182,21 +1179,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1213,6 +1195,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1540,10 +1537,10 @@
   <dimension ref="A1:XFD50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5:E6"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1585,7 +1582,7 @@
       </c>
     </row>
     <row r="2" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -1638,7 +1635,7 @@
       <c r="XFD2"/>
     </row>
     <row r="3" spans="1:8 16350:16384" s="5" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="21" t="s">
         <v>23</v>
       </c>
@@ -1687,7 +1684,7 @@
       <c r="XFD3"/>
     </row>
     <row r="4" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="44"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="21" t="s">
         <v>24</v>
       </c>
@@ -1736,7 +1733,7 @@
       <c r="XFD4"/>
     </row>
     <row r="5" spans="1:8 16350:16384" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="39" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -1791,7 +1788,7 @@
       <c r="XFD5"/>
     </row>
     <row r="6" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="19" t="s">
         <v>181</v>
       </c>
@@ -1842,7 +1839,7 @@
       <c r="XFD6"/>
     </row>
     <row r="7" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="48" t="s">
         <v>180</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -1893,7 +1890,7 @@
       <c r="XFD7"/>
     </row>
     <row r="8" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="21" t="s">
         <v>19</v>
       </c>
@@ -1942,7 +1939,7 @@
       <c r="XFD8"/>
     </row>
     <row r="9" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="44"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="21" t="s">
         <v>20</v>
       </c>
@@ -1991,7 +1988,7 @@
       <c r="XFD9"/>
     </row>
     <row r="10" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="48" t="s">
         <v>198</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -2009,7 +2006,7 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="44"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="28" t="s">
         <v>216</v>
       </c>
@@ -2025,7 +2022,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="44"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="28" t="s">
         <v>217</v>
       </c>
@@ -2041,10 +2038,10 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="47" t="s">
         <v>184</v>
       </c>
       <c r="C13" s="28" t="s">
@@ -2061,8 +2058,8 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="21" t="s">
         <v>10</v>
       </c>
@@ -2077,8 +2074,8 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="21" t="s">
         <v>9</v>
       </c>
@@ -2093,8 +2090,8 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="28" t="s">
         <v>186</v>
       </c>
@@ -2107,8 +2104,8 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="28" t="s">
         <v>187</v>
       </c>
@@ -2121,8 +2118,8 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="40"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="28" t="s">
         <v>188</v>
       </c>
@@ -2135,8 +2132,8 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="28" t="s">
         <v>257</v>
       </c>
@@ -2149,8 +2146,8 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="25" t="s">
         <v>189</v>
       </c>
@@ -2163,8 +2160,8 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="40"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="28" t="s">
         <v>203</v>
       </c>
@@ -2179,8 +2176,8 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="28" t="s">
         <v>204</v>
       </c>
@@ -2195,8 +2192,8 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="28" t="s">
         <v>205</v>
       </c>
@@ -2211,9 +2208,9 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="30" t="s">
+      <c r="A24" s="45"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="29" t="s">
         <v>206</v>
       </c>
       <c r="D24" s="17"/>
@@ -2225,8 +2222,8 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="42"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="22" t="s">
         <v>207</v>
       </c>
@@ -2237,8 +2234,8 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="40"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="24" t="s">
         <v>208</v>
       </c>
@@ -2253,8 +2250,8 @@
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="40"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="22" t="s">
         <v>209</v>
       </c>
@@ -2267,9 +2264,9 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="40"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="30" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="29" t="s">
         <v>210</v>
       </c>
       <c r="D28" s="17" t="s">
@@ -2283,9 +2280,9 @@
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="40"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="30" t="s">
+      <c r="A29" s="45"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="29" t="s">
         <v>211</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -2299,9 +2296,9 @@
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="40"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="30" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="29" t="s">
         <v>212</v>
       </c>
       <c r="D30" s="17" t="s">
@@ -2315,9 +2312,9 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="40"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="30" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="29" t="s">
         <v>214</v>
       </c>
       <c r="D31" s="17" t="s">
@@ -2331,8 +2328,8 @@
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="40"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="28" t="s">
         <v>190</v>
       </c>
@@ -2347,8 +2344,8 @@
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="40"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="28" t="s">
         <v>191</v>
       </c>
@@ -2363,8 +2360,8 @@
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="40"/>
-      <c r="B34" s="39" t="s">
+      <c r="A34" s="45"/>
+      <c r="B34" s="44" t="s">
         <v>192</v>
       </c>
       <c r="C34" s="28" t="s">
@@ -2381,8 +2378,8 @@
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="19" t="s">
         <v>194</v>
       </c>
@@ -2397,8 +2394,8 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="19" t="s">
         <v>195</v>
       </c>
@@ -2413,8 +2410,8 @@
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="19" t="s">
         <v>196</v>
       </c>
@@ -2429,8 +2426,8 @@
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="40"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="19" t="s">
         <v>197</v>
       </c>
@@ -2445,7 +2442,7 @@
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A39" s="40"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="23" t="s">
         <v>11</v>
       </c>
@@ -2459,14 +2456,14 @@
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" s="5" customFormat="1" ht="42" customHeight="1">
-      <c r="A40" s="40"/>
-      <c r="B40" s="31" t="s">
+      <c r="A40" s="45"/>
+      <c r="B40" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="31" t="s">
         <v>233</v>
       </c>
       <c r="E40" s="15" t="s">
@@ -2477,25 +2474,25 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" s="5" customFormat="1" ht="42" customHeight="1">
-      <c r="A41" s="38"/>
-      <c r="B41" s="33" t="s">
+      <c r="A41" s="37"/>
+      <c r="B41" s="32" t="s">
         <v>251</v>
       </c>
       <c r="C41" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
     </row>
     <row r="42" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="41" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -2517,7 +2514,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A43" s="48"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="21" t="s">
         <v>32</v>
       </c>
@@ -2537,13 +2534,13 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="29"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="4" t="s">
         <v>235</v>
       </c>
@@ -2559,11 +2556,11 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A45" s="49"/>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="43"/>
+      <c r="B45" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="29"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="4"/>
       <c r="E45" s="15" t="s">
         <v>243</v>
@@ -2729,7 +2726,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2738,14 +2735,14 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="52"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2756,7 +2753,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="1">
-      <c r="A4" s="55"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
@@ -2765,14 +2762,14 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="56"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2781,14 +2778,14 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="38.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2796,13 +2793,13 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="53" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2810,13 +2807,13 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="52" t="s">
         <v>96</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2824,13 +2821,13 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="53"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="53"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="4" t="s">
         <v>99</v>
       </c>
@@ -2892,7 +2889,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2907,7 +2904,7 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="51"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
@@ -2922,7 +2919,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="53.1" customHeight="1">
-      <c r="A4" s="51"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
@@ -2937,7 +2934,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="51"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
@@ -2950,7 +2947,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
@@ -2976,7 +2973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XDT37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24:E35"/>
     </sheetView>
   </sheetViews>
@@ -3014,7 +3011,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3031,7 +3028,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A3" s="51"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
@@ -3044,7 +3041,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="51"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
@@ -3057,7 +3054,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="51"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="4" t="s">
         <v>51</v>
       </c>
@@ -3070,7 +3067,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="51"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -3083,7 +3080,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="51"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="4" t="s">
         <v>53</v>
       </c>
@@ -3096,7 +3093,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="51"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="4" t="s">
         <v>54</v>
       </c>
@@ -3109,7 +3106,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="51"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
@@ -3122,7 +3119,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="51"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
@@ -3135,7 +3132,7 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="51"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="4" t="s">
         <v>57</v>
       </c>
@@ -3148,7 +3145,7 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="51"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
@@ -3161,7 +3158,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="51"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
@@ -3174,7 +3171,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="52"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
@@ -3187,7 +3184,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="49" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -3202,7 +3199,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="51"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="4" t="s">
         <v>63</v>
       </c>
@@ -3215,7 +3212,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="52"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="4" t="s">
         <v>64</v>
       </c>
@@ -3228,7 +3225,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="49" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3243,7 +3240,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="51"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="4" t="s">
         <v>67</v>
       </c>
@@ -3256,7 +3253,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="51"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
@@ -3269,7 +3266,7 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="52"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="4" t="s">
         <v>69</v>
       </c>
@@ -3282,7 +3279,7 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="49" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3297,7 +3294,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="52"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="4" t="s">
         <v>71</v>
       </c>
@@ -3310,7 +3307,7 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="52" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3327,7 +3324,7 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A25" s="53"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
@@ -3340,7 +3337,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="53"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
@@ -3353,7 +3350,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="53"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
@@ -3366,7 +3363,7 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="53"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="4" t="s">
         <v>52</v>
       </c>
@@ -3379,7 +3376,7 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="53"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="4" t="s">
         <v>54</v>
       </c>
@@ -3392,7 +3389,7 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="53"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="4" t="s">
         <v>55</v>
       </c>
@@ -3405,7 +3402,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="53"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
@@ -3418,7 +3415,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="53"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
       </c>
@@ -3431,7 +3428,7 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A33" s="53"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="4" t="s">
         <v>58</v>
       </c>
@@ -3444,7 +3441,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A34" s="53"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="4" t="s">
         <v>59</v>
       </c>
@@ -3457,7 +3454,7 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A35" s="53"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="4" t="s">
         <v>60</v>
       </c>
@@ -3470,7 +3467,7 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="52" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3485,7 +3482,7 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A37" s="53"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="4" t="s">
         <v>75</v>
       </c>
@@ -3555,7 +3552,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3572,7 +3569,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="4" t="s">
         <v>80</v>
       </c>
@@ -3587,7 +3584,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="53"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="4" t="s">
         <v>81</v>
       </c>
@@ -3652,7 +3649,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3669,7 +3666,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="4" t="s">
         <v>84</v>
       </c>
@@ -3887,7 +3884,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3902,7 +3899,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="4" t="s">
         <v>98</v>
       </c>
@@ -3915,7 +3912,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="38.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="4" t="s">
         <v>99</v>
       </c>
@@ -3958,7 +3955,7 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4009,7 +4006,7 @@
       <c r="XFD7"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="25.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="4" t="s">
         <v>106</v>
       </c>
@@ -4211,7 +4208,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4226,7 +4223,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="4" t="s">
         <v>114</v>
       </c>
@@ -4239,7 +4236,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4254,7 +4251,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="53"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="4" t="s">
         <v>117</v>
       </c>
@@ -4267,7 +4264,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4318,7 +4315,7 @@
       <c r="XFD6"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="4" t="s">
         <v>120</v>
       </c>
@@ -4469,7 +4466,7 @@
       <c r="XFD9"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="52" t="s">
         <v>123</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -4520,7 +4517,7 @@
       <c r="XFD10"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="4" t="s">
         <v>125</v>
       </c>
@@ -4569,7 +4566,7 @@
       <c r="XFD11"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="4" t="s">
         <v>126</v>
       </c>
@@ -4618,7 +4615,7 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="52" t="s">
         <v>127</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -4633,7 +4630,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A14" s="53"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="4" t="s">
         <v>129</v>
       </c>
@@ -4646,7 +4643,7 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A15" s="53"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="4" t="s">
         <v>130</v>
       </c>
@@ -4713,7 +4710,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>131</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4728,7 +4725,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="51"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="4" t="s">
         <v>132</v>
       </c>
@@ -4741,7 +4738,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A4" s="52"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="4" t="s">
         <v>133</v>
       </c>
@@ -4802,7 +4799,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4819,7 +4816,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="4" t="s">
         <v>136</v>
       </c>
@@ -4834,7 +4831,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="53"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="4" t="s">
         <v>137</v>
       </c>
@@ -4849,7 +4846,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="53"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="4" t="s">
         <v>138</v>
       </c>
@@ -4864,7 +4861,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="53"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="4" t="s">
         <v>139</v>
       </c>
@@ -4879,7 +4876,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>140</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4896,7 +4893,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="4" t="s">
         <v>142</v>
       </c>
@@ -4911,7 +4908,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="53"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="4" t="s">
         <v>143</v>
       </c>
@@ -4926,7 +4923,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="53"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="4" t="s">
         <v>144</v>
       </c>
@@ -4941,7 +4938,7 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="4" t="s">
         <v>145</v>
       </c>
@@ -4956,7 +4953,7 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>146</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5009,7 +5006,7 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" s="5" customFormat="1" ht="42.95" customHeight="1">
-      <c r="A13" s="53"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="4" t="s">
         <v>148</v>
       </c>
@@ -5060,7 +5057,7 @@
       <c r="XFD13"/>
     </row>
     <row r="14" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="49" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -5113,7 +5110,7 @@
       <c r="XFD14"/>
     </row>
     <row r="15" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="51"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="4" t="s">
         <v>151</v>
       </c>
@@ -5164,7 +5161,7 @@
       <c r="XFD15"/>
     </row>
     <row r="16" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="51"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="4" t="s">
         <v>152</v>
       </c>
@@ -5215,7 +5212,7 @@
       <c r="XFD16"/>
     </row>
     <row r="17" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="51"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="4" t="s">
         <v>153</v>
       </c>
@@ -5266,7 +5263,7 @@
       <c r="XFD17"/>
     </row>
     <row r="18" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="51"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="4" t="s">
         <v>154</v>
       </c>
@@ -5317,7 +5314,7 @@
       <c r="XFD18"/>
     </row>
     <row r="19" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="51"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="4" t="s">
         <v>155</v>
       </c>
@@ -5368,7 +5365,7 @@
       <c r="XFD19"/>
     </row>
     <row r="20" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="51"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="7" t="s">
         <v>156</v>
       </c>
@@ -5419,7 +5416,7 @@
       <c r="XFD20"/>
     </row>
     <row r="21" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="51"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="7" t="s">
         <v>157</v>
       </c>
@@ -5470,7 +5467,7 @@
       <c r="XFD21"/>
     </row>
     <row r="22" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="52" t="s">
         <v>158</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -5523,7 +5520,7 @@
       <c r="XFD22"/>
     </row>
     <row r="23" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="53"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="4" t="s">
         <v>160</v>
       </c>
@@ -5574,7 +5571,7 @@
       <c r="XFD23"/>
     </row>
     <row r="24" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="53"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="4" t="s">
         <v>161</v>
       </c>
@@ -5625,7 +5622,7 @@
       <c r="XFD24"/>
     </row>
     <row r="25" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="53"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="4" t="s">
         <v>162</v>
       </c>
@@ -5676,7 +5673,7 @@
       <c r="XFD25"/>
     </row>
     <row r="26" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="53"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="4" t="s">
         <v>163</v>
       </c>
@@ -5727,7 +5724,7 @@
       <c r="XFD26"/>
     </row>
     <row r="27" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="53"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="4" t="s">
         <v>164</v>
       </c>
@@ -5778,7 +5775,7 @@
       <c r="XFD27"/>
     </row>
     <row r="28" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="53"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="4" t="s">
         <v>165</v>
       </c>
@@ -5829,7 +5826,7 @@
       <c r="XFD28"/>
     </row>
     <row r="29" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="52" t="s">
         <v>166</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -5882,7 +5879,7 @@
       <c r="XFD29"/>
     </row>
     <row r="30" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="53"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="4" t="s">
         <v>168</v>
       </c>
@@ -5933,7 +5930,7 @@
       <c r="XFD30"/>
     </row>
     <row r="31" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="53"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="4" t="s">
         <v>169</v>
       </c>
@@ -5984,7 +5981,7 @@
       <c r="XFD31"/>
     </row>
     <row r="32" spans="1:7 16349:16384" ht="23.25" customHeight="1">
-      <c r="A32" s="53"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="4" t="s">
         <v>170</v>
       </c>
@@ -5999,7 +5996,7 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A33" s="53"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="4" t="s">
         <v>171</v>
       </c>
@@ -6014,7 +6011,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A34" s="53"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="4" t="s">
         <v>172</v>
       </c>
@@ -6029,7 +6026,7 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A35" s="53"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="4" t="s">
         <v>173</v>
       </c>
@@ -6044,7 +6041,7 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A36" s="53"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="4" t="s">
         <v>174</v>
       </c>
@@ -6059,7 +6056,7 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A37" s="53"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="4" t="s">
         <v>175</v>
       </c>
@@ -6074,7 +6071,7 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A38" s="53"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="4" t="s">
         <v>176</v>
       </c>
@@ -6089,7 +6086,7 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A39" s="53"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="4" t="s">
         <v>177</v>
       </c>
@@ -6104,7 +6101,7 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A40" s="53"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="4" t="s">
         <v>178</v>
       </c>
@@ -6119,7 +6116,7 @@
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A41" s="53"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="4" t="s">
         <v>179</v>
       </c>

--- a/DOC/DMS开发计划-6.5.xlsx
+++ b/DOC/DMS开发计划-6.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统设置" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="260">
   <si>
     <t>功能模块</t>
   </si>
@@ -889,6 +889,10 @@
   <si>
     <t>rpb_guest_type
 rpb_guest_type_discount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1536,11 +1540,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -2849,10 +2853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XDT6"/>
+  <dimension ref="A1:XDT9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -2958,6 +2962,11 @@
       <c r="E6" s="14"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
+    </row>
+    <row r="9" spans="1:7" ht="23.25" customHeight="1">
+      <c r="C9" s="7" t="s">
+        <v>259</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DOC/DMS开发计划-6.5.xlsx
+++ b/DOC/DMS开发计划-6.5.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="11730" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="系统设置" sheetId="2" r:id="rId1"/>
@@ -1538,10 +1538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFD50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B13" sqref="B13:B33"/>
@@ -2716,6 +2717,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2853,10 +2855,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:XDT9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -2980,10 +2983,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XDT37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:E35"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -3521,6 +3525,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:XDT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3618,10 +3623,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:XDT12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -3853,6 +3859,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:XFD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4177,6 +4184,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:XFD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4679,6 +4687,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:XDT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4770,9 +4779,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:XFD41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>

--- a/DOC/DMS开发计划-6.5.xlsx
+++ b/DOC/DMS开发计划-6.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="11730" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="系统设置" sheetId="2" r:id="rId1"/>
@@ -1541,11 +1541,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFD50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13:B33"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -4782,7 +4782,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:XFD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>

--- a/DOC/DMS开发计划-6.5.xlsx
+++ b/DOC/DMS开发计划-6.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="11730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="系统设置" sheetId="2" r:id="rId1"/>
@@ -1541,8 +1541,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
@@ -2986,7 +2986,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XDT37"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -3529,7 +3529,7 @@
   <dimension ref="A1:XDT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -3577,7 +3577,7 @@
         <v>79</v>
       </c>
       <c r="E2" s="10">
-        <v>43283</v>
+        <v>43317</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -3592,7 +3592,7 @@
         <v>79</v>
       </c>
       <c r="E3" s="10">
-        <v>43283</v>
+        <v>43317</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -3607,7 +3607,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="10">
-        <v>43283</v>
+        <v>43317</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -3627,7 +3627,7 @@
   <dimension ref="A1:XDT12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -3741,7 +3741,7 @@
         <v>79</v>
       </c>
       <c r="E6" s="10">
-        <v>43284</v>
+        <v>43317</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
@@ -3758,7 +3758,7 @@
         <v>79</v>
       </c>
       <c r="E7" s="10">
-        <v>43284</v>
+        <v>43317</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
@@ -3775,7 +3775,7 @@
         <v>79</v>
       </c>
       <c r="E8" s="10">
-        <v>43284</v>
+        <v>43317</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
@@ -3792,7 +3792,7 @@
         <v>79</v>
       </c>
       <c r="E9" s="10">
-        <v>43284</v>
+        <v>43317</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
@@ -3809,7 +3809,7 @@
         <v>79</v>
       </c>
       <c r="E10" s="10">
-        <v>43284</v>
+        <v>43317</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
@@ -3826,7 +3826,7 @@
         <v>79</v>
       </c>
       <c r="E11" s="10">
-        <v>43284</v>
+        <v>43317</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
@@ -4187,8 +4187,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:XFD15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -4782,7 +4782,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:XFD41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>

--- a/DOC/DMS开发计划-6.5.xlsx
+++ b/DOC/DMS开发计划-6.5.xlsx
@@ -2987,7 +2987,7 @@
   <dimension ref="A1:XDT37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -4187,8 +4187,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:XFD15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
